--- a/output/GA_MUresult.xlsx
+++ b/output/GA_MUresult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="43">
   <si>
     <t>学号</t>
   </si>
@@ -34,130 +34,134 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>Ag老师</t>
+  </si>
+  <si>
+    <t>C老师</t>
+  </si>
+  <si>
+    <t>V老师</t>
+  </si>
+  <si>
     <t>R老师</t>
   </si>
   <si>
+    <t>F老师</t>
+  </si>
+  <si>
+    <t>P老师</t>
+  </si>
+  <si>
+    <t>Z老师</t>
+  </si>
+  <si>
+    <t>X老师</t>
+  </si>
+  <si>
+    <t>A老师</t>
+  </si>
+  <si>
     <t>G老师</t>
   </si>
   <si>
     <t>O老师</t>
   </si>
   <si>
+    <t>Ac老师</t>
+  </si>
+  <si>
+    <t>E老师</t>
+  </si>
+  <si>
+    <t>I老师</t>
+  </si>
+  <si>
+    <t>H老师</t>
+  </si>
+  <si>
+    <t>N老师</t>
+  </si>
+  <si>
+    <t>W老师</t>
+  </si>
+  <si>
     <t>Ae老师</t>
   </si>
   <si>
-    <t>I老师</t>
-  </si>
-  <si>
-    <t>C老师</t>
+    <t>T老师</t>
+  </si>
+  <si>
+    <t>K老师</t>
+  </si>
+  <si>
+    <t>J老师</t>
+  </si>
+  <si>
+    <t>Aa老师</t>
   </si>
   <si>
     <t>M老师</t>
   </si>
   <si>
-    <t>A老师</t>
-  </si>
-  <si>
-    <t>Aa老师</t>
-  </si>
-  <si>
-    <t>N老师</t>
+    <t>D老师</t>
+  </si>
+  <si>
+    <t>B老师</t>
+  </si>
+  <si>
+    <t>Ad老师</t>
+  </si>
+  <si>
+    <t>U老师</t>
+  </si>
+  <si>
+    <t>Q老师</t>
+  </si>
+  <si>
+    <t>Ab老师</t>
+  </si>
+  <si>
+    <t>S老师</t>
   </si>
   <si>
     <t>Y老师</t>
   </si>
   <si>
-    <t>U老师</t>
-  </si>
-  <si>
-    <t>Z老师</t>
-  </si>
-  <si>
-    <t>B老师</t>
-  </si>
-  <si>
-    <t>Q老师</t>
-  </si>
-  <si>
-    <t>F老师</t>
-  </si>
-  <si>
-    <t>D老师</t>
-  </si>
-  <si>
-    <t>Af老师</t>
-  </si>
-  <si>
-    <t>P老师</t>
-  </si>
-  <si>
-    <t>J老师</t>
-  </si>
-  <si>
-    <t>X老师</t>
-  </si>
-  <si>
-    <t>K老师</t>
-  </si>
-  <si>
-    <t>E老师</t>
-  </si>
-  <si>
-    <t>Ad老师</t>
-  </si>
-  <si>
-    <t>S老师</t>
-  </si>
-  <si>
-    <t>W老师</t>
-  </si>
-  <si>
-    <t>V老师</t>
-  </si>
-  <si>
-    <t>T老师</t>
-  </si>
-  <si>
-    <t>Ac老师</t>
-  </si>
-  <si>
     <t>L老师</t>
   </si>
   <si>
-    <t>H老师</t>
-  </si>
-  <si>
-    <t>Ab老师</t>
-  </si>
-  <si>
-    <t>Ag老师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Af老师,
-P老师,
-F老师,
-Y老师,
+    <t xml:space="preserve">Z老师,
+Ab老师,
+Ad老师,
+I老师,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">J老师,
-T老师,
-Ac老师,
+    <t xml:space="preserve">B老师,
+M老师,
+Aa老师,
 L老师,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A老师,
-Ae老师,
-I老师,
+    <t xml:space="preserve">K老师,
+S老师,
+D老师,
 Q老师,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">U老师,
-Z老师,
-B老师,
-G老师,
+    <t xml:space="preserve">G老师,
+Ae老师,
+X老师,
+F老师,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">T老师,
+C老师,
+W老师,
+E老师,
 </t>
   </si>
 </sst>
@@ -516,7 +520,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F116"/>
+  <dimension ref="A1:F144"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -544,19 +548,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31402059</v>
+        <v>133</v>
       </c>
       <c r="C2">
-        <v>2.722936</v>
+        <v>1.630404520691865</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -564,19 +568,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31402060</v>
+        <v>134</v>
       </c>
       <c r="C3">
-        <v>3.072115</v>
+        <v>1.578951975685201</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F3" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -584,19 +588,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31402061</v>
+        <v>135</v>
       </c>
       <c r="C4">
-        <v>2.606954</v>
+        <v>2.827783886812517</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="F4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -604,19 +608,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>31402017</v>
+        <v>136</v>
       </c>
       <c r="C5">
-        <v>3.158599</v>
+        <v>1.700006515657177</v>
       </c>
       <c r="D5" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -624,19 +628,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31402110</v>
+        <v>137</v>
       </c>
       <c r="C6">
-        <v>3.352063</v>
+        <v>2.837433777038126</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F6" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -644,19 +648,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31402111</v>
+        <v>138</v>
       </c>
       <c r="C7">
-        <v>1.966361</v>
+        <v>2.549911199540241</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="F7" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -664,19 +668,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31402040</v>
+        <v>8</v>
       </c>
       <c r="C8">
-        <v>2.096884</v>
+        <v>2.109665113983974</v>
       </c>
       <c r="D8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F8" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -684,19 +688,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31402041</v>
+        <v>9</v>
       </c>
       <c r="C9">
-        <v>2.720973</v>
+        <v>2.120449670866641</v>
       </c>
       <c r="D9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -704,19 +708,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31402042</v>
+        <v>10</v>
       </c>
       <c r="C10">
-        <v>2.088623</v>
+        <v>1.576052835120633</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -724,19 +728,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31402043</v>
+        <v>11</v>
       </c>
       <c r="C11">
-        <v>2.743544</v>
+        <v>1.970685671103329</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -744,19 +748,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31402099</v>
+        <v>97</v>
       </c>
       <c r="C12">
-        <v>2.03597</v>
+        <v>2.670673845041919</v>
       </c>
       <c r="D12" t="s">
+        <v>8</v>
+      </c>
+      <c r="E12" t="s">
         <v>9</v>
       </c>
-      <c r="E12" t="s">
-        <v>23</v>
-      </c>
       <c r="F12" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -764,19 +768,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31402100</v>
+        <v>98</v>
       </c>
       <c r="C13">
-        <v>3.822373</v>
+        <v>2.652502428342106</v>
       </c>
       <c r="D13" t="s">
+        <v>8</v>
+      </c>
+      <c r="E13" t="s">
         <v>9</v>
       </c>
-      <c r="E13" t="s">
-        <v>23</v>
-      </c>
       <c r="F13" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -784,19 +788,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31402101</v>
+        <v>99</v>
       </c>
       <c r="C14">
-        <v>2.876221</v>
+        <v>2.908321388221009</v>
       </c>
       <c r="D14" t="s">
+        <v>8</v>
+      </c>
+      <c r="E14" t="s">
         <v>9</v>
       </c>
-      <c r="E14" t="s">
-        <v>23</v>
-      </c>
       <c r="F14" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -804,19 +808,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31402102</v>
+        <v>100</v>
       </c>
       <c r="C15">
-        <v>2.006024</v>
+        <v>2.660231317805481</v>
       </c>
       <c r="D15" t="s">
+        <v>8</v>
+      </c>
+      <c r="E15" t="s">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
-        <v>23</v>
-      </c>
       <c r="F15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -824,19 +828,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31402049</v>
+        <v>101</v>
       </c>
       <c r="C16">
-        <v>2.610726</v>
+        <v>1.603687551426228</v>
       </c>
       <c r="D16" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F16" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -844,19 +848,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31402050</v>
+        <v>102</v>
       </c>
       <c r="C17">
-        <v>2.946965</v>
+        <v>1.530942770463829</v>
       </c>
       <c r="D17" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="F17" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -864,19 +868,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31402051</v>
+        <v>78</v>
       </c>
       <c r="C18">
-        <v>3.30639</v>
+        <v>1.777431653431105</v>
       </c>
       <c r="D18" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E18" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F18" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -884,19 +888,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31402052</v>
+        <v>79</v>
       </c>
       <c r="C19">
-        <v>2.530878</v>
+        <v>1.957083807871434</v>
       </c>
       <c r="D19" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E19" t="s">
-        <v>24</v>
+        <v>8</v>
       </c>
       <c r="F19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -904,19 +908,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31402004</v>
+        <v>80</v>
       </c>
       <c r="C20">
-        <v>3.711243</v>
+        <v>2.652799002158502</v>
       </c>
       <c r="D20" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E20" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -924,19 +928,19 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31402005</v>
+        <v>81</v>
       </c>
       <c r="C21">
-        <v>1.964815</v>
+        <v>1.683353165144009</v>
       </c>
       <c r="D21" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E21" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F21" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -944,19 +948,19 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>31402006</v>
+        <v>82</v>
       </c>
       <c r="C22">
-        <v>3.105346</v>
+        <v>2.1675341714983</v>
       </c>
       <c r="D22" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F22" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -964,19 +968,19 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31402007</v>
+        <v>83</v>
       </c>
       <c r="C23">
-        <v>2.353618</v>
+        <v>2.736877100049655</v>
       </c>
       <c r="D23" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>21</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -984,19 +988,19 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>31402008</v>
+        <v>23</v>
       </c>
       <c r="C24">
-        <v>3.963973</v>
+        <v>1.699420875427582</v>
       </c>
       <c r="D24" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E24" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F24" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1004,19 +1008,19 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31402009</v>
+        <v>24</v>
       </c>
       <c r="C25">
-        <v>2.720973</v>
+        <v>2.920377214570038</v>
       </c>
       <c r="D25" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E25" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="F25" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -1024,19 +1028,19 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>31402034</v>
+        <v>25</v>
       </c>
       <c r="C26">
-        <v>3.195427</v>
+        <v>2.048309985068832</v>
       </c>
       <c r="D26" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E26" t="s">
-        <v>8</v>
+        <v>31</v>
       </c>
       <c r="F26" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -1044,19 +1048,19 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>31402035</v>
+        <v>70</v>
       </c>
       <c r="C27">
-        <v>2.729503</v>
+        <v>2.060699803422914</v>
       </c>
       <c r="D27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F27" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -1064,19 +1068,19 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>31402036</v>
+        <v>71</v>
       </c>
       <c r="C28">
-        <v>3.385987</v>
+        <v>2.739207339127408</v>
       </c>
       <c r="D28" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E28" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F28" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1084,19 +1088,19 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>31402037</v>
+        <v>72</v>
       </c>
       <c r="C29">
-        <v>2.889759</v>
+        <v>2.487672523201617</v>
       </c>
       <c r="D29" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E29" t="s">
-        <v>8</v>
+        <v>19</v>
       </c>
       <c r="F29" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -1124,19 +1128,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>31402001</v>
+        <v>113</v>
       </c>
       <c r="C31">
-        <v>2.56422</v>
+        <v>1.527047316331935</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F31" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1144,19 +1148,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>31402002</v>
+        <v>114</v>
       </c>
       <c r="C32">
-        <v>2.787896</v>
+        <v>2.922482832934838</v>
       </c>
       <c r="D32" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E32" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F32" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1164,19 +1168,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>31402062</v>
+        <v>115</v>
       </c>
       <c r="C33">
-        <v>2.378056</v>
+        <v>2.411839870789526</v>
       </c>
       <c r="D33" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E33" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F33" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1184,19 +1188,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>31402063</v>
+        <v>116</v>
       </c>
       <c r="C34">
-        <v>3.248428</v>
+        <v>1.704238581368151</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E34" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F34" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1204,19 +1208,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>31402064</v>
+        <v>117</v>
       </c>
       <c r="C35">
-        <v>3.250746</v>
+        <v>1.619616743654906</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E35" t="s">
-        <v>22</v>
+        <v>6</v>
       </c>
       <c r="F35" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1224,19 +1228,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>31402090</v>
+        <v>118</v>
       </c>
       <c r="C36">
-        <v>2.69622</v>
+        <v>1.988319826079366</v>
       </c>
       <c r="D36" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E36" t="s">
-        <v>15</v>
+        <v>6</v>
       </c>
       <c r="F36" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1244,19 +1248,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>31402091</v>
+        <v>106</v>
       </c>
       <c r="C37">
-        <v>2.800326</v>
+        <v>1.889245317414807</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E37" t="s">
-        <v>15</v>
+        <v>30</v>
       </c>
       <c r="F37" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1264,19 +1268,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>31402038</v>
+        <v>107</v>
       </c>
       <c r="C38">
-        <v>2.935714</v>
+        <v>2.967580467090931</v>
       </c>
       <c r="D38" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E38" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F38" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1284,19 +1288,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>31402039</v>
+        <v>1</v>
       </c>
       <c r="C39">
-        <v>3.290705</v>
+        <v>2.866684494099314</v>
       </c>
       <c r="D39" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E39" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="F39" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1304,19 +1308,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>31402082</v>
+        <v>2</v>
       </c>
       <c r="C40">
-        <v>2.691692</v>
+        <v>1.565375305298234</v>
       </c>
       <c r="D40" t="s">
+        <v>14</v>
+      </c>
+      <c r="E40" t="s">
         <v>16</v>
       </c>
-      <c r="E40" t="s">
-        <v>25</v>
-      </c>
       <c r="F40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1324,19 +1328,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>31402083</v>
+        <v>3</v>
       </c>
       <c r="C41">
-        <v>2.262539</v>
+        <v>2.206025089904525</v>
       </c>
       <c r="D41" t="s">
+        <v>14</v>
+      </c>
+      <c r="E41" t="s">
         <v>16</v>
       </c>
-      <c r="E41" t="s">
-        <v>25</v>
-      </c>
       <c r="F41" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1344,19 +1348,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>31402084</v>
+        <v>4</v>
       </c>
       <c r="C42">
-        <v>2.006024</v>
+        <v>2.920444623171142</v>
       </c>
       <c r="D42" t="s">
+        <v>14</v>
+      </c>
+      <c r="E42" t="s">
         <v>16</v>
       </c>
-      <c r="E42" t="s">
-        <v>25</v>
-      </c>
       <c r="F42" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1364,19 +1368,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>31402085</v>
+        <v>5</v>
       </c>
       <c r="C43">
-        <v>2.405864</v>
+        <v>2.520694689613655</v>
       </c>
       <c r="D43" t="s">
+        <v>14</v>
+      </c>
+      <c r="E43" t="s">
         <v>16</v>
       </c>
-      <c r="E43" t="s">
-        <v>25</v>
-      </c>
       <c r="F43" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1384,19 +1388,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>31402086</v>
+        <v>26</v>
       </c>
       <c r="C44">
-        <v>3.352063</v>
+        <v>2.449874103780102</v>
       </c>
       <c r="D44" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F44" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1404,19 +1408,19 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>31402087</v>
+        <v>27</v>
       </c>
       <c r="C45">
-        <v>2.327287</v>
+        <v>2.018233770300247</v>
       </c>
       <c r="D45" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F45" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:6">
@@ -1424,19 +1428,19 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>31402088</v>
+        <v>28</v>
       </c>
       <c r="C46">
-        <v>2.92994</v>
+        <v>1.628717728229421</v>
       </c>
       <c r="D46" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="F46" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1444,19 +1448,19 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>31402070</v>
+        <v>29</v>
       </c>
       <c r="C47">
-        <v>1.991818</v>
+        <v>1.846057428317661</v>
       </c>
       <c r="D47" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="F47" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:6">
@@ -1464,19 +1468,19 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>31402071</v>
+        <v>66</v>
       </c>
       <c r="C48">
-        <v>1.980091</v>
+        <v>2.444543514519101</v>
       </c>
       <c r="D48" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F48" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -1484,19 +1488,19 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>31402072</v>
+        <v>67</v>
       </c>
       <c r="C49">
-        <v>2.722823</v>
+        <v>2.781237328750095</v>
       </c>
       <c r="D49" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F49" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -1504,19 +1508,19 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>31402073</v>
+        <v>68</v>
       </c>
       <c r="C50">
-        <v>3.399385</v>
+        <v>1.80886216717193</v>
       </c>
       <c r="D50" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>33</v>
+        <v>14</v>
       </c>
       <c r="F50" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -1524,19 +1528,19 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>31402089</v>
+        <v>69</v>
       </c>
       <c r="C51">
-        <v>1.966361</v>
+        <v>1.9460548344703</v>
       </c>
       <c r="D51" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>34</v>
+        <v>14</v>
       </c>
       <c r="F51" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -1544,19 +1548,19 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>31402003</v>
+        <v>124</v>
       </c>
       <c r="C52">
-        <v>2.03597</v>
+        <v>1.836361526299618</v>
       </c>
       <c r="D52" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="F52" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -1564,19 +1568,19 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>31402053</v>
+        <v>125</v>
       </c>
       <c r="C53">
-        <v>3.574038</v>
+        <v>2.693053090663215</v>
       </c>
       <c r="D53" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E53" t="s">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="F53" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -1584,19 +1588,19 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>31402054</v>
+        <v>18</v>
       </c>
       <c r="C54">
-        <v>2.878221</v>
+        <v>2.149275288660855</v>
       </c>
       <c r="D54" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F54" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -1604,19 +1608,19 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>31402055</v>
+        <v>19</v>
       </c>
       <c r="C55">
-        <v>2.79624</v>
+        <v>2.797401625741759</v>
       </c>
       <c r="D55" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F55" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -1624,19 +1628,19 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>31402056</v>
+        <v>20</v>
       </c>
       <c r="C56">
-        <v>2.842877</v>
+        <v>2.959478823613159</v>
       </c>
       <c r="D56" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F56" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -1644,19 +1648,19 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>31402057</v>
+        <v>21</v>
       </c>
       <c r="C57">
-        <v>3.053205</v>
+        <v>2.434898962921663</v>
       </c>
       <c r="D57" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F57" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -1664,19 +1668,19 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>31402058</v>
+        <v>22</v>
       </c>
       <c r="C58">
-        <v>3.158599</v>
+        <v>2.587151098090557</v>
       </c>
       <c r="D58" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>16</v>
+        <v>37</v>
       </c>
       <c r="F58" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -1704,19 +1708,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>31402013</v>
+        <v>36</v>
       </c>
       <c r="C60">
-        <v>1.980091</v>
+        <v>2.808190064975927</v>
       </c>
       <c r="D60" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
         <v>11</v>
       </c>
       <c r="F60" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1724,19 +1728,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>31402014</v>
+        <v>37</v>
       </c>
       <c r="C61">
-        <v>3.105346</v>
+        <v>1.924614339759555</v>
       </c>
       <c r="D61" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
         <v>11</v>
       </c>
       <c r="F61" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1744,19 +1748,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>31402015</v>
+        <v>38</v>
       </c>
       <c r="C62">
-        <v>2.876825</v>
+        <v>1.885437885816116</v>
       </c>
       <c r="D62" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
         <v>11</v>
       </c>
       <c r="F62" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1764,19 +1768,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>31402016</v>
+        <v>30</v>
       </c>
       <c r="C63">
-        <v>2.221068</v>
+        <v>2.731176281265115</v>
       </c>
       <c r="D63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E63" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F63" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1784,19 +1788,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>31402018</v>
+        <v>31</v>
       </c>
       <c r="C64">
-        <v>2.722936</v>
+        <v>1.741728737961328</v>
       </c>
       <c r="D64" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="E64" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F64" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1804,19 +1808,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>31402010</v>
+        <v>32</v>
       </c>
       <c r="C65">
-        <v>2.088623</v>
+        <v>1.627533689927097</v>
       </c>
       <c r="D65" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F65" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1824,19 +1828,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>31402021</v>
+        <v>33</v>
       </c>
       <c r="C66">
-        <v>2.56901</v>
+        <v>2.920943299819209</v>
       </c>
       <c r="D66" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E66" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F66" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1844,19 +1848,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>31402022</v>
+        <v>34</v>
       </c>
       <c r="C67">
-        <v>3.263522</v>
+        <v>1.986101529192556</v>
       </c>
       <c r="D67" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F67" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1864,19 +1868,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>31402023</v>
+        <v>35</v>
       </c>
       <c r="C68">
-        <v>3.255346</v>
+        <v>1.721941486417469</v>
       </c>
       <c r="D68" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="F68" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1884,19 +1888,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>31402024</v>
+        <v>60</v>
       </c>
       <c r="C69">
-        <v>3.033951</v>
+        <v>2.875395239877117</v>
       </c>
       <c r="D69" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E69" t="s">
-        <v>13</v>
+        <v>25</v>
       </c>
       <c r="F69" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1904,19 +1908,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>31402103</v>
+        <v>61</v>
       </c>
       <c r="C70">
-        <v>2.405864</v>
+        <v>1.563181395583988</v>
       </c>
       <c r="D70" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E70" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F70" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1924,19 +1928,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>31402104</v>
+        <v>62</v>
       </c>
       <c r="C71">
-        <v>2.066867</v>
+        <v>2.43711231290674</v>
       </c>
       <c r="D71" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E71" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F71" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1944,19 +1948,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>31402105</v>
+        <v>63</v>
       </c>
       <c r="C72">
-        <v>2.327287</v>
+        <v>2.244199583076443</v>
       </c>
       <c r="D72" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E72" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F72" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1964,19 +1968,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>31402106</v>
+        <v>64</v>
       </c>
       <c r="C73">
-        <v>2.92994</v>
+        <v>1.647484074188322</v>
       </c>
       <c r="D73" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>9</v>
+        <v>25</v>
       </c>
       <c r="F73" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1984,19 +1988,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>31402044</v>
+        <v>65</v>
       </c>
       <c r="C74">
-        <v>2.813497</v>
+        <v>2.624742323676706</v>
       </c>
       <c r="D74" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E74" t="s">
-        <v>10</v>
+        <v>25</v>
       </c>
       <c r="F74" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2004,19 +2008,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>31402045</v>
+        <v>103</v>
       </c>
       <c r="C75">
-        <v>3.548878</v>
+        <v>2.252202810051159</v>
       </c>
       <c r="D75" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E75" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F75" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2024,19 +2028,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>31402046</v>
+        <v>104</v>
       </c>
       <c r="C76">
-        <v>3.466454</v>
+        <v>2.910082262306299</v>
       </c>
       <c r="D76" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E76" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F76" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2044,19 +2048,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>31402047</v>
+        <v>105</v>
       </c>
       <c r="C77">
-        <v>3.352063</v>
+        <v>2.894595215072396</v>
       </c>
       <c r="D77" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E77" t="s">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="F77" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2064,19 +2068,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>31402025</v>
+        <v>128</v>
       </c>
       <c r="C78">
-        <v>1.785455</v>
+        <v>2.961663658411357</v>
       </c>
       <c r="D78" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E78" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F78" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2084,19 +2088,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>31402026</v>
+        <v>129</v>
       </c>
       <c r="C79">
-        <v>2.802719</v>
+        <v>2.502537562216565</v>
       </c>
       <c r="D79" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E79" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F79" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2104,19 +2108,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>31402027</v>
+        <v>130</v>
       </c>
       <c r="C80">
-        <v>3.963973</v>
+        <v>2.605210788184397</v>
       </c>
       <c r="D80" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E80" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F80" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2124,19 +2128,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>31402028</v>
+        <v>131</v>
       </c>
       <c r="C81">
-        <v>2.946965</v>
+        <v>1.589069795426419</v>
       </c>
       <c r="D81" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E81" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F81" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2144,19 +2148,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>31402029</v>
+        <v>132</v>
       </c>
       <c r="C82">
-        <v>3.30639</v>
+        <v>2.748897764584604</v>
       </c>
       <c r="D82" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E82" t="s">
-        <v>20</v>
+        <v>29</v>
       </c>
       <c r="F82" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2164,19 +2168,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>31402030</v>
+        <v>87</v>
       </c>
       <c r="C83">
-        <v>2.530878</v>
+        <v>2.481935592689901</v>
       </c>
       <c r="D83" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E83" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F83" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2184,19 +2188,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>31402031</v>
+        <v>88</v>
       </c>
       <c r="C84">
-        <v>2.69269</v>
+        <v>1.998157058126026</v>
       </c>
       <c r="D84" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E84" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F84" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2204,39 +2208,39 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>31402048</v>
+        <v>89</v>
       </c>
       <c r="C85">
-        <v>2.903145</v>
+        <v>2.10690016571265</v>
       </c>
       <c r="D85" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E85" t="s">
-        <v>20</v>
+        <v>33</v>
       </c>
       <c r="F85" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="86" spans="1:6">
       <c r="A86" s="1">
         <v>84</v>
       </c>
-      <c r="B86" t="s">
-        <v>5</v>
-      </c>
-      <c r="C86" t="s">
-        <v>5</v>
+      <c r="B86">
+        <v>90</v>
+      </c>
+      <c r="C86">
+        <v>2.159634696196203</v>
       </c>
       <c r="D86" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E86" t="s">
-        <v>5</v>
+        <v>33</v>
       </c>
       <c r="F86" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2244,39 +2248,39 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>31402081</v>
+        <v>91</v>
       </c>
       <c r="C87">
-        <v>2.281346</v>
+        <v>2.18463632382138</v>
       </c>
       <c r="D87" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E87" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="F87" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88">
-        <v>31402032</v>
-      </c>
-      <c r="C88">
-        <v>2.570303</v>
+      <c r="B88" t="s">
+        <v>5</v>
+      </c>
+      <c r="C88" t="s">
+        <v>5</v>
       </c>
       <c r="D88" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E88" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="F88" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2284,19 +2288,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>31402096</v>
+        <v>45</v>
       </c>
       <c r="C89">
-        <v>2.720195</v>
+        <v>2.747266002717572</v>
       </c>
       <c r="D89" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E89" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F89" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2304,19 +2308,19 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>31402011</v>
+        <v>46</v>
       </c>
       <c r="C90">
-        <v>2.059079</v>
+        <v>1.613551145310027</v>
       </c>
       <c r="D90" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E90" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F90" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -2324,19 +2328,19 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>31402012</v>
+        <v>47</v>
       </c>
       <c r="C91">
-        <v>3.104776</v>
+        <v>2.132819589803721</v>
       </c>
       <c r="D91" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="E91" t="s">
-        <v>29</v>
+        <v>21</v>
       </c>
       <c r="F91" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2344,19 +2348,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>31402098</v>
+        <v>48</v>
       </c>
       <c r="C92">
-        <v>2.787896</v>
+        <v>2.326108095344212</v>
       </c>
       <c r="D92" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E92" t="s">
-        <v>28</v>
+        <v>21</v>
       </c>
       <c r="F92" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2364,19 +2368,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>31402065</v>
+        <v>49</v>
       </c>
       <c r="C93">
-        <v>2.977976</v>
+        <v>1.766857775762538</v>
       </c>
       <c r="D93" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E93" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F93" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2384,19 +2388,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>31402077</v>
+        <v>50</v>
       </c>
       <c r="C94">
-        <v>3.033951</v>
+        <v>2.383781800329181</v>
       </c>
       <c r="D94" t="s">
-        <v>31</v>
+        <v>25</v>
       </c>
       <c r="E94" t="s">
-        <v>37</v>
+        <v>21</v>
       </c>
       <c r="F94" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2404,19 +2408,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>31402078</v>
+        <v>39</v>
       </c>
       <c r="C95">
-        <v>1.785455</v>
+        <v>1.908969930474364</v>
       </c>
       <c r="D95" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E95" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F95" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2424,19 +2428,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>31402079</v>
+        <v>40</v>
       </c>
       <c r="C96">
-        <v>2.802719</v>
+        <v>1.909591121032142</v>
       </c>
       <c r="D96" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E96" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F96" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2444,19 +2448,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>31402080</v>
+        <v>41</v>
       </c>
       <c r="C97">
-        <v>1.980091</v>
+        <v>1.623969615654537</v>
       </c>
       <c r="D97" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E97" t="s">
-        <v>37</v>
+        <v>20</v>
       </c>
       <c r="F97" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2464,19 +2468,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>31402074</v>
+        <v>42</v>
       </c>
       <c r="C98">
-        <v>2.393617</v>
+        <v>2.68094084302625</v>
       </c>
       <c r="D98" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F98" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2484,19 +2488,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>31402075</v>
+        <v>43</v>
       </c>
       <c r="C99">
-        <v>3.263522</v>
+        <v>1.806667676788949</v>
       </c>
       <c r="D99" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F99" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2504,19 +2508,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>31402076</v>
+        <v>44</v>
       </c>
       <c r="C100">
-        <v>3.255346</v>
+        <v>1.537400620851963</v>
       </c>
       <c r="D100" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>20</v>
       </c>
       <c r="F100" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2524,19 +2528,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>31402066</v>
+        <v>119</v>
       </c>
       <c r="C101">
-        <v>3.711243</v>
+        <v>2.412860543870891</v>
       </c>
       <c r="D101" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E101" t="s">
         <v>17</v>
       </c>
       <c r="F101" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2544,19 +2548,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>31402067</v>
+        <v>120</v>
       </c>
       <c r="C102">
-        <v>2.198923</v>
+        <v>2.67439177843679</v>
       </c>
       <c r="D102" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E102" t="s">
         <v>17</v>
       </c>
       <c r="F102" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2564,19 +2568,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>31402068</v>
+        <v>56</v>
       </c>
       <c r="C103">
-        <v>2.043161</v>
+        <v>2.5959153673154</v>
       </c>
       <c r="D103" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E103" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F103" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2584,19 +2588,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>31402069</v>
+        <v>57</v>
       </c>
       <c r="C104">
-        <v>2.810137</v>
+        <v>2.976011076708932</v>
       </c>
       <c r="D104" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="E104" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="F104" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2604,19 +2608,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>31402097</v>
+        <v>58</v>
       </c>
       <c r="C105">
-        <v>2.56422</v>
+        <v>2.13244289878379</v>
       </c>
       <c r="D105" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E105" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="F105" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2624,19 +2628,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>31402033</v>
+        <v>59</v>
       </c>
       <c r="C106">
-        <v>2.180731</v>
+        <v>2.697726185271076</v>
       </c>
       <c r="D106" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E106" t="s">
-        <v>19</v>
+        <v>15</v>
       </c>
       <c r="F106" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2644,19 +2648,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>31402019</v>
+        <v>12</v>
       </c>
       <c r="C107">
-        <v>3.072115</v>
+        <v>1.946200348928608</v>
       </c>
       <c r="D107" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F107" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2664,19 +2668,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>31402020</v>
+        <v>13</v>
       </c>
       <c r="C108">
-        <v>2.639936</v>
+        <v>2.710936810743273</v>
       </c>
       <c r="D108" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F108" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2684,19 +2688,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>31402092</v>
+        <v>14</v>
       </c>
       <c r="C109">
-        <v>3.287667</v>
+        <v>2.774302210653766</v>
       </c>
       <c r="D109" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E109" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F109" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2704,19 +2708,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>31402093</v>
+        <v>15</v>
       </c>
       <c r="C110">
-        <v>2.743544</v>
+        <v>1.645685422837226</v>
       </c>
       <c r="D110" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E110" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F110" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2724,19 +2728,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>31402094</v>
+        <v>16</v>
       </c>
       <c r="C111">
-        <v>2.813497</v>
+        <v>1.542969984403953</v>
       </c>
       <c r="D111" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E111" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F111" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2744,19 +2748,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>31402095</v>
+        <v>17</v>
       </c>
       <c r="C112">
-        <v>3.963973</v>
+        <v>2.585402720962554</v>
       </c>
       <c r="D112" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="F112" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2764,19 +2768,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>31402107</v>
+        <v>6</v>
       </c>
       <c r="C113">
-        <v>1.966361</v>
+        <v>2.075956645661715</v>
       </c>
       <c r="D113" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E113" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F113" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2784,19 +2788,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>31402108</v>
+        <v>7</v>
       </c>
       <c r="C114">
-        <v>2.69622</v>
+        <v>2.640147643430126</v>
       </c>
       <c r="D114" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="E114" t="s">
-        <v>32</v>
+        <v>13</v>
       </c>
       <c r="F114" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2804,38 +2808,598 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>31402109</v>
+        <v>126</v>
       </c>
       <c r="C115">
-        <v>3.466454</v>
+        <v>1.592351148783244</v>
       </c>
       <c r="D115" t="s">
-        <v>38</v>
+        <v>31</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="F115" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="116" spans="1:6">
       <c r="A116" s="1">
         <v>114</v>
       </c>
-      <c r="B116" t="s">
+      <c r="B116">
+        <v>127</v>
+      </c>
+      <c r="C116">
+        <v>2.242588867209629</v>
+      </c>
+      <c r="D116" t="s">
+        <v>31</v>
+      </c>
+      <c r="E116" t="s">
+        <v>10</v>
+      </c>
+      <c r="F116" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="117" spans="1:6">
+      <c r="A117" s="1">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
         <v>5</v>
       </c>
-      <c r="C116" t="s">
+      <c r="C117" t="s">
         <v>5</v>
       </c>
-      <c r="D116" t="s">
+      <c r="D117" t="s">
         <v>5</v>
       </c>
-      <c r="E116" t="s">
+      <c r="E117" t="s">
         <v>5</v>
       </c>
-      <c r="F116" t="s">
+      <c r="F117" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="118" spans="1:6">
+      <c r="A118" s="1">
+        <v>116</v>
+      </c>
+      <c r="B118">
+        <v>92</v>
+      </c>
+      <c r="C118">
+        <v>1.675359350753648</v>
+      </c>
+      <c r="D118" t="s">
+        <v>32</v>
+      </c>
+      <c r="E118" t="s">
+        <v>36</v>
+      </c>
+      <c r="F118" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="119" spans="1:6">
+      <c r="A119" s="1">
+        <v>117</v>
+      </c>
+      <c r="B119">
+        <v>93</v>
+      </c>
+      <c r="C119">
+        <v>2.751376080606279</v>
+      </c>
+      <c r="D119" t="s">
+        <v>32</v>
+      </c>
+      <c r="E119" t="s">
+        <v>36</v>
+      </c>
+      <c r="F119" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="120" spans="1:6">
+      <c r="A120" s="1">
+        <v>118</v>
+      </c>
+      <c r="B120">
+        <v>94</v>
+      </c>
+      <c r="C120">
+        <v>2.288655652035458</v>
+      </c>
+      <c r="D120" t="s">
+        <v>32</v>
+      </c>
+      <c r="E120" t="s">
+        <v>36</v>
+      </c>
+      <c r="F120" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="121" spans="1:6">
+      <c r="A121" s="1">
+        <v>119</v>
+      </c>
+      <c r="B121">
+        <v>95</v>
+      </c>
+      <c r="C121">
+        <v>1.820957645280618</v>
+      </c>
+      <c r="D121" t="s">
+        <v>32</v>
+      </c>
+      <c r="E121" t="s">
+        <v>36</v>
+      </c>
+      <c r="F121" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="122" spans="1:6">
+      <c r="A122" s="1">
+        <v>120</v>
+      </c>
+      <c r="B122">
+        <v>96</v>
+      </c>
+      <c r="C122">
+        <v>2.68463449088571</v>
+      </c>
+      <c r="D122" t="s">
+        <v>32</v>
+      </c>
+      <c r="E122" t="s">
+        <v>36</v>
+      </c>
+      <c r="F122" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="123" spans="1:6">
+      <c r="A123" s="1">
+        <v>121</v>
+      </c>
+      <c r="B123">
+        <v>73</v>
+      </c>
+      <c r="C123">
+        <v>1.700706285040236</v>
+      </c>
+      <c r="D123" t="s">
+        <v>33</v>
+      </c>
+      <c r="E123" t="s">
+        <v>24</v>
+      </c>
+      <c r="F123" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="124" spans="1:6">
+      <c r="A124" s="1">
+        <v>122</v>
+      </c>
+      <c r="B124">
+        <v>74</v>
+      </c>
+      <c r="C124">
+        <v>2.633544450687766</v>
+      </c>
+      <c r="D124" t="s">
+        <v>33</v>
+      </c>
+      <c r="E124" t="s">
+        <v>24</v>
+      </c>
+      <c r="F124" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="125" spans="1:6">
+      <c r="A125" s="1">
+        <v>123</v>
+      </c>
+      <c r="B125">
+        <v>75</v>
+      </c>
+      <c r="C125">
+        <v>2.255750869726339</v>
+      </c>
+      <c r="D125" t="s">
+        <v>33</v>
+      </c>
+      <c r="E125" t="s">
+        <v>24</v>
+      </c>
+      <c r="F125" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="126" spans="1:6">
+      <c r="A126" s="1">
+        <v>124</v>
+      </c>
+      <c r="B126">
+        <v>76</v>
+      </c>
+      <c r="C126">
+        <v>1.709943159466255</v>
+      </c>
+      <c r="D126" t="s">
+        <v>33</v>
+      </c>
+      <c r="E126" t="s">
+        <v>24</v>
+      </c>
+      <c r="F126" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="127" spans="1:6">
+      <c r="A127" s="1">
+        <v>125</v>
+      </c>
+      <c r="B127">
+        <v>77</v>
+      </c>
+      <c r="C127">
+        <v>2.02936287634543</v>
+      </c>
+      <c r="D127" t="s">
+        <v>33</v>
+      </c>
+      <c r="E127" t="s">
+        <v>24</v>
+      </c>
+      <c r="F127" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="128" spans="1:6">
+      <c r="A128" s="1">
+        <v>126</v>
+      </c>
+      <c r="B128">
+        <v>121</v>
+      </c>
+      <c r="C128">
+        <v>2.977337108072448</v>
+      </c>
+      <c r="D128" t="s">
+        <v>34</v>
+      </c>
+      <c r="E128" t="s">
+        <v>7</v>
+      </c>
+      <c r="F128" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="129" spans="1:6">
+      <c r="A129" s="1">
+        <v>127</v>
+      </c>
+      <c r="B129">
+        <v>122</v>
+      </c>
+      <c r="C129">
+        <v>1.982200677054522</v>
+      </c>
+      <c r="D129" t="s">
+        <v>34</v>
+      </c>
+      <c r="E129" t="s">
+        <v>7</v>
+      </c>
+      <c r="F129" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="130" spans="1:6">
+      <c r="A130" s="1">
+        <v>128</v>
+      </c>
+      <c r="B130">
+        <v>123</v>
+      </c>
+      <c r="C130">
+        <v>2.329578500472921</v>
+      </c>
+      <c r="D130" t="s">
+        <v>34</v>
+      </c>
+      <c r="E130" t="s">
+        <v>7</v>
+      </c>
+      <c r="F130" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="131" spans="1:6">
+      <c r="A131" s="1">
+        <v>129</v>
+      </c>
+      <c r="B131">
+        <v>84</v>
+      </c>
+      <c r="C131">
+        <v>2.629738742229504</v>
+      </c>
+      <c r="D131" t="s">
+        <v>35</v>
+      </c>
+      <c r="E131" t="s">
+        <v>22</v>
+      </c>
+      <c r="F131" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="132" spans="1:6">
+      <c r="A132" s="1">
+        <v>130</v>
+      </c>
+      <c r="B132">
+        <v>85</v>
+      </c>
+      <c r="C132">
+        <v>1.908421904580301</v>
+      </c>
+      <c r="D132" t="s">
+        <v>35</v>
+      </c>
+      <c r="E132" t="s">
+        <v>22</v>
+      </c>
+      <c r="F132" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="133" spans="1:6">
+      <c r="A133" s="1">
+        <v>131</v>
+      </c>
+      <c r="B133">
+        <v>86</v>
+      </c>
+      <c r="C133">
+        <v>2.300994645351352</v>
+      </c>
+      <c r="D133" t="s">
+        <v>35</v>
+      </c>
+      <c r="E133" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="134" spans="1:6">
+      <c r="A134" s="1">
+        <v>132</v>
+      </c>
+      <c r="B134">
+        <v>108</v>
+      </c>
+      <c r="C134">
+        <v>1.590404186978048</v>
+      </c>
+      <c r="D134" t="s">
+        <v>36</v>
+      </c>
+      <c r="E134" t="s">
+        <v>32</v>
+      </c>
+      <c r="F134" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="135" spans="1:6">
+      <c r="A135" s="1">
+        <v>133</v>
+      </c>
+      <c r="B135">
+        <v>109</v>
+      </c>
+      <c r="C135">
+        <v>1.55750554583197</v>
+      </c>
+      <c r="D135" t="s">
+        <v>36</v>
+      </c>
+      <c r="E135" t="s">
+        <v>32</v>
+      </c>
+      <c r="F135" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="136" spans="1:6">
+      <c r="A136" s="1">
+        <v>134</v>
+      </c>
+      <c r="B136">
+        <v>110</v>
+      </c>
+      <c r="C136">
+        <v>2.705352566373055</v>
+      </c>
+      <c r="D136" t="s">
+        <v>36</v>
+      </c>
+      <c r="E136" t="s">
+        <v>32</v>
+      </c>
+      <c r="F136" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="137" spans="1:6">
+      <c r="A137" s="1">
+        <v>135</v>
+      </c>
+      <c r="B137">
+        <v>111</v>
+      </c>
+      <c r="C137">
+        <v>2.790481126969851</v>
+      </c>
+      <c r="D137" t="s">
+        <v>36</v>
+      </c>
+      <c r="E137" t="s">
+        <v>32</v>
+      </c>
+      <c r="F137" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="138" spans="1:6">
+      <c r="A138" s="1">
+        <v>136</v>
+      </c>
+      <c r="B138">
+        <v>112</v>
+      </c>
+      <c r="C138">
+        <v>2.526230011215633</v>
+      </c>
+      <c r="D138" t="s">
+        <v>36</v>
+      </c>
+      <c r="E138" t="s">
+        <v>32</v>
+      </c>
+      <c r="F138" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="139" spans="1:6">
+      <c r="A139" s="1">
+        <v>137</v>
+      </c>
+      <c r="B139">
+        <v>51</v>
+      </c>
+      <c r="C139">
+        <v>2.251541134032226</v>
+      </c>
+      <c r="D139" t="s">
+        <v>37</v>
+      </c>
+      <c r="E139" t="s">
+        <v>18</v>
+      </c>
+      <c r="F139" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="140" spans="1:6">
+      <c r="A140" s="1">
+        <v>138</v>
+      </c>
+      <c r="B140">
+        <v>52</v>
+      </c>
+      <c r="C140">
+        <v>2.638177917820371</v>
+      </c>
+      <c r="D140" t="s">
+        <v>37</v>
+      </c>
+      <c r="E140" t="s">
+        <v>18</v>
+      </c>
+      <c r="F140" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="141" spans="1:6">
+      <c r="A141" s="1">
+        <v>139</v>
+      </c>
+      <c r="B141">
+        <v>53</v>
+      </c>
+      <c r="C141">
+        <v>1.843164497797822</v>
+      </c>
+      <c r="D141" t="s">
+        <v>37</v>
+      </c>
+      <c r="E141" t="s">
+        <v>18</v>
+      </c>
+      <c r="F141" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="142" spans="1:6">
+      <c r="A142" s="1">
+        <v>140</v>
+      </c>
+      <c r="B142">
+        <v>54</v>
+      </c>
+      <c r="C142">
+        <v>2.627132637205738</v>
+      </c>
+      <c r="D142" t="s">
+        <v>37</v>
+      </c>
+      <c r="E142" t="s">
+        <v>18</v>
+      </c>
+      <c r="F142" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="143" spans="1:6">
+      <c r="A143" s="1">
+        <v>141</v>
+      </c>
+      <c r="B143">
+        <v>55</v>
+      </c>
+      <c r="C143">
+        <v>1.889977317417207</v>
+      </c>
+      <c r="D143" t="s">
+        <v>37</v>
+      </c>
+      <c r="E143" t="s">
+        <v>18</v>
+      </c>
+      <c r="F143" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="144" spans="1:6">
+      <c r="A144" s="1">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>5</v>
+      </c>
+      <c r="C144" t="s">
+        <v>5</v>
+      </c>
+      <c r="D144" t="s">
+        <v>5</v>
+      </c>
+      <c r="E144" t="s">
+        <v>5</v>
+      </c>
+      <c r="F144" t="s">
         <v>5</v>
       </c>
     </row>

--- a/output/GA_MUresult.xlsx
+++ b/output/GA_MUresult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="444" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="42">
   <si>
     <t>学号</t>
   </si>
@@ -34,7 +34,22 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Ag老师</t>
+    <t>M老师</t>
+  </si>
+  <si>
+    <t>Ac老师</t>
+  </si>
+  <si>
+    <t>A老师</t>
+  </si>
+  <si>
+    <t>I老师</t>
+  </si>
+  <si>
+    <t>N老师</t>
+  </si>
+  <si>
+    <t>Aa老师</t>
   </si>
   <si>
     <t>C老师</t>
@@ -43,13 +58,58 @@
     <t>V老师</t>
   </si>
   <si>
-    <t>R老师</t>
+    <t>Y老师</t>
+  </si>
+  <si>
+    <t>Q老师</t>
+  </si>
+  <si>
+    <t>S老师</t>
+  </si>
+  <si>
+    <t>O老师</t>
+  </si>
+  <si>
+    <t>G老师</t>
+  </si>
+  <si>
+    <t>P老师</t>
+  </si>
+  <si>
+    <t>Ad老师</t>
+  </si>
+  <si>
+    <t>K老师</t>
+  </si>
+  <si>
+    <t>Ag老师</t>
+  </si>
+  <si>
+    <t>U老师</t>
+  </si>
+  <si>
+    <t>B老师</t>
   </si>
   <si>
     <t>F老师</t>
   </si>
   <si>
-    <t>P老师</t>
+    <t>D老师</t>
+  </si>
+  <si>
+    <t>Ae老师</t>
+  </si>
+  <si>
+    <t>J老师</t>
+  </si>
+  <si>
+    <t>Ab老师</t>
+  </si>
+  <si>
+    <t>E老师</t>
+  </si>
+  <si>
+    <t>L老师</t>
   </si>
   <si>
     <t>Z老师</t>
@@ -58,110 +118,43 @@
     <t>X老师</t>
   </si>
   <si>
-    <t>A老师</t>
+    <t>T老师</t>
   </si>
   <si>
-    <t>G老师</t>
+    <t>W老师</t>
   </si>
   <si>
-    <t>O老师</t>
-  </si>
-  <si>
-    <t>Ac老师</t>
-  </si>
-  <si>
-    <t>E老师</t>
-  </si>
-  <si>
-    <t>I老师</t>
+    <t>R老师</t>
   </si>
   <si>
     <t>H老师</t>
   </si>
   <si>
-    <t>N老师</t>
-  </si>
-  <si>
-    <t>W老师</t>
-  </si>
-  <si>
-    <t>Ae老师</t>
-  </si>
-  <si>
-    <t>T老师</t>
-  </si>
-  <si>
-    <t>K老师</t>
-  </si>
-  <si>
-    <t>J老师</t>
-  </si>
-  <si>
-    <t>Aa老师</t>
-  </si>
-  <si>
-    <t>M老师</t>
-  </si>
-  <si>
-    <t>D老师</t>
-  </si>
-  <si>
-    <t>B老师</t>
-  </si>
-  <si>
-    <t>Ad老师</t>
-  </si>
-  <si>
-    <t>U老师</t>
-  </si>
-  <si>
-    <t>Q老师</t>
-  </si>
-  <si>
-    <t>Ab老师</t>
-  </si>
-  <si>
-    <t>S老师</t>
-  </si>
-  <si>
-    <t>Y老师</t>
-  </si>
-  <si>
-    <t>L老师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Z老师,
-Ab老师,
-Ad老师,
-I老师,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">B老师,
-M老师,
-Aa老师,
-L老师,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">K老师,
-S老师,
+    <t xml:space="preserve">J老师,
+Z老师,
 D老师,
 Q老师,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">G老师,
-Ae老师,
-X老师,
-F老师,
+    <t xml:space="preserve">U老师,
+V老师,
+Ac老师,
+L老师,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">T老师,
+    <t xml:space="preserve">A老师,
+T老师,
 C老师,
-W老师,
-E老师,
+N老师,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">G老师,
+Aa老师,
+F老师,
+I老师,
 </t>
   </si>
 </sst>
@@ -520,7 +513,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F144"/>
+  <dimension ref="A1:F179"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -548,16 +541,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>133</v>
+        <v>53</v>
       </c>
       <c r="C2">
-        <v>1.630404520691865</v>
+        <v>2.625337390116468</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F2" t="s">
         <v>38</v>
@@ -568,16 +561,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>134</v>
+        <v>54</v>
       </c>
       <c r="C3">
-        <v>1.578951975685201</v>
+        <v>2.550833122186458</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F3" t="s">
         <v>38</v>
@@ -588,16 +581,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>135</v>
+        <v>55</v>
       </c>
       <c r="C4">
-        <v>2.827783886812517</v>
+        <v>2.97933839523879</v>
       </c>
       <c r="D4" t="s">
         <v>6</v>
       </c>
       <c r="E4" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F4" t="s">
         <v>38</v>
@@ -608,16 +601,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>136</v>
+        <v>56</v>
       </c>
       <c r="C5">
-        <v>1.700006515657177</v>
+        <v>3.466168958515088</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
       </c>
       <c r="E5" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F5" t="s">
         <v>38</v>
@@ -628,16 +621,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>137</v>
+        <v>57</v>
       </c>
       <c r="C6">
-        <v>2.837433777038126</v>
+        <v>2.938069451844254</v>
       </c>
       <c r="D6" t="s">
         <v>6</v>
       </c>
       <c r="E6" t="s">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="F6" t="s">
         <v>38</v>
@@ -648,16 +641,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>138</v>
+        <v>111</v>
       </c>
       <c r="C7">
-        <v>2.549911199540241</v>
+        <v>2.753588466869718</v>
       </c>
       <c r="D7" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="F7" t="s">
         <v>38</v>
@@ -668,16 +661,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>8</v>
+        <v>112</v>
       </c>
       <c r="C8">
-        <v>2.109665113983974</v>
+        <v>2.201492931671954</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F8" t="s">
         <v>38</v>
@@ -688,16 +681,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>9</v>
+        <v>113</v>
       </c>
       <c r="C9">
-        <v>2.120449670866641</v>
+        <v>3.473956779892932</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F9" t="s">
         <v>38</v>
@@ -708,16 +701,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>10</v>
+        <v>114</v>
       </c>
       <c r="C10">
-        <v>1.576052835120633</v>
+        <v>2.719875268133295</v>
       </c>
       <c r="D10" t="s">
         <v>7</v>
       </c>
       <c r="E10" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F10" t="s">
         <v>38</v>
@@ -728,16 +721,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>11</v>
+        <v>115</v>
       </c>
       <c r="C11">
-        <v>1.970685671103329</v>
+        <v>2.436870700984995</v>
       </c>
       <c r="D11" t="s">
         <v>7</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>16</v>
       </c>
       <c r="F11" t="s">
         <v>38</v>
@@ -748,16 +741,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>97</v>
+        <v>31702257</v>
       </c>
       <c r="C12">
-        <v>2.670673845041919</v>
+        <v>3.54584800938547</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E12" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F12" t="s">
         <v>38</v>
@@ -768,16 +761,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>98</v>
+        <v>31702259</v>
       </c>
       <c r="C13">
-        <v>2.652502428342106</v>
+        <v>3.61382573632634</v>
       </c>
       <c r="D13" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E13" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F13" t="s">
         <v>38</v>
@@ -788,16 +781,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>99</v>
+        <v>31702264</v>
       </c>
       <c r="C14">
-        <v>2.908321388221009</v>
+        <v>3.74145257830303</v>
       </c>
       <c r="D14" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E14" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F14" t="s">
         <v>38</v>
@@ -808,16 +801,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>100</v>
+        <v>31702267</v>
       </c>
       <c r="C15">
-        <v>2.660231317805481</v>
+        <v>3.81817008980742</v>
       </c>
       <c r="D15" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="E15" t="s">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="F15" t="s">
         <v>38</v>
@@ -828,16 +821,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>101</v>
+        <v>1</v>
       </c>
       <c r="C16">
-        <v>1.603687551426228</v>
+        <v>2.834108277944151</v>
       </c>
       <c r="D16" t="s">
         <v>8</v>
       </c>
       <c r="E16" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F16" t="s">
         <v>38</v>
@@ -848,16 +841,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>102</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>1.530942770463829</v>
+        <v>2.99225004766476</v>
       </c>
       <c r="D17" t="s">
         <v>8</v>
       </c>
       <c r="E17" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F17" t="s">
         <v>38</v>
@@ -868,16 +861,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>78</v>
+        <v>3</v>
       </c>
       <c r="C18">
-        <v>1.777431653431105</v>
+        <v>1.566110302263877</v>
       </c>
       <c r="D18" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F18" t="s">
         <v>38</v>
@@ -888,16 +881,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>79</v>
+        <v>4</v>
       </c>
       <c r="C19">
-        <v>1.957083807871434</v>
+        <v>2.309574508129958</v>
       </c>
       <c r="D19" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F19" t="s">
         <v>38</v>
@@ -908,16 +901,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>80</v>
+        <v>5</v>
       </c>
       <c r="C20">
-        <v>2.652799002158502</v>
+        <v>2.178348660320978</v>
       </c>
       <c r="D20" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F20" t="s">
         <v>38</v>
@@ -928,16 +921,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>81</v>
+        <v>6</v>
       </c>
       <c r="C21">
-        <v>1.683353165144009</v>
+        <v>2.661459135590114</v>
       </c>
       <c r="D21" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>24</v>
       </c>
       <c r="F21" t="s">
         <v>38</v>
@@ -948,16 +941,16 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>82</v>
+        <v>34</v>
       </c>
       <c r="C22">
-        <v>2.1675341714983</v>
+        <v>2.972232319555475</v>
       </c>
       <c r="D22" t="s">
         <v>9</v>
       </c>
       <c r="E22" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F22" t="s">
         <v>38</v>
@@ -968,16 +961,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>83</v>
+        <v>35</v>
       </c>
       <c r="C23">
-        <v>2.736877100049655</v>
+        <v>3.350940623221237</v>
       </c>
       <c r="D23" t="s">
         <v>9</v>
       </c>
       <c r="E23" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
@@ -988,16 +981,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>23</v>
+        <v>36</v>
       </c>
       <c r="C24">
-        <v>1.699420875427582</v>
+        <v>2.791710359313968</v>
       </c>
       <c r="D24" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E24" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
@@ -1008,16 +1001,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C25">
-        <v>2.920377214570038</v>
+        <v>2.316528595188501</v>
       </c>
       <c r="D25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E25" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F25" t="s">
         <v>38</v>
@@ -1028,16 +1021,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>25</v>
+        <v>38</v>
       </c>
       <c r="C26">
-        <v>2.048309985068832</v>
+        <v>3.411629149413432</v>
       </c>
       <c r="D26" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="E26" t="s">
-        <v>31</v>
+        <v>6</v>
       </c>
       <c r="F26" t="s">
         <v>38</v>
@@ -1048,16 +1041,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>70</v>
+        <v>58</v>
       </c>
       <c r="C27">
-        <v>2.060699803422914</v>
+        <v>2.305778001288095</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E27" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F27" t="s">
         <v>38</v>
@@ -1068,16 +1061,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>71</v>
+        <v>59</v>
       </c>
       <c r="C28">
-        <v>2.739207339127408</v>
+        <v>3.214591449741177</v>
       </c>
       <c r="D28" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E28" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s">
         <v>38</v>
@@ -1088,16 +1081,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>72</v>
+        <v>60</v>
       </c>
       <c r="C29">
-        <v>2.487672523201617</v>
+        <v>3.102417365837761</v>
       </c>
       <c r="D29" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E29" t="s">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="F29" t="s">
         <v>38</v>
@@ -1107,20 +1100,20 @@
       <c r="A30" s="1">
         <v>28</v>
       </c>
-      <c r="B30" t="s">
-        <v>5</v>
-      </c>
-      <c r="C30" t="s">
-        <v>5</v>
+      <c r="B30">
+        <v>61</v>
+      </c>
+      <c r="C30">
+        <v>2.405746980117616</v>
       </c>
       <c r="D30" t="s">
-        <v>5</v>
+        <v>10</v>
       </c>
       <c r="E30" t="s">
-        <v>5</v>
+        <v>28</v>
       </c>
       <c r="F30" t="s">
-        <v>5</v>
+        <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -1128,19 +1121,19 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>113</v>
+        <v>62</v>
       </c>
       <c r="C31">
-        <v>1.527047316331935</v>
+        <v>2.289546424019849</v>
       </c>
       <c r="D31" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E31" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F31" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -1148,19 +1141,19 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>114</v>
+        <v>63</v>
       </c>
       <c r="C32">
-        <v>2.922482832934838</v>
+        <v>3.102505467268191</v>
       </c>
       <c r="D32" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="E32" t="s">
-        <v>6</v>
+        <v>28</v>
       </c>
       <c r="F32" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -1168,19 +1161,19 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>115</v>
+        <v>106</v>
       </c>
       <c r="C33">
-        <v>2.411839870789526</v>
+        <v>2.537760347922753</v>
       </c>
       <c r="D33" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E33" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F33" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -1188,19 +1181,19 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>116</v>
+        <v>107</v>
       </c>
       <c r="C34">
-        <v>1.704238581368151</v>
+        <v>2.710966709803879</v>
       </c>
       <c r="D34" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E34" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F34" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -1208,19 +1201,19 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>117</v>
+        <v>31702253</v>
       </c>
       <c r="C35">
-        <v>1.619616743654906</v>
+        <v>3.44351802674255</v>
       </c>
       <c r="D35" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E35" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F35" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -1228,19 +1221,19 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>118</v>
+        <v>31702266</v>
       </c>
       <c r="C36">
-        <v>1.988319826079366</v>
+        <v>3.77562389193548</v>
       </c>
       <c r="D36" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E36" t="s">
-        <v>6</v>
+        <v>32</v>
       </c>
       <c r="F36" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -1248,19 +1241,19 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>106</v>
+        <v>12</v>
       </c>
       <c r="C37">
-        <v>1.889245317414807</v>
+        <v>1.745720648933164</v>
       </c>
       <c r="D37" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E37" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F37" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -1268,19 +1261,19 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>107</v>
+        <v>13</v>
       </c>
       <c r="C38">
-        <v>2.967580467090931</v>
+        <v>2.584656426296124</v>
       </c>
       <c r="D38" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E38" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F38" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -1288,19 +1281,19 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C39">
-        <v>2.866684494099314</v>
+        <v>2.073743244523422</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E39" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F39" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -1308,19 +1301,19 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="C40">
-        <v>1.565375305298234</v>
+        <v>2.715942451340665</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E40" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F40" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -1328,19 +1321,19 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="C41">
-        <v>2.206025089904525</v>
+        <v>3.473799567520698</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E41" t="s">
-        <v>16</v>
+        <v>26</v>
       </c>
       <c r="F41" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -1348,19 +1341,19 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>4</v>
+        <v>88</v>
       </c>
       <c r="C42">
-        <v>2.920444623171142</v>
+        <v>3.309303697670954</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E42" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F42" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -1368,19 +1361,19 @@
         <v>41</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>89</v>
       </c>
       <c r="C43">
-        <v>2.520694689613655</v>
+        <v>2.386427031479692</v>
       </c>
       <c r="D43" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="E43" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="F43" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1388,19 +1381,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>26</v>
+        <v>31702240</v>
       </c>
       <c r="C44">
-        <v>2.449874103780102</v>
+        <v>3.23047227164948</v>
       </c>
       <c r="D44" t="s">
+        <v>13</v>
+      </c>
+      <c r="E44" t="s">
         <v>15</v>
       </c>
-      <c r="E44" t="s">
-        <v>28</v>
-      </c>
       <c r="F44" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1408,39 +1401,39 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>27</v>
+        <v>31702262</v>
       </c>
       <c r="C45">
-        <v>2.018233770300247</v>
+        <v>3.64091521943525</v>
       </c>
       <c r="D45" t="s">
+        <v>13</v>
+      </c>
+      <c r="E45" t="s">
         <v>15</v>
       </c>
-      <c r="E45" t="s">
-        <v>28</v>
-      </c>
       <c r="F45" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46">
-        <v>28</v>
-      </c>
-      <c r="C46">
-        <v>1.628717728229421</v>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>5</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="E46" t="s">
-        <v>28</v>
+        <v>5</v>
       </c>
       <c r="F46" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1448,16 +1441,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>29</v>
+        <v>101</v>
       </c>
       <c r="C47">
-        <v>1.846057428317661</v>
+        <v>1.860866602806578</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="E47" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="F47" t="s">
         <v>39</v>
@@ -1468,16 +1461,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>66</v>
+        <v>102</v>
       </c>
       <c r="C48">
-        <v>2.444543514519101</v>
+        <v>2.613610502660991</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E48" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -1488,16 +1481,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>67</v>
+        <v>31702254</v>
       </c>
       <c r="C49">
-        <v>2.781237328750095</v>
+        <v>3.45851794137651</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E49" t="s">
-        <v>14</v>
+        <v>23</v>
       </c>
       <c r="F49" t="s">
         <v>39</v>
@@ -1508,16 +1501,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C50">
-        <v>1.80886216717193</v>
+        <v>2.254005217181788</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E50" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F50" t="s">
         <v>39</v>
@@ -1528,16 +1521,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>69</v>
+        <v>74</v>
       </c>
       <c r="C51">
-        <v>1.9460548344703</v>
+        <v>2.734507094110483</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E51" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F51" t="s">
         <v>39</v>
@@ -1548,16 +1541,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>124</v>
+        <v>75</v>
       </c>
       <c r="C52">
-        <v>1.836361526299618</v>
+        <v>3.128185658210925</v>
       </c>
       <c r="D52" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E52" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F52" t="s">
         <v>39</v>
@@ -1568,16 +1561,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>125</v>
+        <v>31702235</v>
       </c>
       <c r="C53">
-        <v>2.693053090663215</v>
+        <v>3.17439264636947</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E53" t="s">
-        <v>27</v>
+        <v>13</v>
       </c>
       <c r="F53" t="s">
         <v>39</v>
@@ -1588,16 +1581,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="C54">
-        <v>2.149275288660855</v>
+        <v>3.265696402167072</v>
       </c>
       <c r="D54" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E54" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -1608,16 +1601,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>19</v>
+        <v>79</v>
       </c>
       <c r="C55">
-        <v>2.797401625741759</v>
+        <v>2.328684993173344</v>
       </c>
       <c r="D55" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E55" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F55" t="s">
         <v>39</v>
@@ -1628,16 +1621,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>20</v>
+        <v>80</v>
       </c>
       <c r="C56">
-        <v>2.959478823613159</v>
+        <v>2.556352986734653</v>
       </c>
       <c r="D56" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E56" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F56" t="s">
         <v>39</v>
@@ -1648,16 +1641,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>21</v>
+        <v>81</v>
       </c>
       <c r="C57">
-        <v>2.434898962921663</v>
+        <v>2.986077066078452</v>
       </c>
       <c r="D57" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E57" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F57" t="s">
         <v>39</v>
@@ -1668,16 +1661,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>22</v>
+        <v>82</v>
       </c>
       <c r="C58">
-        <v>2.587151098090557</v>
+        <v>2.554418083874722</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E58" t="s">
-        <v>37</v>
+        <v>7</v>
       </c>
       <c r="F58" t="s">
         <v>39</v>
@@ -1687,20 +1680,20 @@
       <c r="A59" s="1">
         <v>57</v>
       </c>
-      <c r="B59" t="s">
-        <v>5</v>
-      </c>
-      <c r="C59" t="s">
-        <v>5</v>
+      <c r="B59">
+        <v>83</v>
+      </c>
+      <c r="C59">
+        <v>2.100570409211325</v>
       </c>
       <c r="D59" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="E59" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F59" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -1708,19 +1701,19 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>36</v>
+        <v>31702248</v>
       </c>
       <c r="C60">
-        <v>2.808190064975927</v>
+        <v>3.39948284338908</v>
       </c>
       <c r="D60" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E60" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F60" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -1728,19 +1721,19 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>37</v>
+        <v>31702256</v>
       </c>
       <c r="C61">
-        <v>1.924614339759555</v>
+        <v>3.54309364227196</v>
       </c>
       <c r="D61" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E61" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F61" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -1748,19 +1741,19 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>38</v>
+        <v>31702260</v>
       </c>
       <c r="C62">
-        <v>1.885437885816116</v>
+        <v>3.63378826835399</v>
       </c>
       <c r="D62" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="E62" t="s">
-        <v>11</v>
+        <v>7</v>
       </c>
       <c r="F62" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -1768,19 +1761,19 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>30</v>
+        <v>64</v>
       </c>
       <c r="C63">
-        <v>2.731176281265115</v>
+        <v>1.920575015037191</v>
       </c>
       <c r="D63" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E63" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F63" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -1788,19 +1781,19 @@
         <v>62</v>
       </c>
       <c r="B64">
-        <v>31</v>
+        <v>65</v>
       </c>
       <c r="C64">
-        <v>1.741728737961328</v>
+        <v>2.84377673841671</v>
       </c>
       <c r="D64" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E64" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F64" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1808,19 +1801,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>32</v>
+        <v>66</v>
       </c>
       <c r="C65">
-        <v>1.627533689927097</v>
+        <v>2.966831592410442</v>
       </c>
       <c r="D65" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E65" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F65" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1828,19 +1821,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>33</v>
+        <v>67</v>
       </c>
       <c r="C66">
-        <v>2.920943299819209</v>
+        <v>2.88829310157092</v>
       </c>
       <c r="D66" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E66" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F66" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1848,19 +1841,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>34</v>
+        <v>68</v>
       </c>
       <c r="C67">
-        <v>1.986101529192556</v>
+        <v>2.751503242222522</v>
       </c>
       <c r="D67" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E67" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F67" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1868,19 +1861,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>35</v>
+        <v>31702238</v>
       </c>
       <c r="C68">
-        <v>1.721941486417469</v>
+        <v>3.2206821009273</v>
       </c>
       <c r="D68" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
       <c r="E68" t="s">
-        <v>26</v>
+        <v>21</v>
       </c>
       <c r="F68" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1888,19 +1881,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>60</v>
+        <v>31702242</v>
       </c>
       <c r="C69">
-        <v>2.875395239877117</v>
+        <v>3.27053188110405</v>
       </c>
       <c r="D69" t="s">
+        <v>17</v>
+      </c>
+      <c r="E69" t="s">
         <v>21</v>
       </c>
-      <c r="E69" t="s">
-        <v>25</v>
-      </c>
       <c r="F69" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1908,19 +1901,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C70">
-        <v>1.563181395583988</v>
+        <v>2.688288743692811</v>
       </c>
       <c r="D70" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E70" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F70" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1928,19 +1921,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>62</v>
+        <v>30</v>
       </c>
       <c r="C71">
-        <v>2.43711231290674</v>
+        <v>2.528879433636336</v>
       </c>
       <c r="D71" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E71" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F71" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1948,19 +1941,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>63</v>
+        <v>31</v>
       </c>
       <c r="C72">
-        <v>2.244199583076443</v>
+        <v>3.274605102935617</v>
       </c>
       <c r="D72" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E72" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F72" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1968,19 +1961,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>64</v>
+        <v>31702258</v>
       </c>
       <c r="C73">
-        <v>1.647484074188322</v>
+        <v>3.54975659667834</v>
       </c>
       <c r="D73" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="E73" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="F73" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1988,19 +1981,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>65</v>
+        <v>69</v>
       </c>
       <c r="C74">
-        <v>2.624742323676706</v>
+        <v>2.144548553871199</v>
       </c>
       <c r="D74" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E74" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="F74" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2008,19 +2001,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>103</v>
+        <v>70</v>
       </c>
       <c r="C75">
-        <v>2.252202810051159</v>
+        <v>2.006814204132511</v>
       </c>
       <c r="D75" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E75" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F75" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2028,19 +2021,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>104</v>
+        <v>71</v>
       </c>
       <c r="C76">
-        <v>2.910082262306299</v>
+        <v>2.403867988092626</v>
       </c>
       <c r="D76" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E76" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F76" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2048,19 +2041,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>105</v>
+        <v>72</v>
       </c>
       <c r="C77">
-        <v>2.894595215072396</v>
+        <v>2.930937916489612</v>
       </c>
       <c r="D77" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="E77" t="s">
-        <v>35</v>
+        <v>20</v>
       </c>
       <c r="F77" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2068,19 +2061,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>128</v>
+        <v>31702250</v>
       </c>
       <c r="C78">
-        <v>2.961663658411357</v>
+        <v>3.40195400806249</v>
       </c>
       <c r="D78" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
       <c r="E78" t="s">
-        <v>29</v>
+        <v>20</v>
       </c>
       <c r="F78" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2088,19 +2081,19 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>129</v>
+        <v>116</v>
       </c>
       <c r="C79">
-        <v>2.502537562216565</v>
+        <v>2.643782841468369</v>
       </c>
       <c r="D79" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E79" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2108,19 +2101,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>130</v>
+        <v>117</v>
       </c>
       <c r="C80">
-        <v>2.605210788184397</v>
+        <v>2.072616365596399</v>
       </c>
       <c r="D80" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E80" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F80" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2128,19 +2121,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>131</v>
+        <v>118</v>
       </c>
       <c r="C81">
-        <v>1.589069795426419</v>
+        <v>2.536577082790251</v>
       </c>
       <c r="D81" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E81" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F81" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2148,19 +2141,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>132</v>
+        <v>119</v>
       </c>
       <c r="C82">
-        <v>2.748897764584604</v>
+        <v>1.545801886382094</v>
       </c>
       <c r="D82" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E82" t="s">
-        <v>29</v>
+        <v>19</v>
       </c>
       <c r="F82" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2168,19 +2161,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>87</v>
+        <v>31702237</v>
       </c>
       <c r="C83">
-        <v>2.481935592689901</v>
+        <v>3.18586767425725</v>
       </c>
       <c r="D83" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E83" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2188,19 +2181,19 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>88</v>
+        <v>44</v>
       </c>
       <c r="C84">
-        <v>1.998157058126026</v>
+        <v>2.033874626734182</v>
       </c>
       <c r="D84" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E84" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F84" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -2208,19 +2201,19 @@
         <v>83</v>
       </c>
       <c r="B85">
-        <v>89</v>
+        <v>45</v>
       </c>
       <c r="C85">
-        <v>2.10690016571265</v>
+        <v>2.683163323778934</v>
       </c>
       <c r="D85" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F85" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2228,19 +2221,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>90</v>
+        <v>46</v>
       </c>
       <c r="C86">
-        <v>2.159634696196203</v>
+        <v>2.744371695322994</v>
       </c>
       <c r="D86" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E86" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F86" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2248,39 +2241,39 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>91</v>
+        <v>47</v>
       </c>
       <c r="C87">
-        <v>2.18463632382138</v>
+        <v>2.173027745860382</v>
       </c>
       <c r="D87" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="E87" t="s">
-        <v>33</v>
+        <v>17</v>
       </c>
       <c r="F87" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
     </row>
     <row r="88" spans="1:6">
       <c r="A88" s="1">
         <v>86</v>
       </c>
-      <c r="B88" t="s">
-        <v>5</v>
-      </c>
-      <c r="C88" t="s">
-        <v>5</v>
+      <c r="B88">
+        <v>48</v>
+      </c>
+      <c r="C88">
+        <v>2.577942384511235</v>
       </c>
       <c r="D88" t="s">
-        <v>5</v>
+        <v>21</v>
       </c>
       <c r="E88" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F88" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2288,19 +2281,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>45</v>
+        <v>31702245</v>
       </c>
       <c r="C89">
-        <v>2.747266002717572</v>
+        <v>3.30736732921926</v>
       </c>
       <c r="D89" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E89" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F89" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2308,39 +2301,39 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>46</v>
+        <v>31702270</v>
       </c>
       <c r="C90">
-        <v>1.613551145310027</v>
+        <v>3.90177422169194</v>
       </c>
       <c r="D90" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E90" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="F90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91">
-        <v>47</v>
-      </c>
-      <c r="C91">
-        <v>2.132819589803721</v>
+      <c r="B91" t="s">
+        <v>5</v>
+      </c>
+      <c r="C91" t="s">
+        <v>5</v>
       </c>
       <c r="D91" t="s">
-        <v>25</v>
+        <v>5</v>
       </c>
       <c r="E91" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F91" t="s">
-        <v>41</v>
+        <v>5</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2348,19 +2341,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>48</v>
+        <v>125</v>
       </c>
       <c r="C92">
-        <v>2.326108095344212</v>
+        <v>2.798920135333743</v>
       </c>
       <c r="D92" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E92" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F92" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2368,19 +2361,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>49</v>
+        <v>126</v>
       </c>
       <c r="C93">
-        <v>1.766857775762538</v>
+        <v>1.619111235723206</v>
       </c>
       <c r="D93" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E93" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F93" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2388,19 +2381,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>50</v>
+        <v>127</v>
       </c>
       <c r="C94">
-        <v>2.383781800329181</v>
+        <v>1.963454869229708</v>
       </c>
       <c r="D94" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E94" t="s">
-        <v>21</v>
+        <v>27</v>
       </c>
       <c r="F94" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2408,19 +2401,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>39</v>
+        <v>128</v>
       </c>
       <c r="C95">
-        <v>1.908969930474364</v>
+        <v>2.692816498900916</v>
       </c>
       <c r="D95" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E95" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F95" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2428,19 +2421,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>40</v>
+        <v>129</v>
       </c>
       <c r="C96">
-        <v>1.909591121032142</v>
+        <v>2.844667221634672</v>
       </c>
       <c r="D96" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E96" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F96" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2448,19 +2441,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>41</v>
+        <v>130</v>
       </c>
       <c r="C97">
-        <v>1.623969615654537</v>
+        <v>2.367836716267306</v>
       </c>
       <c r="D97" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E97" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F97" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2468,19 +2461,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>42</v>
+        <v>31702239</v>
       </c>
       <c r="C98">
-        <v>2.68094084302625</v>
+        <v>3.2222159489834</v>
       </c>
       <c r="D98" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E98" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F98" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2488,19 +2481,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>43</v>
+        <v>31702241</v>
       </c>
       <c r="C99">
-        <v>1.806667676788949</v>
+        <v>3.26498104481335</v>
       </c>
       <c r="D99" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E99" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F99" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2508,19 +2501,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>44</v>
+        <v>31702244</v>
       </c>
       <c r="C100">
-        <v>1.537400620851963</v>
+        <v>3.30079233516377</v>
       </c>
       <c r="D100" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
       <c r="E100" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="F100" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2528,19 +2521,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>119</v>
+        <v>31702251</v>
       </c>
       <c r="C101">
-        <v>2.412860543870891</v>
+        <v>3.40571990409284</v>
       </c>
       <c r="D101" t="s">
+        <v>22</v>
+      </c>
+      <c r="E101" t="s">
         <v>27</v>
       </c>
-      <c r="E101" t="s">
-        <v>17</v>
-      </c>
       <c r="F101" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2548,19 +2541,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>120</v>
+        <v>86</v>
       </c>
       <c r="C102">
-        <v>2.67439177843679</v>
+        <v>2.820683651892046</v>
       </c>
       <c r="D102" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="E102" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="F102" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2568,19 +2561,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>56</v>
+        <v>87</v>
       </c>
       <c r="C103">
-        <v>2.5959153673154</v>
+        <v>2.145790794330798</v>
       </c>
       <c r="D103" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E103" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F103" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2588,19 +2581,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>57</v>
+        <v>31702234</v>
       </c>
       <c r="C104">
-        <v>2.976011076708932</v>
+        <v>3.16873043403218</v>
       </c>
       <c r="D104" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
       <c r="E104" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F104" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2608,19 +2601,19 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>58</v>
+        <v>7</v>
       </c>
       <c r="C105">
-        <v>2.13244289878379</v>
+        <v>2.652568516426567</v>
       </c>
       <c r="D105" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E105" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F105" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -2628,19 +2621,19 @@
         <v>104</v>
       </c>
       <c r="B106">
-        <v>59</v>
+        <v>8</v>
       </c>
       <c r="C106">
-        <v>2.697726185271076</v>
+        <v>2.123016281608574</v>
       </c>
       <c r="D106" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="E106" t="s">
-        <v>15</v>
+        <v>8</v>
       </c>
       <c r="F106" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2648,19 +2641,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>12</v>
+        <v>9</v>
       </c>
       <c r="C107">
-        <v>1.946200348928608</v>
+        <v>2.065741377130303</v>
       </c>
       <c r="D107" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E107" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F107" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2668,19 +2661,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="C108">
-        <v>2.710936810743273</v>
+        <v>1.625862928079685</v>
       </c>
       <c r="D108" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E108" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F108" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2688,19 +2681,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="C109">
-        <v>2.774302210653766</v>
+        <v>2.055355941072438</v>
       </c>
       <c r="D109" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E109" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F109" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2708,19 +2701,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>15</v>
+        <v>31702271</v>
       </c>
       <c r="C110">
-        <v>1.645685422837226</v>
+        <v>3.91784188978937</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="E110" t="s">
-        <v>23</v>
+        <v>8</v>
       </c>
       <c r="F110" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2728,19 +2721,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>16</v>
+        <v>27</v>
       </c>
       <c r="C111">
-        <v>1.542969984403953</v>
+        <v>3.449766202113719</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E111" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F111" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2748,19 +2741,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C112">
-        <v>2.585402720962554</v>
+        <v>3.432609083372502</v>
       </c>
       <c r="D112" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="E112" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="F112" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2768,19 +2761,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>6</v>
+        <v>31702232</v>
       </c>
       <c r="C113">
-        <v>2.075956645661715</v>
+        <v>3.15939599726126</v>
       </c>
       <c r="D113" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="E113" t="s">
-        <v>13</v>
+        <v>34</v>
       </c>
       <c r="F113" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2788,19 +2781,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C114">
-        <v>2.640147643430126</v>
+        <v>2.113612374706805</v>
       </c>
       <c r="D114" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="E114" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="F114" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2808,19 +2801,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>126</v>
+        <v>18</v>
       </c>
       <c r="C115">
-        <v>1.592351148783244</v>
+        <v>2.451808157783663</v>
       </c>
       <c r="D115" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E115" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F115" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2828,39 +2821,39 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>127</v>
+        <v>19</v>
       </c>
       <c r="C116">
-        <v>2.242588867209629</v>
+        <v>2.743220461821021</v>
       </c>
       <c r="D116" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="E116" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="F116" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="117" spans="1:6">
       <c r="A117" s="1">
         <v>115</v>
       </c>
-      <c r="B117" t="s">
-        <v>5</v>
-      </c>
-      <c r="C117" t="s">
-        <v>5</v>
+      <c r="B117">
+        <v>20</v>
+      </c>
+      <c r="C117">
+        <v>2.627162745933995</v>
       </c>
       <c r="D117" t="s">
-        <v>5</v>
+        <v>26</v>
       </c>
       <c r="E117" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="F117" t="s">
-        <v>5</v>
+        <v>40</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2868,19 +2861,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>92</v>
+        <v>31702249</v>
       </c>
       <c r="C118">
-        <v>1.675359350753648</v>
+        <v>3.40040140069627</v>
       </c>
       <c r="D118" t="s">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="E118" t="s">
-        <v>36</v>
+        <v>12</v>
       </c>
       <c r="F118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2888,19 +2881,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>93</v>
+        <v>120</v>
       </c>
       <c r="C119">
-        <v>2.751376080606279</v>
+        <v>2.705388300371382</v>
       </c>
       <c r="D119" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E119" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F119" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2908,19 +2901,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>94</v>
+        <v>121</v>
       </c>
       <c r="C120">
-        <v>2.288655652035458</v>
+        <v>2.692369881909468</v>
       </c>
       <c r="D120" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E120" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F120" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2928,19 +2921,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>95</v>
+        <v>122</v>
       </c>
       <c r="C121">
-        <v>1.820957645280618</v>
+        <v>2.716175939521333</v>
       </c>
       <c r="D121" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E121" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F121" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2948,19 +2941,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>96</v>
+        <v>123</v>
       </c>
       <c r="C122">
-        <v>2.68463449088571</v>
+        <v>2.866431125029143</v>
       </c>
       <c r="D122" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="E122" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="F122" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2968,19 +2961,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>73</v>
+        <v>124</v>
       </c>
       <c r="C123">
-        <v>1.700706285040236</v>
+        <v>2.367712432131705</v>
       </c>
       <c r="D123" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E123" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F123" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2988,19 +2981,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>74</v>
+        <v>31702236</v>
       </c>
       <c r="C124">
-        <v>2.633544450687766</v>
+        <v>3.1756661926346</v>
       </c>
       <c r="D124" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E124" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F124" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3008,19 +3001,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>75</v>
+        <v>31702246</v>
       </c>
       <c r="C125">
-        <v>2.255750869726339</v>
+        <v>3.38296165784306</v>
       </c>
       <c r="D125" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E125" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F125" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3028,19 +3021,19 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>76</v>
+        <v>31702273</v>
       </c>
       <c r="C126">
-        <v>1.709943159466255</v>
+        <v>3.98162940328017</v>
       </c>
       <c r="D126" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E126" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F126" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="127" spans="1:6">
@@ -3048,19 +3041,19 @@
         <v>125</v>
       </c>
       <c r="B127">
-        <v>77</v>
+        <v>31702274</v>
       </c>
       <c r="C127">
-        <v>2.02936287634543</v>
+        <v>3.98612598493009</v>
       </c>
       <c r="D127" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="E127" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="F127" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="128" spans="1:6">
@@ -3068,19 +3061,19 @@
         <v>126</v>
       </c>
       <c r="B128">
-        <v>121</v>
+        <v>39</v>
       </c>
       <c r="C128">
-        <v>2.977337108072448</v>
+        <v>2.081575477476818</v>
       </c>
       <c r="D128" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E128" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F128" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="129" spans="1:6">
@@ -3088,19 +3081,19 @@
         <v>127</v>
       </c>
       <c r="B129">
-        <v>122</v>
+        <v>40</v>
       </c>
       <c r="C129">
-        <v>1.982200677054522</v>
+        <v>1.565198830098961</v>
       </c>
       <c r="D129" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E129" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F129" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="130" spans="1:6">
@@ -3108,19 +3101,19 @@
         <v>128</v>
       </c>
       <c r="B130">
-        <v>123</v>
+        <v>41</v>
       </c>
       <c r="C130">
-        <v>2.329578500472921</v>
+        <v>2.795205419504038</v>
       </c>
       <c r="D130" t="s">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="E130" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="F130" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="131" spans="1:6">
@@ -3128,19 +3121,19 @@
         <v>129</v>
       </c>
       <c r="B131">
-        <v>84</v>
+        <v>42</v>
       </c>
       <c r="C131">
-        <v>2.629738742229504</v>
+        <v>2.580668391278401</v>
       </c>
       <c r="D131" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E131" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F131" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="132" spans="1:6">
@@ -3148,19 +3141,19 @@
         <v>130</v>
       </c>
       <c r="B132">
-        <v>85</v>
+        <v>43</v>
       </c>
       <c r="C132">
-        <v>1.908421904580301</v>
+        <v>2.924183544569302</v>
       </c>
       <c r="D132" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E132" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F132" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="133" spans="1:6">
@@ -3168,39 +3161,39 @@
         <v>131</v>
       </c>
       <c r="B133">
-        <v>86</v>
+        <v>31702261</v>
       </c>
       <c r="C133">
-        <v>2.300994645351352</v>
+        <v>3.63561969604645</v>
       </c>
       <c r="D133" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="E133" t="s">
-        <v>22</v>
+        <v>10</v>
       </c>
       <c r="F133" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="134" spans="1:6">
       <c r="A134" s="1">
         <v>132</v>
       </c>
-      <c r="B134">
-        <v>108</v>
-      </c>
-      <c r="C134">
-        <v>1.590404186978048</v>
+      <c r="B134" t="s">
+        <v>5</v>
+      </c>
+      <c r="C134" t="s">
+        <v>5</v>
       </c>
       <c r="D134" t="s">
-        <v>36</v>
+        <v>5</v>
       </c>
       <c r="E134" t="s">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="F134" t="s">
-        <v>42</v>
+        <v>5</v>
       </c>
     </row>
     <row r="135" spans="1:6">
@@ -3208,19 +3201,19 @@
         <v>133</v>
       </c>
       <c r="B135">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="C135">
-        <v>1.55750554583197</v>
+        <v>1.740213723073027</v>
       </c>
       <c r="D135" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E135" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F135" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="136" spans="1:6">
@@ -3228,19 +3221,19 @@
         <v>134</v>
       </c>
       <c r="B136">
-        <v>110</v>
+        <v>109</v>
       </c>
       <c r="C136">
-        <v>2.705352566373055</v>
+        <v>1.793254415889643</v>
       </c>
       <c r="D136" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E136" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F136" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="137" spans="1:6">
@@ -3248,19 +3241,19 @@
         <v>135</v>
       </c>
       <c r="B137">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C137">
-        <v>2.790481126969851</v>
+        <v>1.782849643501161</v>
       </c>
       <c r="D137" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E137" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F137" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="138" spans="1:6">
@@ -3268,19 +3261,19 @@
         <v>136</v>
       </c>
       <c r="B138">
-        <v>112</v>
+        <v>31702243</v>
       </c>
       <c r="C138">
-        <v>2.526230011215633</v>
+        <v>3.28997914151015</v>
       </c>
       <c r="D138" t="s">
-        <v>36</v>
+        <v>29</v>
       </c>
       <c r="E138" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="F138" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="139" spans="1:6">
@@ -3288,19 +3281,19 @@
         <v>137</v>
       </c>
       <c r="B139">
-        <v>51</v>
+        <v>31702263</v>
       </c>
       <c r="C139">
-        <v>2.251541134032226</v>
+        <v>3.67822595491589</v>
       </c>
       <c r="D139" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E139" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F139" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="140" spans="1:6">
@@ -3308,19 +3301,19 @@
         <v>138</v>
       </c>
       <c r="B140">
-        <v>52</v>
+        <v>31702268</v>
       </c>
       <c r="C140">
-        <v>2.638177917820371</v>
+        <v>3.85142435036607</v>
       </c>
       <c r="D140" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E140" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F140" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="141" spans="1:6">
@@ -3328,19 +3321,19 @@
         <v>139</v>
       </c>
       <c r="B141">
-        <v>53</v>
+        <v>31702269</v>
       </c>
       <c r="C141">
-        <v>1.843164497797822</v>
+        <v>3.86674862217677</v>
       </c>
       <c r="D141" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="E141" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="F141" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="142" spans="1:6">
@@ -3348,19 +3341,19 @@
         <v>140</v>
       </c>
       <c r="B142">
-        <v>54</v>
+        <v>21</v>
       </c>
       <c r="C142">
-        <v>2.627132637205738</v>
+        <v>2.553710324161354</v>
       </c>
       <c r="D142" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E142" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F142" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="143" spans="1:6">
@@ -3368,38 +3361,738 @@
         <v>141</v>
       </c>
       <c r="B143">
-        <v>55</v>
+        <v>22</v>
       </c>
       <c r="C143">
-        <v>1.889977317417207</v>
+        <v>2.79266610320688</v>
       </c>
       <c r="D143" t="s">
-        <v>37</v>
+        <v>30</v>
       </c>
       <c r="E143" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F143" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="144" spans="1:6">
       <c r="A144" s="1">
         <v>142</v>
       </c>
-      <c r="B144" t="s">
+      <c r="B144">
+        <v>23</v>
+      </c>
+      <c r="C144">
+        <v>2.539841652041091</v>
+      </c>
+      <c r="D144" t="s">
+        <v>30</v>
+      </c>
+      <c r="E144" t="s">
+        <v>35</v>
+      </c>
+      <c r="F144" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="145" spans="1:6">
+      <c r="A145" s="1">
+        <v>143</v>
+      </c>
+      <c r="B145">
+        <v>24</v>
+      </c>
+      <c r="C145">
+        <v>2.860697606968887</v>
+      </c>
+      <c r="D145" t="s">
+        <v>30</v>
+      </c>
+      <c r="E145" t="s">
+        <v>35</v>
+      </c>
+      <c r="F145" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="146" spans="1:6">
+      <c r="A146" s="1">
+        <v>144</v>
+      </c>
+      <c r="B146">
+        <v>25</v>
+      </c>
+      <c r="C146">
+        <v>2.555771035670722</v>
+      </c>
+      <c r="D146" t="s">
+        <v>30</v>
+      </c>
+      <c r="E146" t="s">
+        <v>35</v>
+      </c>
+      <c r="F146" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="147" spans="1:6">
+      <c r="A147" s="1">
+        <v>145</v>
+      </c>
+      <c r="B147">
+        <v>26</v>
+      </c>
+      <c r="C147">
+        <v>2.140307829499646</v>
+      </c>
+      <c r="D147" t="s">
+        <v>30</v>
+      </c>
+      <c r="E147" t="s">
+        <v>35</v>
+      </c>
+      <c r="F147" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="148" spans="1:6">
+      <c r="A148" s="1">
+        <v>146</v>
+      </c>
+      <c r="B148">
+        <v>31702247</v>
+      </c>
+      <c r="C148">
+        <v>3.39214763262705</v>
+      </c>
+      <c r="D148" t="s">
+        <v>30</v>
+      </c>
+      <c r="E148" t="s">
+        <v>35</v>
+      </c>
+      <c r="F148" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="149" spans="1:6">
+      <c r="A149" s="1">
+        <v>147</v>
+      </c>
+      <c r="B149">
+        <v>31702272</v>
+      </c>
+      <c r="C149">
+        <v>3.91893403096712</v>
+      </c>
+      <c r="D149" t="s">
+        <v>30</v>
+      </c>
+      <c r="E149" t="s">
+        <v>35</v>
+      </c>
+      <c r="F149" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="150" spans="1:6">
+      <c r="A150" s="1">
+        <v>148</v>
+      </c>
+      <c r="B150">
+        <v>49</v>
+      </c>
+      <c r="C150">
+        <v>2.3191149828032</v>
+      </c>
+      <c r="D150" t="s">
+        <v>31</v>
+      </c>
+      <c r="E150" t="s">
+        <v>18</v>
+      </c>
+      <c r="F150" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="151" spans="1:6">
+      <c r="A151" s="1">
+        <v>149</v>
+      </c>
+      <c r="B151">
+        <v>50</v>
+      </c>
+      <c r="C151">
+        <v>2.818670761045722</v>
+      </c>
+      <c r="D151" t="s">
+        <v>31</v>
+      </c>
+      <c r="E151" t="s">
+        <v>18</v>
+      </c>
+      <c r="F151" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="152" spans="1:6">
+      <c r="A152" s="1">
+        <v>150</v>
+      </c>
+      <c r="B152">
+        <v>51</v>
+      </c>
+      <c r="C152">
+        <v>2.570651964633682</v>
+      </c>
+      <c r="D152" t="s">
+        <v>31</v>
+      </c>
+      <c r="E152" t="s">
+        <v>18</v>
+      </c>
+      <c r="F152" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="153" spans="1:6">
+      <c r="A153" s="1">
+        <v>151</v>
+      </c>
+      <c r="B153">
+        <v>52</v>
+      </c>
+      <c r="C153">
+        <v>2.707293993447946</v>
+      </c>
+      <c r="D153" t="s">
+        <v>31</v>
+      </c>
+      <c r="E153" t="s">
+        <v>18</v>
+      </c>
+      <c r="F153" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="154" spans="1:6">
+      <c r="A154" s="1">
+        <v>152</v>
+      </c>
+      <c r="B154">
+        <v>103</v>
+      </c>
+      <c r="C154">
+        <v>2.529238282145507</v>
+      </c>
+      <c r="D154" t="s">
+        <v>32</v>
+      </c>
+      <c r="E154" t="s">
+        <v>11</v>
+      </c>
+      <c r="F154" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="155" spans="1:6">
+      <c r="A155" s="1">
+        <v>153</v>
+      </c>
+      <c r="B155">
+        <v>104</v>
+      </c>
+      <c r="C155">
+        <v>3.397228245868499</v>
+      </c>
+      <c r="D155" t="s">
+        <v>32</v>
+      </c>
+      <c r="E155" t="s">
+        <v>11</v>
+      </c>
+      <c r="F155" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="156" spans="1:6">
+      <c r="A156" s="1">
+        <v>154</v>
+      </c>
+      <c r="B156">
+        <v>105</v>
+      </c>
+      <c r="C156">
+        <v>2.720766470864233</v>
+      </c>
+      <c r="D156" t="s">
+        <v>32</v>
+      </c>
+      <c r="E156" t="s">
+        <v>11</v>
+      </c>
+      <c r="F156" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="157" spans="1:6">
+      <c r="A157" s="1">
+        <v>155</v>
+      </c>
+      <c r="B157">
+        <v>31702255</v>
+      </c>
+      <c r="C157">
+        <v>3.46742339464813</v>
+      </c>
+      <c r="D157" t="s">
+        <v>32</v>
+      </c>
+      <c r="E157" t="s">
+        <v>11</v>
+      </c>
+      <c r="F157" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="158" spans="1:6">
+      <c r="A158" s="1">
+        <v>156</v>
+      </c>
+      <c r="B158">
+        <v>96</v>
+      </c>
+      <c r="C158">
+        <v>2.900304011410493</v>
+      </c>
+      <c r="D158" t="s">
+        <v>33</v>
+      </c>
+      <c r="E158" t="s">
+        <v>29</v>
+      </c>
+      <c r="F158" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="159" spans="1:6">
+      <c r="A159" s="1">
+        <v>157</v>
+      </c>
+      <c r="B159">
+        <v>97</v>
+      </c>
+      <c r="C159">
+        <v>3.052459168720605</v>
+      </c>
+      <c r="D159" t="s">
+        <v>33</v>
+      </c>
+      <c r="E159" t="s">
+        <v>29</v>
+      </c>
+      <c r="F159" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="160" spans="1:6">
+      <c r="A160" s="1">
+        <v>158</v>
+      </c>
+      <c r="B160">
+        <v>98</v>
+      </c>
+      <c r="C160">
+        <v>2.618580507485278</v>
+      </c>
+      <c r="D160" t="s">
+        <v>33</v>
+      </c>
+      <c r="E160" t="s">
+        <v>29</v>
+      </c>
+      <c r="F160" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="161" spans="1:6">
+      <c r="A161" s="1">
+        <v>159</v>
+      </c>
+      <c r="B161">
+        <v>99</v>
+      </c>
+      <c r="C161">
+        <v>3.140243701322544</v>
+      </c>
+      <c r="D161" t="s">
+        <v>33</v>
+      </c>
+      <c r="E161" t="s">
+        <v>29</v>
+      </c>
+      <c r="F161" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="162" spans="1:6">
+      <c r="A162" s="1">
+        <v>160</v>
+      </c>
+      <c r="B162">
+        <v>100</v>
+      </c>
+      <c r="C162">
+        <v>2.101412579604878</v>
+      </c>
+      <c r="D162" t="s">
+        <v>33</v>
+      </c>
+      <c r="E162" t="s">
+        <v>29</v>
+      </c>
+      <c r="F162" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="163" spans="1:6">
+      <c r="A163" s="1">
+        <v>161</v>
+      </c>
+      <c r="B163">
+        <v>31702231</v>
+      </c>
+      <c r="C163">
+        <v>3.15263576285963</v>
+      </c>
+      <c r="D163" t="s">
+        <v>33</v>
+      </c>
+      <c r="E163" t="s">
+        <v>29</v>
+      </c>
+      <c r="F163" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="164" spans="1:6">
+      <c r="A164" s="1">
+        <v>162</v>
+      </c>
+      <c r="B164">
+        <v>31702265</v>
+      </c>
+      <c r="C164">
+        <v>3.76826825175564</v>
+      </c>
+      <c r="D164" t="s">
+        <v>33</v>
+      </c>
+      <c r="E164" t="s">
+        <v>29</v>
+      </c>
+      <c r="F164" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="165" spans="1:6">
+      <c r="A165" s="1">
+        <v>163</v>
+      </c>
+      <c r="B165">
+        <v>84</v>
+      </c>
+      <c r="C165">
+        <v>2.672480248567241</v>
+      </c>
+      <c r="D165" t="s">
+        <v>34</v>
+      </c>
+      <c r="E165" t="s">
+        <v>25</v>
+      </c>
+      <c r="F165" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="166" spans="1:6">
+      <c r="A166" s="1">
+        <v>164</v>
+      </c>
+      <c r="B166">
+        <v>85</v>
+      </c>
+      <c r="C166">
+        <v>3.288464718125117</v>
+      </c>
+      <c r="D166" t="s">
+        <v>34</v>
+      </c>
+      <c r="E166" t="s">
+        <v>25</v>
+      </c>
+      <c r="F166" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="167" spans="1:6">
+      <c r="A167" s="1">
+        <v>165</v>
+      </c>
+      <c r="B167">
+        <v>90</v>
+      </c>
+      <c r="C167">
+        <v>2.124212780216781</v>
+      </c>
+      <c r="D167" t="s">
+        <v>35</v>
+      </c>
+      <c r="E167" t="s">
+        <v>30</v>
+      </c>
+      <c r="F167" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="168" spans="1:6">
+      <c r="A168" s="1">
+        <v>166</v>
+      </c>
+      <c r="B168">
+        <v>91</v>
+      </c>
+      <c r="C168">
+        <v>1.561934614884561</v>
+      </c>
+      <c r="D168" t="s">
+        <v>35</v>
+      </c>
+      <c r="E168" t="s">
+        <v>30</v>
+      </c>
+      <c r="F168" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="169" spans="1:6">
+      <c r="A169" s="1">
+        <v>167</v>
+      </c>
+      <c r="B169">
+        <v>92</v>
+      </c>
+      <c r="C169">
+        <v>2.353556981486164</v>
+      </c>
+      <c r="D169" t="s">
+        <v>35</v>
+      </c>
+      <c r="E169" t="s">
+        <v>30</v>
+      </c>
+      <c r="F169" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="170" spans="1:6">
+      <c r="A170" s="1">
+        <v>168</v>
+      </c>
+      <c r="B170">
+        <v>93</v>
+      </c>
+      <c r="C170">
+        <v>2.067479167394611</v>
+      </c>
+      <c r="D170" t="s">
+        <v>35</v>
+      </c>
+      <c r="E170" t="s">
+        <v>30</v>
+      </c>
+      <c r="F170" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="171" spans="1:6">
+      <c r="A171" s="1">
+        <v>169</v>
+      </c>
+      <c r="B171">
+        <v>94</v>
+      </c>
+      <c r="C171">
+        <v>2.662716230635188</v>
+      </c>
+      <c r="D171" t="s">
+        <v>35</v>
+      </c>
+      <c r="E171" t="s">
+        <v>30</v>
+      </c>
+      <c r="F171" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="172" spans="1:6">
+      <c r="A172" s="1">
+        <v>170</v>
+      </c>
+      <c r="B172">
+        <v>95</v>
+      </c>
+      <c r="C172">
+        <v>3.011140123648089</v>
+      </c>
+      <c r="D172" t="s">
+        <v>35</v>
+      </c>
+      <c r="E172" t="s">
+        <v>30</v>
+      </c>
+      <c r="F172" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="173" spans="1:6">
+      <c r="A173" s="1">
+        <v>171</v>
+      </c>
+      <c r="B173">
+        <v>31702233</v>
+      </c>
+      <c r="C173">
+        <v>3.16654034804069</v>
+      </c>
+      <c r="D173" t="s">
+        <v>35</v>
+      </c>
+      <c r="E173" t="s">
+        <v>30</v>
+      </c>
+      <c r="F173" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="174" spans="1:6">
+      <c r="A174" s="1">
+        <v>172</v>
+      </c>
+      <c r="B174">
+        <v>31702252</v>
+      </c>
+      <c r="C174">
+        <v>3.44075692589713</v>
+      </c>
+      <c r="D174" t="s">
+        <v>35</v>
+      </c>
+      <c r="E174" t="s">
+        <v>30</v>
+      </c>
+      <c r="F174" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="175" spans="1:6">
+      <c r="A175" s="1">
+        <v>173</v>
+      </c>
+      <c r="B175">
+        <v>76</v>
+      </c>
+      <c r="C175">
+        <v>2.059240249724528</v>
+      </c>
+      <c r="D175" t="s">
+        <v>36</v>
+      </c>
+      <c r="E175" t="s">
+        <v>37</v>
+      </c>
+      <c r="F175" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="176" spans="1:6">
+      <c r="A176" s="1">
+        <v>174</v>
+      </c>
+      <c r="B176">
+        <v>77</v>
+      </c>
+      <c r="C176">
+        <v>2.227541396646287</v>
+      </c>
+      <c r="D176" t="s">
+        <v>36</v>
+      </c>
+      <c r="E176" t="s">
+        <v>37</v>
+      </c>
+      <c r="F176" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="177" spans="1:6">
+      <c r="A177" s="1">
+        <v>175</v>
+      </c>
+      <c r="B177">
+        <v>32</v>
+      </c>
+      <c r="C177">
+        <v>2.767397903069535</v>
+      </c>
+      <c r="D177" t="s">
+        <v>37</v>
+      </c>
+      <c r="E177" t="s">
+        <v>36</v>
+      </c>
+      <c r="F177" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="178" spans="1:6">
+      <c r="A178" s="1">
+        <v>176</v>
+      </c>
+      <c r="B178">
+        <v>33</v>
+      </c>
+      <c r="C178">
+        <v>2.286249773875225</v>
+      </c>
+      <c r="D178" t="s">
+        <v>37</v>
+      </c>
+      <c r="E178" t="s">
+        <v>36</v>
+      </c>
+      <c r="F178" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="179" spans="1:6">
+      <c r="A179" s="1">
+        <v>177</v>
+      </c>
+      <c r="B179" t="s">
         <v>5</v>
       </c>
-      <c r="C144" t="s">
+      <c r="C179" t="s">
         <v>5</v>
       </c>
-      <c r="D144" t="s">
+      <c r="D179" t="s">
         <v>5</v>
       </c>
-      <c r="E144" t="s">
+      <c r="E179" t="s">
         <v>5</v>
       </c>
-      <c r="F144" t="s">
+      <c r="F179" t="s">
         <v>5</v>
       </c>
     </row>

--- a/output/GA_MUresult.xlsx
+++ b/output/GA_MUresult.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="395" uniqueCount="43">
   <si>
     <t>学号</t>
   </si>
@@ -34,127 +34,138 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>M老师</t>
-  </si>
-  <si>
-    <t>Ac老师</t>
-  </si>
-  <si>
-    <t>A老师</t>
-  </si>
-  <si>
-    <t>I老师</t>
-  </si>
-  <si>
-    <t>N老师</t>
-  </si>
-  <si>
-    <t>Aa老师</t>
-  </si>
-  <si>
-    <t>C老师</t>
-  </si>
-  <si>
-    <t>V老师</t>
-  </si>
-  <si>
-    <t>Y老师</t>
-  </si>
-  <si>
-    <t>Q老师</t>
-  </si>
-  <si>
-    <t>S老师</t>
-  </si>
-  <si>
-    <t>O老师</t>
-  </si>
-  <si>
-    <t>G老师</t>
-  </si>
-  <si>
-    <t>P老师</t>
-  </si>
-  <si>
-    <t>Ad老师</t>
-  </si>
-  <si>
-    <t>K老师</t>
-  </si>
-  <si>
-    <t>Ag老师</t>
-  </si>
-  <si>
-    <t>U老师</t>
-  </si>
-  <si>
-    <t>B老师</t>
-  </si>
-  <si>
-    <t>F老师</t>
-  </si>
-  <si>
-    <t>D老师</t>
-  </si>
-  <si>
-    <t>Ae老师</t>
-  </si>
-  <si>
-    <t>J老师</t>
-  </si>
-  <si>
-    <t>Ab老师</t>
-  </si>
-  <si>
-    <t>E老师</t>
-  </si>
-  <si>
-    <t>L老师</t>
-  </si>
-  <si>
-    <t>Z老师</t>
-  </si>
-  <si>
-    <t>X老师</t>
-  </si>
-  <si>
-    <t>T老师</t>
-  </si>
-  <si>
-    <t>W老师</t>
-  </si>
-  <si>
-    <t>R老师</t>
-  </si>
-  <si>
-    <t>H老师</t>
-  </si>
-  <si>
-    <t xml:space="preserve">J老师,
-Z老师,
-D老师,
-Q老师,
+    <t>吴运兵</t>
+  </si>
+  <si>
+    <t>于元隆</t>
+  </si>
+  <si>
+    <t>余春艳</t>
+  </si>
+  <si>
+    <t>傅仰耿</t>
+  </si>
+  <si>
+    <t>陈昭炯</t>
+  </si>
+  <si>
+    <t>吴英杰</t>
+  </si>
+  <si>
+    <t>林秋月</t>
+  </si>
+  <si>
+    <t>郭昆</t>
+  </si>
+  <si>
+    <t>郭龙坤</t>
+  </si>
+  <si>
+    <t>王一蕾</t>
+  </si>
+  <si>
+    <t>谢伙生</t>
+  </si>
+  <si>
+    <t>王秀</t>
+  </si>
+  <si>
+    <t>张栋</t>
+  </si>
+  <si>
+    <t>刘文犀</t>
+  </si>
+  <si>
+    <t>苏雅茹</t>
+  </si>
+  <si>
+    <t>谢丽聪</t>
+  </si>
+  <si>
+    <t>叶东毅</t>
+  </si>
+  <si>
+    <t>牛玉贞</t>
+  </si>
+  <si>
+    <t>白清源</t>
+  </si>
+  <si>
+    <t>何振峰</t>
+  </si>
+  <si>
+    <t>阮一文</t>
+  </si>
+  <si>
+    <t>叶菁</t>
+  </si>
+  <si>
+    <t>陈勃</t>
+  </si>
+  <si>
+    <t>陈欢</t>
+  </si>
+  <si>
+    <t>程永利</t>
+  </si>
+  <si>
+    <t>于志敏</t>
+  </si>
+  <si>
+    <t>余小燕</t>
+  </si>
+  <si>
+    <t>朱丹红</t>
+  </si>
+  <si>
+    <t>孙岚</t>
+  </si>
+  <si>
+    <t>柯逍</t>
+  </si>
+  <si>
+    <t>韩晓芸</t>
+  </si>
+  <si>
+    <t xml:space="preserve">叶东毅,
+白清源,
+谢伙生,
+王一蕾,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">U老师,
-V老师,
-Ac老师,
-L老师,
+    <t xml:space="preserve">阮一文,
+柯逍,
+余春艳,
+朱丹红,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">A老师,
-T老师,
-C老师,
-N老师,
+    <t xml:space="preserve">傅仰耿,
+苏雅茹,
+余小燕,
+吴英杰,
 </t>
   </si>
   <si>
-    <t xml:space="preserve">G老师,
-Aa老师,
-F老师,
-I老师,
+    <t xml:space="preserve">张栋,
+孙岚,
+吴运兵,
+陈昭炯,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">于元隆,
+林秋月,
+陈勃,
+郭龙坤,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">叶菁,
+谢丽聪,
+郭昆,
+王秀,
 </t>
   </si>
 </sst>
@@ -513,7 +524,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F179"/>
+  <dimension ref="A1:F127"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -541,19 +552,19 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>53</v>
+        <v>31602624</v>
       </c>
       <c r="C2">
-        <v>2.625337390116468</v>
+        <v>2.097476</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -561,19 +572,19 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>54</v>
+        <v>31602442</v>
       </c>
       <c r="C3">
-        <v>2.550833122186458</v>
+        <v>2.022961</v>
       </c>
       <c r="D3" t="s">
         <v>6</v>
       </c>
       <c r="E3" t="s">
-        <v>9</v>
+        <v>22</v>
       </c>
       <c r="F3" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -581,19 +592,19 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>55</v>
+        <v>31602137</v>
       </c>
       <c r="C4">
-        <v>2.97933839523879</v>
+        <v>3.312752</v>
       </c>
       <c r="D4" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -601,19 +612,19 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>56</v>
+        <v>81600143</v>
       </c>
       <c r="C5">
-        <v>3.466168958515088</v>
+        <v>3.859539</v>
       </c>
       <c r="D5" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F5" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -621,19 +632,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>57</v>
+        <v>31602402</v>
       </c>
       <c r="C6">
-        <v>2.938069451844254</v>
+        <v>2.952145</v>
       </c>
       <c r="D6" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E6" t="s">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="F6" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -641,19 +652,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>111</v>
+        <v>31602131</v>
       </c>
       <c r="C7">
-        <v>2.753588466869718</v>
+        <v>3.456209</v>
       </c>
       <c r="D7" t="s">
         <v>7</v>
       </c>
       <c r="E7" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F7" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -661,19 +672,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>112</v>
+        <v>31602431</v>
       </c>
       <c r="C8">
-        <v>2.201492931671954</v>
+        <v>3.644408</v>
       </c>
       <c r="D8" t="s">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F8" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -681,19 +692,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>113</v>
+        <v>31602140</v>
       </c>
       <c r="C9">
-        <v>3.473956779892932</v>
+        <v>3.172871</v>
       </c>
       <c r="D9" t="s">
         <v>7</v>
       </c>
       <c r="E9" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="F9" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -701,19 +712,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>114</v>
+        <v>31602437</v>
       </c>
       <c r="C10">
-        <v>2.719875268133295</v>
+        <v>2.188328</v>
       </c>
       <c r="D10" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E10" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -721,19 +732,19 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>115</v>
+        <v>31602531</v>
       </c>
       <c r="C11">
-        <v>2.436870700984995</v>
+        <v>2.150459</v>
       </c>
       <c r="D11" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E11" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F11" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -741,19 +752,19 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>31702257</v>
+        <v>131601154</v>
       </c>
       <c r="C12">
-        <v>3.54584800938547</v>
+        <v>2.563192</v>
       </c>
       <c r="D12" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E12" t="s">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="F12" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="13" spans="1:6">
@@ -761,19 +772,19 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31702259</v>
+        <v>31502607</v>
       </c>
       <c r="C13">
-        <v>3.61382573632634</v>
+        <v>3.796564</v>
       </c>
       <c r="D13" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E13" t="s">
         <v>16</v>
       </c>
       <c r="F13" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="14" spans="1:6">
@@ -781,19 +792,19 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31702264</v>
+        <v>31601124</v>
       </c>
       <c r="C14">
-        <v>3.74145257830303</v>
+        <v>2.956563</v>
       </c>
       <c r="D14" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E14" t="s">
         <v>16</v>
       </c>
       <c r="F14" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="15" spans="1:6">
@@ -801,19 +812,19 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31702267</v>
+        <v>31602201</v>
       </c>
       <c r="C15">
-        <v>3.81817008980742</v>
+        <v>4.000683</v>
       </c>
       <c r="D15" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E15" t="s">
         <v>16</v>
       </c>
       <c r="F15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="16" spans="1:6">
@@ -821,19 +832,19 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1</v>
+        <v>31602204</v>
       </c>
       <c r="C16">
-        <v>2.834108277944151</v>
+        <v>3.411613</v>
       </c>
       <c r="D16" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E16" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F16" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -841,19 +852,19 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>2</v>
+        <v>31602312</v>
       </c>
       <c r="C17">
-        <v>2.99225004766476</v>
+        <v>3.003754</v>
       </c>
       <c r="D17" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E17" t="s">
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="F17" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -861,19 +872,19 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>3</v>
+        <v>31602619</v>
       </c>
       <c r="C18">
-        <v>1.566110302263877</v>
+        <v>2.067398</v>
       </c>
       <c r="D18" t="s">
+        <v>10</v>
+      </c>
+      <c r="E18" t="s">
         <v>8</v>
       </c>
-      <c r="E18" t="s">
-        <v>24</v>
-      </c>
       <c r="F18" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -881,19 +892,19 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>4</v>
+        <v>31602307</v>
       </c>
       <c r="C19">
-        <v>2.309574508129958</v>
+        <v>3.200631</v>
       </c>
       <c r="D19" t="s">
+        <v>10</v>
+      </c>
+      <c r="E19" t="s">
         <v>8</v>
       </c>
-      <c r="E19" t="s">
-        <v>24</v>
-      </c>
       <c r="F19" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -901,19 +912,19 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>31602532</v>
       </c>
       <c r="C20">
-        <v>2.178348660320978</v>
+        <v>1.861677</v>
       </c>
       <c r="D20" t="s">
+        <v>10</v>
+      </c>
+      <c r="E20" t="s">
         <v>8</v>
       </c>
-      <c r="E20" t="s">
-        <v>24</v>
-      </c>
       <c r="F20" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -921,39 +932,39 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>6</v>
+        <v>31602405</v>
       </c>
       <c r="C21">
-        <v>2.661459135590114</v>
+        <v>2.866559</v>
       </c>
       <c r="D21" t="s">
+        <v>10</v>
+      </c>
+      <c r="E21" t="s">
         <v>8</v>
       </c>
-      <c r="E21" t="s">
-        <v>24</v>
-      </c>
       <c r="F21" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="22" spans="1:6">
       <c r="A22" s="1">
         <v>20</v>
       </c>
-      <c r="B22">
-        <v>34</v>
-      </c>
-      <c r="C22">
-        <v>2.972232319555475</v>
+      <c r="B22" t="s">
+        <v>5</v>
+      </c>
+      <c r="C22" t="s">
+        <v>5</v>
       </c>
       <c r="D22" t="s">
-        <v>9</v>
+        <v>5</v>
       </c>
       <c r="E22" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="F22" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -961,16 +972,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>35</v>
+        <v>31602421</v>
       </c>
       <c r="C23">
-        <v>3.350940623221237</v>
+        <v>3.062712</v>
       </c>
       <c r="D23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
@@ -981,16 +992,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>36</v>
+        <v>81600107</v>
       </c>
       <c r="C24">
-        <v>2.791710359313968</v>
+        <v>3.823843</v>
       </c>
       <c r="D24" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
@@ -1001,16 +1012,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>37</v>
+        <v>31602128</v>
       </c>
       <c r="C25">
-        <v>2.316528595188501</v>
+        <v>3.233677</v>
       </c>
       <c r="D25" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F25" t="s">
         <v>38</v>
@@ -1021,16 +1032,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>38</v>
+        <v>31602333</v>
       </c>
       <c r="C26">
-        <v>3.411629149413432</v>
+        <v>2.112805</v>
       </c>
       <c r="D26" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
       <c r="F26" t="s">
         <v>38</v>
@@ -1041,16 +1052,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>58</v>
+        <v>31602506</v>
       </c>
       <c r="C27">
-        <v>2.305778001288095</v>
+        <v>3.457333</v>
       </c>
       <c r="D27" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="E27" t="s">
-        <v>28</v>
+        <v>14</v>
       </c>
       <c r="F27" t="s">
         <v>38</v>
@@ -1061,16 +1072,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>59</v>
+        <v>31602427</v>
       </c>
       <c r="C28">
-        <v>3.214591449741177</v>
+        <v>2.418868</v>
       </c>
       <c r="D28" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F28" t="s">
         <v>38</v>
@@ -1081,16 +1092,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>60</v>
+        <v>31602403</v>
       </c>
       <c r="C29">
-        <v>3.102417365837761</v>
+        <v>2.404389</v>
       </c>
       <c r="D29" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F29" t="s">
         <v>38</v>
@@ -1101,16 +1112,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>61</v>
+        <v>41602204</v>
       </c>
       <c r="C30">
-        <v>2.405746980117616</v>
+        <v>3.164865</v>
       </c>
       <c r="D30" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E30" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
@@ -1121,16 +1132,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>62</v>
+        <v>41602630</v>
       </c>
       <c r="C31">
-        <v>2.289546424019849</v>
+        <v>3.369014</v>
       </c>
       <c r="D31" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E31" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F31" t="s">
         <v>38</v>
@@ -1141,16 +1152,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>63</v>
+        <v>31602146</v>
       </c>
       <c r="C32">
-        <v>3.102505467268191</v>
+        <v>3.780795</v>
       </c>
       <c r="D32" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>28</v>
+        <v>35</v>
       </c>
       <c r="F32" t="s">
         <v>38</v>
@@ -1161,16 +1172,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>106</v>
+        <v>31601232</v>
       </c>
       <c r="C33">
-        <v>2.537760347922753</v>
+        <v>3.789667</v>
       </c>
       <c r="D33" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F33" t="s">
         <v>38</v>
@@ -1181,16 +1192,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>107</v>
+        <v>31602511</v>
       </c>
       <c r="C34">
-        <v>2.710966709803879</v>
+        <v>3.124063</v>
       </c>
       <c r="D34" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E34" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F34" t="s">
         <v>38</v>
@@ -1201,16 +1212,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>31702253</v>
+        <v>31602144</v>
       </c>
       <c r="C35">
-        <v>3.44351802674255</v>
+        <v>2.550789</v>
       </c>
       <c r="D35" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E35" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -1221,16 +1232,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>31702266</v>
+        <v>31602248</v>
       </c>
       <c r="C36">
-        <v>3.77562389193548</v>
+        <v>2.463057</v>
       </c>
       <c r="D36" t="s">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="E36" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F36" t="s">
         <v>38</v>
@@ -1241,16 +1252,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>12</v>
+        <v>31602425</v>
       </c>
       <c r="C37">
-        <v>1.745720648933164</v>
+        <v>2.561875</v>
       </c>
       <c r="D37" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E37" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F37" t="s">
         <v>38</v>
@@ -1261,16 +1272,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>13</v>
+        <v>31602415</v>
       </c>
       <c r="C38">
-        <v>2.584656426296124</v>
+        <v>3.616294</v>
       </c>
       <c r="D38" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E38" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -1281,16 +1292,16 @@
         <v>37</v>
       </c>
       <c r="B39">
+        <v>31602332</v>
+      </c>
+      <c r="C39">
+        <v>2.49373</v>
+      </c>
+      <c r="D39" t="s">
         <v>14</v>
       </c>
-      <c r="C39">
-        <v>2.073743244523422</v>
-      </c>
-      <c r="D39" t="s">
-        <v>12</v>
-      </c>
       <c r="E39" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F39" t="s">
         <v>38</v>
@@ -1301,16 +1312,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>15</v>
+        <v>31602247</v>
       </c>
       <c r="C40">
-        <v>2.715942451340665</v>
+        <v>3.279655</v>
       </c>
       <c r="D40" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E40" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F40" t="s">
         <v>38</v>
@@ -1321,16 +1332,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>16</v>
+        <v>41602209</v>
       </c>
       <c r="C41">
-        <v>3.473799567520698</v>
+        <v>2.851827</v>
       </c>
       <c r="D41" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="E41" t="s">
-        <v>26</v>
+        <v>11</v>
       </c>
       <c r="F41" t="s">
         <v>38</v>
@@ -1341,16 +1352,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>88</v>
+        <v>31602136</v>
       </c>
       <c r="C42">
-        <v>3.309303697670954</v>
+        <v>2.599676</v>
       </c>
       <c r="D42" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E42" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="F42" t="s">
         <v>38</v>
@@ -1360,20 +1371,20 @@
       <c r="A43" s="1">
         <v>41</v>
       </c>
-      <c r="B43">
-        <v>89</v>
-      </c>
-      <c r="C43">
-        <v>2.386427031479692</v>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>5</v>
       </c>
       <c r="D43" t="s">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="E43" t="s">
-        <v>15</v>
+        <v>5</v>
       </c>
       <c r="F43" t="s">
-        <v>38</v>
+        <v>5</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -1381,19 +1392,19 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>31702240</v>
+        <v>31602606</v>
       </c>
       <c r="C44">
-        <v>3.23047227164948</v>
+        <v>2.883912</v>
       </c>
       <c r="D44" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E44" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F44" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -1401,39 +1412,39 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>31702262</v>
+        <v>31602608</v>
       </c>
       <c r="C45">
-        <v>3.64091521943525</v>
+        <v>2.200322</v>
       </c>
       <c r="D45" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="F45" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
     </row>
     <row r="46" spans="1:6">
       <c r="A46" s="1">
         <v>44</v>
       </c>
-      <c r="B46" t="s">
-        <v>5</v>
-      </c>
-      <c r="C46" t="s">
-        <v>5</v>
+      <c r="B46">
+        <v>31602605</v>
+      </c>
+      <c r="C46">
+        <v>3.349667</v>
       </c>
       <c r="D46" t="s">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="E46" t="s">
-        <v>5</v>
+        <v>17</v>
       </c>
       <c r="F46" t="s">
-        <v>5</v>
+        <v>39</v>
       </c>
     </row>
     <row r="47" spans="1:6">
@@ -1441,16 +1452,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>101</v>
+        <v>31602636</v>
       </c>
       <c r="C47">
-        <v>1.860866602806578</v>
+        <v>3.351104</v>
       </c>
       <c r="D47" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E47" t="s">
-        <v>23</v>
+        <v>17</v>
       </c>
       <c r="F47" t="s">
         <v>39</v>
@@ -1461,16 +1472,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>102</v>
+        <v>31602309</v>
       </c>
       <c r="C48">
-        <v>2.613610502660991</v>
+        <v>3.175478</v>
       </c>
       <c r="D48" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E48" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -1481,16 +1492,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>31702254</v>
+        <v>31602205</v>
       </c>
       <c r="C49">
-        <v>3.45851794137651</v>
+        <v>3.394953</v>
       </c>
       <c r="D49" t="s">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="E49" t="s">
-        <v>23</v>
+        <v>9</v>
       </c>
       <c r="F49" t="s">
         <v>39</v>
@@ -1501,16 +1512,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>73</v>
+        <v>31602527</v>
       </c>
       <c r="C50">
-        <v>2.254005217181788</v>
+        <v>3.507237</v>
       </c>
       <c r="D50" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E50" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F50" t="s">
         <v>39</v>
@@ -1521,16 +1532,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>74</v>
+        <v>31602143</v>
       </c>
       <c r="C51">
-        <v>2.734507094110483</v>
+        <v>3.367846</v>
       </c>
       <c r="D51" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E51" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="F51" t="s">
         <v>39</v>
@@ -1541,16 +1552,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>75</v>
+        <v>31602642</v>
       </c>
       <c r="C52">
-        <v>3.128185658210925</v>
+        <v>2.539498</v>
       </c>
       <c r="D52" t="s">
+        <v>17</v>
+      </c>
+      <c r="E52" t="s">
         <v>15</v>
-      </c>
-      <c r="E52" t="s">
-        <v>13</v>
       </c>
       <c r="F52" t="s">
         <v>39</v>
@@ -1561,16 +1572,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>31702235</v>
+        <v>31602310</v>
       </c>
       <c r="C53">
-        <v>3.17439264636947</v>
+        <v>2.176687</v>
       </c>
       <c r="D53" t="s">
+        <v>17</v>
+      </c>
+      <c r="E53" t="s">
         <v>15</v>
-      </c>
-      <c r="E53" t="s">
-        <v>13</v>
       </c>
       <c r="F53" t="s">
         <v>39</v>
@@ -1581,16 +1592,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>78</v>
+        <v>31602512</v>
       </c>
       <c r="C54">
-        <v>3.265696402167072</v>
+        <v>2.435347</v>
       </c>
       <c r="D54" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E54" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -1601,16 +1612,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>79</v>
+        <v>31602607</v>
       </c>
       <c r="C55">
-        <v>2.328684993173344</v>
+        <v>2.646885</v>
       </c>
       <c r="D55" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E55" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F55" t="s">
         <v>39</v>
@@ -1621,16 +1632,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>80</v>
+        <v>31502301</v>
       </c>
       <c r="C56">
-        <v>2.556352986734653</v>
+        <v>2.48065</v>
       </c>
       <c r="D56" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F56" t="s">
         <v>39</v>
@@ -1641,16 +1652,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>81</v>
+        <v>31602327</v>
       </c>
       <c r="C57">
-        <v>2.986077066078452</v>
+        <v>1.856677</v>
       </c>
       <c r="D57" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F57" t="s">
         <v>39</v>
@@ -1661,16 +1672,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>82</v>
+        <v>31602326</v>
       </c>
       <c r="C58">
-        <v>2.554418083874722</v>
+        <v>2.217325</v>
       </c>
       <c r="D58" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F58" t="s">
         <v>39</v>
@@ -1681,16 +1692,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>83</v>
+        <v>31602544</v>
       </c>
       <c r="C59">
-        <v>2.100570409211325</v>
+        <v>3.105643</v>
       </c>
       <c r="D59" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -1701,16 +1712,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>31702248</v>
+        <v>111500206</v>
       </c>
       <c r="C60">
-        <v>3.39948284338908</v>
+        <v>2.942384</v>
       </c>
       <c r="D60" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E60" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F60" t="s">
         <v>39</v>
@@ -1721,16 +1732,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>31702256</v>
+        <v>31602543</v>
       </c>
       <c r="C61">
-        <v>3.54309364227196</v>
+        <v>3.016835</v>
       </c>
       <c r="D61" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E61" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F61" t="s">
         <v>39</v>
@@ -1741,16 +1752,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>31702260</v>
+        <v>31602523</v>
       </c>
       <c r="C62">
-        <v>3.63378826835399</v>
+        <v>3.892233</v>
       </c>
       <c r="D62" t="s">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="E62" t="s">
-        <v>7</v>
+        <v>20</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -1761,16 +1772,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>64</v>
+        <v>31602507</v>
       </c>
       <c r="C63">
-        <v>1.920575015037191</v>
+        <v>3.730645</v>
       </c>
       <c r="D63" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E63" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="F63" t="s">
         <v>39</v>
@@ -1780,20 +1791,20 @@
       <c r="A64" s="1">
         <v>62</v>
       </c>
-      <c r="B64">
-        <v>65</v>
-      </c>
-      <c r="C64">
-        <v>2.84377673841671</v>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>5</v>
       </c>
       <c r="D64" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="E64" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="F64" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -1801,19 +1812,19 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>66</v>
+        <v>31602630</v>
       </c>
       <c r="C65">
-        <v>2.966831592410442</v>
+        <v>3.517685</v>
       </c>
       <c r="D65" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E65" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F65" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -1821,19 +1832,19 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>67</v>
+        <v>31602502</v>
       </c>
       <c r="C66">
-        <v>2.88829310157092</v>
+        <v>3.674751</v>
       </c>
       <c r="D66" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E66" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F66" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -1841,19 +1852,19 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>68</v>
+        <v>31602541</v>
       </c>
       <c r="C67">
-        <v>2.751503242222522</v>
+        <v>3.17476</v>
       </c>
       <c r="D67" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E67" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F67" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -1861,19 +1872,19 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>31702238</v>
+        <v>31602620</v>
       </c>
       <c r="C68">
-        <v>3.2206821009273</v>
+        <v>3.603909</v>
       </c>
       <c r="D68" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E68" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F68" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -1881,19 +1892,19 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>31702242</v>
+        <v>51501124</v>
       </c>
       <c r="C69">
-        <v>3.27053188110405</v>
+        <v>2.790032</v>
       </c>
       <c r="D69" t="s">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="E69" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="F69" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -1901,19 +1912,19 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>29</v>
+        <v>31502531</v>
       </c>
       <c r="C70">
-        <v>2.688288743692811</v>
+        <v>2.636977</v>
       </c>
       <c r="D70" t="s">
+        <v>19</v>
+      </c>
+      <c r="E70" t="s">
         <v>18</v>
       </c>
-      <c r="E70" t="s">
-        <v>31</v>
-      </c>
       <c r="F70" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -1921,19 +1932,19 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>30</v>
+        <v>31602501</v>
       </c>
       <c r="C71">
-        <v>2.528879433636336</v>
+        <v>3.517799</v>
       </c>
       <c r="D71" t="s">
+        <v>19</v>
+      </c>
+      <c r="E71" t="s">
         <v>18</v>
       </c>
-      <c r="E71" t="s">
-        <v>31</v>
-      </c>
       <c r="F71" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -1941,19 +1952,19 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>31</v>
+        <v>131601249</v>
       </c>
       <c r="C72">
-        <v>3.274605102935617</v>
+        <v>3.25768</v>
       </c>
       <c r="D72" t="s">
+        <v>19</v>
+      </c>
+      <c r="E72" t="s">
         <v>18</v>
       </c>
-      <c r="E72" t="s">
-        <v>31</v>
-      </c>
       <c r="F72" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -1961,19 +1972,19 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>31702258</v>
+        <v>31602406</v>
       </c>
       <c r="C73">
-        <v>3.54975659667834</v>
+        <v>3.157333</v>
       </c>
       <c r="D73" t="s">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="E73" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="F73" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -1981,19 +1992,19 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>69</v>
+        <v>31602438</v>
       </c>
       <c r="C74">
-        <v>2.144548553871199</v>
+        <v>2.525974</v>
       </c>
       <c r="D74" t="s">
+        <v>20</v>
+      </c>
+      <c r="E74" t="s">
         <v>19</v>
       </c>
-      <c r="E74" t="s">
-        <v>20</v>
-      </c>
       <c r="F74" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -2001,19 +2012,19 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>70</v>
+        <v>31602634</v>
       </c>
       <c r="C75">
-        <v>2.006814204132511</v>
+        <v>2.873377</v>
       </c>
       <c r="D75" t="s">
+        <v>20</v>
+      </c>
+      <c r="E75" t="s">
         <v>19</v>
       </c>
-      <c r="E75" t="s">
-        <v>20</v>
-      </c>
       <c r="F75" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -2021,19 +2032,19 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>71</v>
+        <v>31602209</v>
       </c>
       <c r="C76">
-        <v>2.403867988092626</v>
+        <v>2.429217</v>
       </c>
       <c r="D76" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" t="s">
         <v>19</v>
       </c>
-      <c r="E76" t="s">
-        <v>20</v>
-      </c>
       <c r="F76" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -2041,19 +2052,19 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>72</v>
+        <v>31602611</v>
       </c>
       <c r="C77">
-        <v>2.930937916489612</v>
+        <v>2.831642</v>
       </c>
       <c r="D77" t="s">
+        <v>20</v>
+      </c>
+      <c r="E77" t="s">
         <v>19</v>
       </c>
-      <c r="E77" t="s">
-        <v>20</v>
-      </c>
       <c r="F77" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -2061,19 +2072,19 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>31702250</v>
+        <v>31602610</v>
       </c>
       <c r="C78">
-        <v>3.40195400806249</v>
+        <v>3.023659</v>
       </c>
       <c r="D78" t="s">
+        <v>20</v>
+      </c>
+      <c r="E78" t="s">
         <v>19</v>
       </c>
-      <c r="E78" t="s">
-        <v>20</v>
-      </c>
       <c r="F78" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2081,10 +2092,10 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>116</v>
+        <v>31602113</v>
       </c>
       <c r="C79">
-        <v>2.643782841468369</v>
+        <v>2.24183</v>
       </c>
       <c r="D79" t="s">
         <v>20</v>
@@ -2093,7 +2104,7 @@
         <v>19</v>
       </c>
       <c r="F79" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -2101,19 +2112,19 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>117</v>
+        <v>31602115</v>
       </c>
       <c r="C80">
-        <v>2.072616365596399</v>
+        <v>1.957941</v>
       </c>
       <c r="D80" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E80" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F80" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -2121,19 +2132,19 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>118</v>
+        <v>31602302</v>
       </c>
       <c r="C81">
-        <v>2.536577082790251</v>
+        <v>2.223476</v>
       </c>
       <c r="D81" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E81" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F81" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -2141,19 +2152,19 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>119</v>
+        <v>31602303</v>
       </c>
       <c r="C82">
-        <v>1.545801886382094</v>
+        <v>2.004438</v>
       </c>
       <c r="D82" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>19</v>
+        <v>34</v>
       </c>
       <c r="F82" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -2161,19 +2172,19 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>31702237</v>
+        <v>31602505</v>
       </c>
       <c r="C83">
-        <v>3.18586767425725</v>
+        <v>3.393189</v>
       </c>
       <c r="D83" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E83" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F83" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -2181,39 +2192,39 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>44</v>
+        <v>111600112</v>
       </c>
       <c r="C84">
-        <v>2.033874626734182</v>
+        <v>3.056436</v>
       </c>
       <c r="D84" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E84" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="F84" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
     </row>
     <row r="85" spans="1:6">
       <c r="A85" s="1">
         <v>83</v>
       </c>
-      <c r="B85">
-        <v>45</v>
-      </c>
-      <c r="C85">
-        <v>2.683163323778934</v>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>5</v>
       </c>
       <c r="D85" t="s">
-        <v>21</v>
+        <v>5</v>
       </c>
       <c r="E85" t="s">
-        <v>17</v>
+        <v>5</v>
       </c>
       <c r="F85" t="s">
-        <v>39</v>
+        <v>5</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -2221,19 +2232,19 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>46</v>
+        <v>31602147</v>
       </c>
       <c r="C86">
-        <v>2.744371695322994</v>
+        <v>3.61732</v>
       </c>
       <c r="D86" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E86" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F86" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -2241,19 +2252,19 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>47</v>
+        <v>31602148</v>
       </c>
       <c r="C87">
-        <v>2.173027745860382</v>
+        <v>3.602326</v>
       </c>
       <c r="D87" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E87" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F87" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -2261,19 +2272,19 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>48</v>
+        <v>81600144</v>
       </c>
       <c r="C88">
-        <v>2.577942384511235</v>
+        <v>3.190164</v>
       </c>
       <c r="D88" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E88" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F88" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -2281,19 +2292,19 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>31702245</v>
+        <v>31602114</v>
       </c>
       <c r="C89">
-        <v>3.30736732921926</v>
+        <v>3.257516</v>
       </c>
       <c r="D89" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E89" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F89" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -2301,39 +2312,39 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>31702270</v>
+        <v>51601414</v>
       </c>
       <c r="C90">
-        <v>3.90177422169194</v>
+        <v>2.719745</v>
       </c>
       <c r="D90" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E90" t="s">
-        <v>17</v>
+        <v>25</v>
       </c>
       <c r="F90" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
     </row>
     <row r="91" spans="1:6">
       <c r="A91" s="1">
         <v>89</v>
       </c>
-      <c r="B91" t="s">
-        <v>5</v>
-      </c>
-      <c r="C91" t="s">
-        <v>5</v>
+      <c r="B91">
+        <v>31602404</v>
+      </c>
+      <c r="C91">
+        <v>3.111726</v>
       </c>
       <c r="D91" t="s">
-        <v>5</v>
+        <v>24</v>
       </c>
       <c r="E91" t="s">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="F91" t="s">
-        <v>5</v>
+        <v>41</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -2341,19 +2352,19 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>125</v>
+        <v>31602218</v>
       </c>
       <c r="C92">
-        <v>2.798920135333743</v>
+        <v>3.0081</v>
       </c>
       <c r="D92" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E92" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F92" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -2361,19 +2372,19 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>126</v>
+        <v>31602217</v>
       </c>
       <c r="C93">
-        <v>1.619111235723206</v>
+        <v>3.170779</v>
       </c>
       <c r="D93" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E93" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F93" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -2381,19 +2392,19 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>127</v>
+        <v>31602631</v>
       </c>
       <c r="C94">
-        <v>1.963454869229708</v>
+        <v>3.607492</v>
       </c>
       <c r="D94" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E94" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F94" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -2401,19 +2412,19 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>128</v>
+        <v>31602331</v>
       </c>
       <c r="C95">
-        <v>2.692816498900916</v>
+        <v>2.419536</v>
       </c>
       <c r="D95" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E95" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F95" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -2421,19 +2432,19 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>129</v>
+        <v>31602417</v>
       </c>
       <c r="C96">
-        <v>2.844667221634672</v>
+        <v>3.349843</v>
       </c>
       <c r="D96" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E96" t="s">
-        <v>27</v>
+        <v>7</v>
       </c>
       <c r="F96" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -2441,19 +2452,19 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>130</v>
+        <v>31602246</v>
       </c>
       <c r="C97">
-        <v>2.367836716267306</v>
+        <v>2.596942</v>
       </c>
       <c r="D97" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E97" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F97" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -2461,19 +2472,19 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>31702239</v>
+        <v>31602320</v>
       </c>
       <c r="C98">
-        <v>3.2222159489834</v>
+        <v>2.368807</v>
       </c>
       <c r="D98" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E98" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F98" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -2481,19 +2492,19 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>31702241</v>
+        <v>31602323</v>
       </c>
       <c r="C99">
-        <v>3.26498104481335</v>
+        <v>2.228664</v>
       </c>
       <c r="D99" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E99" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F99" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -2501,19 +2512,19 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>31702244</v>
+        <v>131601225</v>
       </c>
       <c r="C100">
-        <v>3.30079233516377</v>
+        <v>2.417284</v>
       </c>
       <c r="D100" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E100" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F100" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -2521,19 +2532,19 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>31702251</v>
+        <v>181600112</v>
       </c>
       <c r="C101">
-        <v>3.40571990409284</v>
+        <v>3.12283</v>
       </c>
       <c r="D101" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E101" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="F101" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -2541,19 +2552,19 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>86</v>
+        <v>181600235</v>
       </c>
       <c r="C102">
-        <v>2.820683651892046</v>
+        <v>2.771154</v>
       </c>
       <c r="D102" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E102" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F102" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -2561,19 +2572,19 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>87</v>
+        <v>31502103</v>
       </c>
       <c r="C103">
-        <v>2.145790794330798</v>
+        <v>1.83858</v>
       </c>
       <c r="D103" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="E103" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F103" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -2581,19 +2592,19 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>31702234</v>
+        <v>31602530</v>
       </c>
       <c r="C104">
-        <v>3.16873043403218</v>
+        <v>2.536991</v>
       </c>
       <c r="D104" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E104" t="s">
-        <v>14</v>
+        <v>28</v>
       </c>
       <c r="F104" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -2601,39 +2612,39 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>7</v>
+        <v>31602245</v>
       </c>
       <c r="C105">
-        <v>2.652568516426567</v>
+        <v>2.663855</v>
       </c>
       <c r="D105" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E105" t="s">
-        <v>8</v>
+        <v>28</v>
       </c>
       <c r="F105" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="106" spans="1:6">
       <c r="A106" s="1">
         <v>104</v>
       </c>
-      <c r="B106">
-        <v>8</v>
-      </c>
-      <c r="C106">
-        <v>2.123016281608574</v>
+      <c r="B106" t="s">
+        <v>5</v>
+      </c>
+      <c r="C106" t="s">
+        <v>5</v>
       </c>
       <c r="D106" t="s">
-        <v>24</v>
+        <v>5</v>
       </c>
       <c r="E106" t="s">
-        <v>8</v>
+        <v>5</v>
       </c>
       <c r="F106" t="s">
-        <v>40</v>
+        <v>5</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -2641,19 +2652,19 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>9</v>
+        <v>31602105</v>
       </c>
       <c r="C107">
-        <v>2.065741377130303</v>
+        <v>3.174096</v>
       </c>
       <c r="D107" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E107" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F107" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -2661,19 +2672,19 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>10</v>
+        <v>31602228</v>
       </c>
       <c r="C108">
-        <v>1.625862928079685</v>
+        <v>2.419878</v>
       </c>
       <c r="D108" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E108" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F108" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -2681,19 +2692,19 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>11</v>
+        <v>31602412</v>
       </c>
       <c r="C109">
-        <v>2.055355941072438</v>
+        <v>2.831348</v>
       </c>
       <c r="D109" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E109" t="s">
-        <v>8</v>
+        <v>27</v>
       </c>
       <c r="F109" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="110" spans="1:6">
@@ -2701,19 +2712,19 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>31702271</v>
+        <v>81600410</v>
       </c>
       <c r="C110">
-        <v>3.91784188978937</v>
+        <v>3.025857</v>
       </c>
       <c r="D110" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="E110" t="s">
-        <v>8</v>
+        <v>36</v>
       </c>
       <c r="F110" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="111" spans="1:6">
@@ -2721,19 +2732,19 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>27</v>
+        <v>31602210</v>
       </c>
       <c r="C111">
-        <v>3.449766202113719</v>
+        <v>1.601246</v>
       </c>
       <c r="D111" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E111" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="F111" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="112" spans="1:6">
@@ -2741,19 +2752,19 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>28</v>
+        <v>31601123</v>
       </c>
       <c r="C112">
-        <v>3.432609083372502</v>
+        <v>2.726875</v>
       </c>
       <c r="D112" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E112" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F112" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="113" spans="1:6">
@@ -2761,19 +2772,19 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>31702232</v>
+        <v>31602538</v>
       </c>
       <c r="C113">
-        <v>3.15939599726126</v>
+        <v>2.018567</v>
       </c>
       <c r="D113" t="s">
-        <v>25</v>
+        <v>31</v>
       </c>
       <c r="E113" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="F113" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="114" spans="1:6">
@@ -2781,19 +2792,19 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>17</v>
+        <v>31602227</v>
       </c>
       <c r="C114">
-        <v>2.113612374706805</v>
+        <v>2.619934</v>
       </c>
       <c r="D114" t="s">
-        <v>26</v>
+        <v>32</v>
       </c>
       <c r="E114" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="F114" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="115" spans="1:6">
@@ -2801,19 +2812,19 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>18</v>
+        <v>31602203</v>
       </c>
       <c r="C115">
-        <v>2.451808157783663</v>
+        <v>3.19873</v>
       </c>
       <c r="D115" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="E115" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F115" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="116" spans="1:6">
@@ -2821,19 +2832,19 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>19</v>
+        <v>31602235</v>
       </c>
       <c r="C116">
-        <v>2.743220461821021</v>
+        <v>3.516719</v>
       </c>
       <c r="D116" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E116" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F116" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="117" spans="1:6">
@@ -2841,19 +2852,19 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>20</v>
+        <v>31602643</v>
       </c>
       <c r="C117">
-        <v>2.627162745933995</v>
+        <v>3.140683</v>
       </c>
       <c r="D117" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E117" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F117" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="118" spans="1:6">
@@ -2861,19 +2872,19 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>31702249</v>
+        <v>51601135</v>
       </c>
       <c r="C118">
-        <v>3.40040140069627</v>
+        <v>2.002564</v>
       </c>
       <c r="D118" t="s">
-        <v>26</v>
+        <v>34</v>
       </c>
       <c r="E118" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="F118" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="119" spans="1:6">
@@ -2881,19 +2892,19 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>120</v>
+        <v>31602423</v>
       </c>
       <c r="C119">
-        <v>2.705388300371382</v>
+        <v>2.736333</v>
       </c>
       <c r="D119" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E119" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F119" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="120" spans="1:6">
@@ -2901,19 +2912,19 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>121</v>
+        <v>31602328</v>
       </c>
       <c r="C120">
-        <v>2.692369881909468</v>
+        <v>2.366993</v>
       </c>
       <c r="D120" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E120" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F120" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="121" spans="1:6">
@@ -2921,19 +2932,19 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>122</v>
+        <v>31602206</v>
       </c>
       <c r="C121">
-        <v>2.716175939521333</v>
+        <v>3.307419</v>
       </c>
       <c r="D121" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E121" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F121" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="122" spans="1:6">
@@ -2941,19 +2952,19 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>123</v>
+        <v>31602315</v>
       </c>
       <c r="C122">
-        <v>2.866431125029143</v>
+        <v>3.306954</v>
       </c>
       <c r="D122" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E122" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F122" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="123" spans="1:6">
@@ -2961,19 +2972,19 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>124</v>
+        <v>31602444</v>
       </c>
       <c r="C123">
-        <v>2.367712432131705</v>
+        <v>3.673422</v>
       </c>
       <c r="D123" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E123" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F123" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="124" spans="1:6">
@@ -2981,19 +2992,19 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>31702236</v>
+        <v>31602345</v>
       </c>
       <c r="C124">
-        <v>3.1756661926346</v>
+        <v>3.846284</v>
       </c>
       <c r="D124" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E124" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F124" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="125" spans="1:6">
@@ -3001,19 +3012,19 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>31702246</v>
+        <v>31602341</v>
       </c>
       <c r="C125">
-        <v>3.38296165784306</v>
+        <v>3.918065</v>
       </c>
       <c r="D125" t="s">
-        <v>27</v>
+        <v>35</v>
       </c>
       <c r="E125" t="s">
-        <v>22</v>
+        <v>13</v>
       </c>
       <c r="F125" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="126" spans="1:6">
@@ -3021,1078 +3032,38 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>31702273</v>
+        <v>31602242</v>
       </c>
       <c r="C126">
-        <v>3.98162940328017</v>
+        <v>2.110938</v>
       </c>
       <c r="D126" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="E126" t="s">
-        <v>22</v>
+        <v>29</v>
       </c>
       <c r="F126" t="s">
-        <v>40</v>
+        <v>42</v>
       </c>
     </row>
     <row r="127" spans="1:6">
       <c r="A127" s="1">
         <v>125</v>
       </c>
-      <c r="B127">
-        <v>31702274</v>
-      </c>
-      <c r="C127">
-        <v>3.98612598493009</v>
+      <c r="B127" t="s">
+        <v>5</v>
+      </c>
+      <c r="C127" t="s">
+        <v>5</v>
       </c>
       <c r="D127" t="s">
-        <v>27</v>
+        <v>5</v>
       </c>
       <c r="E127" t="s">
-        <v>22</v>
+        <v>5</v>
       </c>
       <c r="F127" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="128" spans="1:6">
-      <c r="A128" s="1">
-        <v>126</v>
-      </c>
-      <c r="B128">
-        <v>39</v>
-      </c>
-      <c r="C128">
-        <v>2.081575477476818</v>
-      </c>
-      <c r="D128" t="s">
-        <v>28</v>
-      </c>
-      <c r="E128" t="s">
-        <v>10</v>
-      </c>
-      <c r="F128" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="129" spans="1:6">
-      <c r="A129" s="1">
-        <v>127</v>
-      </c>
-      <c r="B129">
-        <v>40</v>
-      </c>
-      <c r="C129">
-        <v>1.565198830098961</v>
-      </c>
-      <c r="D129" t="s">
-        <v>28</v>
-      </c>
-      <c r="E129" t="s">
-        <v>10</v>
-      </c>
-      <c r="F129" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="130" spans="1:6">
-      <c r="A130" s="1">
-        <v>128</v>
-      </c>
-      <c r="B130">
-        <v>41</v>
-      </c>
-      <c r="C130">
-        <v>2.795205419504038</v>
-      </c>
-      <c r="D130" t="s">
-        <v>28</v>
-      </c>
-      <c r="E130" t="s">
-        <v>10</v>
-      </c>
-      <c r="F130" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="131" spans="1:6">
-      <c r="A131" s="1">
-        <v>129</v>
-      </c>
-      <c r="B131">
-        <v>42</v>
-      </c>
-      <c r="C131">
-        <v>2.580668391278401</v>
-      </c>
-      <c r="D131" t="s">
-        <v>28</v>
-      </c>
-      <c r="E131" t="s">
-        <v>10</v>
-      </c>
-      <c r="F131" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="132" spans="1:6">
-      <c r="A132" s="1">
-        <v>130</v>
-      </c>
-      <c r="B132">
-        <v>43</v>
-      </c>
-      <c r="C132">
-        <v>2.924183544569302</v>
-      </c>
-      <c r="D132" t="s">
-        <v>28</v>
-      </c>
-      <c r="E132" t="s">
-        <v>10</v>
-      </c>
-      <c r="F132" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="133" spans="1:6">
-      <c r="A133" s="1">
-        <v>131</v>
-      </c>
-      <c r="B133">
-        <v>31702261</v>
-      </c>
-      <c r="C133">
-        <v>3.63561969604645</v>
-      </c>
-      <c r="D133" t="s">
-        <v>28</v>
-      </c>
-      <c r="E133" t="s">
-        <v>10</v>
-      </c>
-      <c r="F133" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="134" spans="1:6">
-      <c r="A134" s="1">
-        <v>132</v>
-      </c>
-      <c r="B134" t="s">
-        <v>5</v>
-      </c>
-      <c r="C134" t="s">
-        <v>5</v>
-      </c>
-      <c r="D134" t="s">
-        <v>5</v>
-      </c>
-      <c r="E134" t="s">
-        <v>5</v>
-      </c>
-      <c r="F134" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="135" spans="1:6">
-      <c r="A135" s="1">
-        <v>133</v>
-      </c>
-      <c r="B135">
-        <v>108</v>
-      </c>
-      <c r="C135">
-        <v>1.740213723073027</v>
-      </c>
-      <c r="D135" t="s">
-        <v>29</v>
-      </c>
-      <c r="E135" t="s">
-        <v>33</v>
-      </c>
-      <c r="F135" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="136" spans="1:6">
-      <c r="A136" s="1">
-        <v>134</v>
-      </c>
-      <c r="B136">
-        <v>109</v>
-      </c>
-      <c r="C136">
-        <v>1.793254415889643</v>
-      </c>
-      <c r="D136" t="s">
-        <v>29</v>
-      </c>
-      <c r="E136" t="s">
-        <v>33</v>
-      </c>
-      <c r="F136" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="137" spans="1:6">
-      <c r="A137" s="1">
-        <v>135</v>
-      </c>
-      <c r="B137">
-        <v>110</v>
-      </c>
-      <c r="C137">
-        <v>1.782849643501161</v>
-      </c>
-      <c r="D137" t="s">
-        <v>29</v>
-      </c>
-      <c r="E137" t="s">
-        <v>33</v>
-      </c>
-      <c r="F137" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="138" spans="1:6">
-      <c r="A138" s="1">
-        <v>136</v>
-      </c>
-      <c r="B138">
-        <v>31702243</v>
-      </c>
-      <c r="C138">
-        <v>3.28997914151015</v>
-      </c>
-      <c r="D138" t="s">
-        <v>29</v>
-      </c>
-      <c r="E138" t="s">
-        <v>33</v>
-      </c>
-      <c r="F138" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="139" spans="1:6">
-      <c r="A139" s="1">
-        <v>137</v>
-      </c>
-      <c r="B139">
-        <v>31702263</v>
-      </c>
-      <c r="C139">
-        <v>3.67822595491589</v>
-      </c>
-      <c r="D139" t="s">
-        <v>29</v>
-      </c>
-      <c r="E139" t="s">
-        <v>33</v>
-      </c>
-      <c r="F139" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="140" spans="1:6">
-      <c r="A140" s="1">
-        <v>138</v>
-      </c>
-      <c r="B140">
-        <v>31702268</v>
-      </c>
-      <c r="C140">
-        <v>3.85142435036607</v>
-      </c>
-      <c r="D140" t="s">
-        <v>29</v>
-      </c>
-      <c r="E140" t="s">
-        <v>33</v>
-      </c>
-      <c r="F140" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="141" spans="1:6">
-      <c r="A141" s="1">
-        <v>139</v>
-      </c>
-      <c r="B141">
-        <v>31702269</v>
-      </c>
-      <c r="C141">
-        <v>3.86674862217677</v>
-      </c>
-      <c r="D141" t="s">
-        <v>29</v>
-      </c>
-      <c r="E141" t="s">
-        <v>33</v>
-      </c>
-      <c r="F141" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="142" spans="1:6">
-      <c r="A142" s="1">
-        <v>140</v>
-      </c>
-      <c r="B142">
-        <v>21</v>
-      </c>
-      <c r="C142">
-        <v>2.553710324161354</v>
-      </c>
-      <c r="D142" t="s">
-        <v>30</v>
-      </c>
-      <c r="E142" t="s">
-        <v>35</v>
-      </c>
-      <c r="F142" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="143" spans="1:6">
-      <c r="A143" s="1">
-        <v>141</v>
-      </c>
-      <c r="B143">
-        <v>22</v>
-      </c>
-      <c r="C143">
-        <v>2.79266610320688</v>
-      </c>
-      <c r="D143" t="s">
-        <v>30</v>
-      </c>
-      <c r="E143" t="s">
-        <v>35</v>
-      </c>
-      <c r="F143" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="144" spans="1:6">
-      <c r="A144" s="1">
-        <v>142</v>
-      </c>
-      <c r="B144">
-        <v>23</v>
-      </c>
-      <c r="C144">
-        <v>2.539841652041091</v>
-      </c>
-      <c r="D144" t="s">
-        <v>30</v>
-      </c>
-      <c r="E144" t="s">
-        <v>35</v>
-      </c>
-      <c r="F144" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="145" spans="1:6">
-      <c r="A145" s="1">
-        <v>143</v>
-      </c>
-      <c r="B145">
-        <v>24</v>
-      </c>
-      <c r="C145">
-        <v>2.860697606968887</v>
-      </c>
-      <c r="D145" t="s">
-        <v>30</v>
-      </c>
-      <c r="E145" t="s">
-        <v>35</v>
-      </c>
-      <c r="F145" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="146" spans="1:6">
-      <c r="A146" s="1">
-        <v>144</v>
-      </c>
-      <c r="B146">
-        <v>25</v>
-      </c>
-      <c r="C146">
-        <v>2.555771035670722</v>
-      </c>
-      <c r="D146" t="s">
-        <v>30</v>
-      </c>
-      <c r="E146" t="s">
-        <v>35</v>
-      </c>
-      <c r="F146" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="147" spans="1:6">
-      <c r="A147" s="1">
-        <v>145</v>
-      </c>
-      <c r="B147">
-        <v>26</v>
-      </c>
-      <c r="C147">
-        <v>2.140307829499646</v>
-      </c>
-      <c r="D147" t="s">
-        <v>30</v>
-      </c>
-      <c r="E147" t="s">
-        <v>35</v>
-      </c>
-      <c r="F147" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="148" spans="1:6">
-      <c r="A148" s="1">
-        <v>146</v>
-      </c>
-      <c r="B148">
-        <v>31702247</v>
-      </c>
-      <c r="C148">
-        <v>3.39214763262705</v>
-      </c>
-      <c r="D148" t="s">
-        <v>30</v>
-      </c>
-      <c r="E148" t="s">
-        <v>35</v>
-      </c>
-      <c r="F148" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="149" spans="1:6">
-      <c r="A149" s="1">
-        <v>147</v>
-      </c>
-      <c r="B149">
-        <v>31702272</v>
-      </c>
-      <c r="C149">
-        <v>3.91893403096712</v>
-      </c>
-      <c r="D149" t="s">
-        <v>30</v>
-      </c>
-      <c r="E149" t="s">
-        <v>35</v>
-      </c>
-      <c r="F149" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="150" spans="1:6">
-      <c r="A150" s="1">
-        <v>148</v>
-      </c>
-      <c r="B150">
-        <v>49</v>
-      </c>
-      <c r="C150">
-        <v>2.3191149828032</v>
-      </c>
-      <c r="D150" t="s">
-        <v>31</v>
-      </c>
-      <c r="E150" t="s">
-        <v>18</v>
-      </c>
-      <c r="F150" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="151" spans="1:6">
-      <c r="A151" s="1">
-        <v>149</v>
-      </c>
-      <c r="B151">
-        <v>50</v>
-      </c>
-      <c r="C151">
-        <v>2.818670761045722</v>
-      </c>
-      <c r="D151" t="s">
-        <v>31</v>
-      </c>
-      <c r="E151" t="s">
-        <v>18</v>
-      </c>
-      <c r="F151" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="152" spans="1:6">
-      <c r="A152" s="1">
-        <v>150</v>
-      </c>
-      <c r="B152">
-        <v>51</v>
-      </c>
-      <c r="C152">
-        <v>2.570651964633682</v>
-      </c>
-      <c r="D152" t="s">
-        <v>31</v>
-      </c>
-      <c r="E152" t="s">
-        <v>18</v>
-      </c>
-      <c r="F152" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="153" spans="1:6">
-      <c r="A153" s="1">
-        <v>151</v>
-      </c>
-      <c r="B153">
-        <v>52</v>
-      </c>
-      <c r="C153">
-        <v>2.707293993447946</v>
-      </c>
-      <c r="D153" t="s">
-        <v>31</v>
-      </c>
-      <c r="E153" t="s">
-        <v>18</v>
-      </c>
-      <c r="F153" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="154" spans="1:6">
-      <c r="A154" s="1">
-        <v>152</v>
-      </c>
-      <c r="B154">
-        <v>103</v>
-      </c>
-      <c r="C154">
-        <v>2.529238282145507</v>
-      </c>
-      <c r="D154" t="s">
-        <v>32</v>
-      </c>
-      <c r="E154" t="s">
-        <v>11</v>
-      </c>
-      <c r="F154" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="155" spans="1:6">
-      <c r="A155" s="1">
-        <v>153</v>
-      </c>
-      <c r="B155">
-        <v>104</v>
-      </c>
-      <c r="C155">
-        <v>3.397228245868499</v>
-      </c>
-      <c r="D155" t="s">
-        <v>32</v>
-      </c>
-      <c r="E155" t="s">
-        <v>11</v>
-      </c>
-      <c r="F155" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="156" spans="1:6">
-      <c r="A156" s="1">
-        <v>154</v>
-      </c>
-      <c r="B156">
-        <v>105</v>
-      </c>
-      <c r="C156">
-        <v>2.720766470864233</v>
-      </c>
-      <c r="D156" t="s">
-        <v>32</v>
-      </c>
-      <c r="E156" t="s">
-        <v>11</v>
-      </c>
-      <c r="F156" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="157" spans="1:6">
-      <c r="A157" s="1">
-        <v>155</v>
-      </c>
-      <c r="B157">
-        <v>31702255</v>
-      </c>
-      <c r="C157">
-        <v>3.46742339464813</v>
-      </c>
-      <c r="D157" t="s">
-        <v>32</v>
-      </c>
-      <c r="E157" t="s">
-        <v>11</v>
-      </c>
-      <c r="F157" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="158" spans="1:6">
-      <c r="A158" s="1">
-        <v>156</v>
-      </c>
-      <c r="B158">
-        <v>96</v>
-      </c>
-      <c r="C158">
-        <v>2.900304011410493</v>
-      </c>
-      <c r="D158" t="s">
-        <v>33</v>
-      </c>
-      <c r="E158" t="s">
-        <v>29</v>
-      </c>
-      <c r="F158" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="159" spans="1:6">
-      <c r="A159" s="1">
-        <v>157</v>
-      </c>
-      <c r="B159">
-        <v>97</v>
-      </c>
-      <c r="C159">
-        <v>3.052459168720605</v>
-      </c>
-      <c r="D159" t="s">
-        <v>33</v>
-      </c>
-      <c r="E159" t="s">
-        <v>29</v>
-      </c>
-      <c r="F159" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="160" spans="1:6">
-      <c r="A160" s="1">
-        <v>158</v>
-      </c>
-      <c r="B160">
-        <v>98</v>
-      </c>
-      <c r="C160">
-        <v>2.618580507485278</v>
-      </c>
-      <c r="D160" t="s">
-        <v>33</v>
-      </c>
-      <c r="E160" t="s">
-        <v>29</v>
-      </c>
-      <c r="F160" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="161" spans="1:6">
-      <c r="A161" s="1">
-        <v>159</v>
-      </c>
-      <c r="B161">
-        <v>99</v>
-      </c>
-      <c r="C161">
-        <v>3.140243701322544</v>
-      </c>
-      <c r="D161" t="s">
-        <v>33</v>
-      </c>
-      <c r="E161" t="s">
-        <v>29</v>
-      </c>
-      <c r="F161" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="162" spans="1:6">
-      <c r="A162" s="1">
-        <v>160</v>
-      </c>
-      <c r="B162">
-        <v>100</v>
-      </c>
-      <c r="C162">
-        <v>2.101412579604878</v>
-      </c>
-      <c r="D162" t="s">
-        <v>33</v>
-      </c>
-      <c r="E162" t="s">
-        <v>29</v>
-      </c>
-      <c r="F162" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="163" spans="1:6">
-      <c r="A163" s="1">
-        <v>161</v>
-      </c>
-      <c r="B163">
-        <v>31702231</v>
-      </c>
-      <c r="C163">
-        <v>3.15263576285963</v>
-      </c>
-      <c r="D163" t="s">
-        <v>33</v>
-      </c>
-      <c r="E163" t="s">
-        <v>29</v>
-      </c>
-      <c r="F163" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="164" spans="1:6">
-      <c r="A164" s="1">
-        <v>162</v>
-      </c>
-      <c r="B164">
-        <v>31702265</v>
-      </c>
-      <c r="C164">
-        <v>3.76826825175564</v>
-      </c>
-      <c r="D164" t="s">
-        <v>33</v>
-      </c>
-      <c r="E164" t="s">
-        <v>29</v>
-      </c>
-      <c r="F164" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="165" spans="1:6">
-      <c r="A165" s="1">
-        <v>163</v>
-      </c>
-      <c r="B165">
-        <v>84</v>
-      </c>
-      <c r="C165">
-        <v>2.672480248567241</v>
-      </c>
-      <c r="D165" t="s">
-        <v>34</v>
-      </c>
-      <c r="E165" t="s">
-        <v>25</v>
-      </c>
-      <c r="F165" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="166" spans="1:6">
-      <c r="A166" s="1">
-        <v>164</v>
-      </c>
-      <c r="B166">
-        <v>85</v>
-      </c>
-      <c r="C166">
-        <v>3.288464718125117</v>
-      </c>
-      <c r="D166" t="s">
-        <v>34</v>
-      </c>
-      <c r="E166" t="s">
-        <v>25</v>
-      </c>
-      <c r="F166" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="167" spans="1:6">
-      <c r="A167" s="1">
-        <v>165</v>
-      </c>
-      <c r="B167">
-        <v>90</v>
-      </c>
-      <c r="C167">
-        <v>2.124212780216781</v>
-      </c>
-      <c r="D167" t="s">
-        <v>35</v>
-      </c>
-      <c r="E167" t="s">
-        <v>30</v>
-      </c>
-      <c r="F167" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="168" spans="1:6">
-      <c r="A168" s="1">
-        <v>166</v>
-      </c>
-      <c r="B168">
-        <v>91</v>
-      </c>
-      <c r="C168">
-        <v>1.561934614884561</v>
-      </c>
-      <c r="D168" t="s">
-        <v>35</v>
-      </c>
-      <c r="E168" t="s">
-        <v>30</v>
-      </c>
-      <c r="F168" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="169" spans="1:6">
-      <c r="A169" s="1">
-        <v>167</v>
-      </c>
-      <c r="B169">
-        <v>92</v>
-      </c>
-      <c r="C169">
-        <v>2.353556981486164</v>
-      </c>
-      <c r="D169" t="s">
-        <v>35</v>
-      </c>
-      <c r="E169" t="s">
-        <v>30</v>
-      </c>
-      <c r="F169" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="170" spans="1:6">
-      <c r="A170" s="1">
-        <v>168</v>
-      </c>
-      <c r="B170">
-        <v>93</v>
-      </c>
-      <c r="C170">
-        <v>2.067479167394611</v>
-      </c>
-      <c r="D170" t="s">
-        <v>35</v>
-      </c>
-      <c r="E170" t="s">
-        <v>30</v>
-      </c>
-      <c r="F170" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="171" spans="1:6">
-      <c r="A171" s="1">
-        <v>169</v>
-      </c>
-      <c r="B171">
-        <v>94</v>
-      </c>
-      <c r="C171">
-        <v>2.662716230635188</v>
-      </c>
-      <c r="D171" t="s">
-        <v>35</v>
-      </c>
-      <c r="E171" t="s">
-        <v>30</v>
-      </c>
-      <c r="F171" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="172" spans="1:6">
-      <c r="A172" s="1">
-        <v>170</v>
-      </c>
-      <c r="B172">
-        <v>95</v>
-      </c>
-      <c r="C172">
-        <v>3.011140123648089</v>
-      </c>
-      <c r="D172" t="s">
-        <v>35</v>
-      </c>
-      <c r="E172" t="s">
-        <v>30</v>
-      </c>
-      <c r="F172" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="173" spans="1:6">
-      <c r="A173" s="1">
-        <v>171</v>
-      </c>
-      <c r="B173">
-        <v>31702233</v>
-      </c>
-      <c r="C173">
-        <v>3.16654034804069</v>
-      </c>
-      <c r="D173" t="s">
-        <v>35</v>
-      </c>
-      <c r="E173" t="s">
-        <v>30</v>
-      </c>
-      <c r="F173" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="174" spans="1:6">
-      <c r="A174" s="1">
-        <v>172</v>
-      </c>
-      <c r="B174">
-        <v>31702252</v>
-      </c>
-      <c r="C174">
-        <v>3.44075692589713</v>
-      </c>
-      <c r="D174" t="s">
-        <v>35</v>
-      </c>
-      <c r="E174" t="s">
-        <v>30</v>
-      </c>
-      <c r="F174" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="175" spans="1:6">
-      <c r="A175" s="1">
-        <v>173</v>
-      </c>
-      <c r="B175">
-        <v>76</v>
-      </c>
-      <c r="C175">
-        <v>2.059240249724528</v>
-      </c>
-      <c r="D175" t="s">
-        <v>36</v>
-      </c>
-      <c r="E175" t="s">
-        <v>37</v>
-      </c>
-      <c r="F175" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="176" spans="1:6">
-      <c r="A176" s="1">
-        <v>174</v>
-      </c>
-      <c r="B176">
-        <v>77</v>
-      </c>
-      <c r="C176">
-        <v>2.227541396646287</v>
-      </c>
-      <c r="D176" t="s">
-        <v>36</v>
-      </c>
-      <c r="E176" t="s">
-        <v>37</v>
-      </c>
-      <c r="F176" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="177" spans="1:6">
-      <c r="A177" s="1">
-        <v>175</v>
-      </c>
-      <c r="B177">
-        <v>32</v>
-      </c>
-      <c r="C177">
-        <v>2.767397903069535</v>
-      </c>
-      <c r="D177" t="s">
-        <v>37</v>
-      </c>
-      <c r="E177" t="s">
-        <v>36</v>
-      </c>
-      <c r="F177" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="178" spans="1:6">
-      <c r="A178" s="1">
-        <v>176</v>
-      </c>
-      <c r="B178">
-        <v>33</v>
-      </c>
-      <c r="C178">
-        <v>2.286249773875225</v>
-      </c>
-      <c r="D178" t="s">
-        <v>37</v>
-      </c>
-      <c r="E178" t="s">
-        <v>36</v>
-      </c>
-      <c r="F178" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="179" spans="1:6">
-      <c r="A179" s="1">
-        <v>177</v>
-      </c>
-      <c r="B179" t="s">
-        <v>5</v>
-      </c>
-      <c r="C179" t="s">
-        <v>5</v>
-      </c>
-      <c r="D179" t="s">
-        <v>5</v>
-      </c>
-      <c r="E179" t="s">
-        <v>5</v>
-      </c>
-      <c r="F179" t="s">
         <v>5</v>
       </c>
     </row>

--- a/output/GA_MUresult.xlsx
+++ b/output/GA_MUresult.xlsx
@@ -34,138 +34,138 @@
     <t xml:space="preserve"> </t>
   </si>
   <si>
+    <t>朱丹红</t>
+  </si>
+  <si>
+    <t>陈勃</t>
+  </si>
+  <si>
+    <t>余春艳</t>
+  </si>
+  <si>
+    <t>吴英杰</t>
+  </si>
+  <si>
+    <t>刘文犀</t>
+  </si>
+  <si>
+    <t>陈昭炯</t>
+  </si>
+  <si>
+    <t>牛玉贞</t>
+  </si>
+  <si>
     <t>吴运兵</t>
   </si>
   <si>
+    <t>叶菁</t>
+  </si>
+  <si>
+    <t>郭昆</t>
+  </si>
+  <si>
+    <t>于志敏</t>
+  </si>
+  <si>
+    <t>张栋</t>
+  </si>
+  <si>
+    <t>苏雅茹</t>
+  </si>
+  <si>
+    <t>谢伙生</t>
+  </si>
+  <si>
+    <t>白清源</t>
+  </si>
+  <si>
+    <t>谢丽聪</t>
+  </si>
+  <si>
+    <t>程永利</t>
+  </si>
+  <si>
+    <t>王秀</t>
+  </si>
+  <si>
+    <t>余小燕</t>
+  </si>
+  <si>
+    <t>傅仰耿</t>
+  </si>
+  <si>
+    <t>王一蕾</t>
+  </si>
+  <si>
+    <t>阮一文</t>
+  </si>
+  <si>
+    <t>柯逍</t>
+  </si>
+  <si>
+    <t>叶东毅</t>
+  </si>
+  <si>
+    <t>何振峰</t>
+  </si>
+  <si>
+    <t>韩晓芸</t>
+  </si>
+  <si>
+    <t>孙岚</t>
+  </si>
+  <si>
+    <t>林秋月</t>
+  </si>
+  <si>
+    <t>郭龙坤</t>
+  </si>
+  <si>
     <t>于元隆</t>
   </si>
   <si>
-    <t>余春艳</t>
-  </si>
-  <si>
-    <t>傅仰耿</t>
-  </si>
-  <si>
-    <t>陈昭炯</t>
-  </si>
-  <si>
-    <t>吴英杰</t>
-  </si>
-  <si>
-    <t>林秋月</t>
-  </si>
-  <si>
-    <t>郭昆</t>
-  </si>
-  <si>
-    <t>郭龙坤</t>
-  </si>
-  <si>
-    <t>王一蕾</t>
-  </si>
-  <si>
-    <t>谢伙生</t>
-  </si>
-  <si>
-    <t>王秀</t>
-  </si>
-  <si>
-    <t>张栋</t>
-  </si>
-  <si>
-    <t>刘文犀</t>
-  </si>
-  <si>
-    <t>苏雅茹</t>
-  </si>
-  <si>
-    <t>谢丽聪</t>
-  </si>
-  <si>
-    <t>叶东毅</t>
-  </si>
-  <si>
-    <t>牛玉贞</t>
-  </si>
-  <si>
-    <t>白清源</t>
-  </si>
-  <si>
-    <t>何振峰</t>
-  </si>
-  <si>
-    <t>阮一文</t>
-  </si>
-  <si>
-    <t>叶菁</t>
-  </si>
-  <si>
-    <t>陈勃</t>
-  </si>
-  <si>
     <t>陈欢</t>
   </si>
   <si>
-    <t>程永利</t>
-  </si>
-  <si>
-    <t>于志敏</t>
-  </si>
-  <si>
-    <t>余小燕</t>
-  </si>
-  <si>
-    <t>朱丹红</t>
-  </si>
-  <si>
-    <t>孙岚</t>
-  </si>
-  <si>
-    <t>柯逍</t>
-  </si>
-  <si>
-    <t>韩晓芸</t>
-  </si>
-  <si>
-    <t xml:space="preserve">叶东毅,
+    <t xml:space="preserve">叶菁,
+陈昭炯,
+郭龙坤,
+张栋,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">何振峰,
+叶东毅,
+陈勃,
+柯逍,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">程永利,
+刘文犀,
+傅仰耿,
+余小燕,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">于志敏,
+王一蕾,
+朱丹红,
+谢伙生,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">林秋月,
+郭昆,
+吴运兵,
+牛玉贞,
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">谢丽聪,
+阮一文,
+吴英杰,
 白清源,
-谢伙生,
-王一蕾,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">阮一文,
-柯逍,
-余春艳,
-朱丹红,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">傅仰耿,
-苏雅茹,
-余小燕,
-吴英杰,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">张栋,
-孙岚,
-吴运兵,
-陈昭炯,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">于元隆,
-林秋月,
-陈勃,
-郭龙坤,
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">叶菁,
-谢丽聪,
-郭昆,
-王秀,
 </t>
   </si>
 </sst>
@@ -552,16 +552,16 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>31602624</v>
+        <v>31602203</v>
       </c>
       <c r="C2">
-        <v>2.097476</v>
+        <v>3.19873</v>
       </c>
       <c r="D2" t="s">
         <v>6</v>
       </c>
       <c r="E2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="F2" t="s">
         <v>37</v>
@@ -572,16 +572,16 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>31602442</v>
+        <v>31602105</v>
       </c>
       <c r="C3">
-        <v>2.022961</v>
+        <v>3.174096</v>
       </c>
       <c r="D3" t="s">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="E3" t="s">
-        <v>22</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
         <v>37</v>
@@ -592,16 +592,16 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>31602137</v>
+        <v>31602228</v>
       </c>
       <c r="C4">
-        <v>3.312752</v>
+        <v>2.419878</v>
       </c>
       <c r="D4" t="s">
         <v>7</v>
       </c>
       <c r="E4" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F4" t="s">
         <v>37</v>
@@ -612,16 +612,16 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>81600143</v>
+        <v>31602412</v>
       </c>
       <c r="C5">
-        <v>3.859539</v>
+        <v>2.831348</v>
       </c>
       <c r="D5" t="s">
         <v>7</v>
       </c>
       <c r="E5" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="F5" t="s">
         <v>37</v>
@@ -632,16 +632,16 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>31602402</v>
+        <v>31602437</v>
       </c>
       <c r="C6">
-        <v>2.952145</v>
+        <v>2.188328</v>
       </c>
       <c r="D6" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E6" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F6" t="s">
         <v>37</v>
@@ -652,16 +652,16 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>31602131</v>
+        <v>31602531</v>
       </c>
       <c r="C7">
-        <v>3.456209</v>
+        <v>2.150459</v>
       </c>
       <c r="D7" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E7" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F7" t="s">
         <v>37</v>
@@ -672,16 +672,16 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>31602431</v>
+        <v>131601154</v>
       </c>
       <c r="C8">
-        <v>3.644408</v>
+        <v>2.563192</v>
       </c>
       <c r="D8" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="E8" t="s">
-        <v>24</v>
+        <v>11</v>
       </c>
       <c r="F8" t="s">
         <v>37</v>
@@ -692,16 +692,16 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>31602140</v>
+        <v>31602421</v>
       </c>
       <c r="C9">
-        <v>3.172871</v>
+        <v>3.062712</v>
       </c>
       <c r="D9" t="s">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>24</v>
+        <v>34</v>
       </c>
       <c r="F9" t="s">
         <v>37</v>
@@ -712,16 +712,16 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>31602437</v>
+        <v>81600107</v>
       </c>
       <c r="C10">
-        <v>2.188328</v>
+        <v>3.823843</v>
       </c>
       <c r="D10" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F10" t="s">
         <v>37</v>
@@ -732,16 +732,16 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>31602531</v>
+        <v>31602128</v>
       </c>
       <c r="C11">
-        <v>2.150459</v>
+        <v>3.233677</v>
       </c>
       <c r="D11" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E11" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F11" t="s">
         <v>37</v>
@@ -752,16 +752,16 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>131601154</v>
+        <v>31602333</v>
       </c>
       <c r="C12">
-        <v>2.563192</v>
+        <v>2.112805</v>
       </c>
       <c r="D12" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="E12" t="s">
-        <v>10</v>
+        <v>34</v>
       </c>
       <c r="F12" t="s">
         <v>37</v>
@@ -772,16 +772,16 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>31502607</v>
+        <v>31602506</v>
       </c>
       <c r="C13">
-        <v>3.796564</v>
+        <v>3.457333</v>
       </c>
       <c r="D13" t="s">
         <v>9</v>
       </c>
       <c r="E13" t="s">
-        <v>16</v>
+        <v>34</v>
       </c>
       <c r="F13" t="s">
         <v>37</v>
@@ -792,16 +792,16 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>31601124</v>
+        <v>31602630</v>
       </c>
       <c r="C14">
-        <v>2.956563</v>
+        <v>3.517685</v>
       </c>
       <c r="D14" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E14" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F14" t="s">
         <v>37</v>
@@ -812,16 +812,16 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>31602201</v>
+        <v>31602502</v>
       </c>
       <c r="C15">
-        <v>4.000683</v>
+        <v>3.674751</v>
       </c>
       <c r="D15" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F15" t="s">
         <v>37</v>
@@ -832,16 +832,16 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>31602204</v>
+        <v>31602541</v>
       </c>
       <c r="C16">
-        <v>3.411613</v>
+        <v>3.17476</v>
       </c>
       <c r="D16" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E16" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F16" t="s">
         <v>37</v>
@@ -852,16 +852,16 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>31602312</v>
+        <v>31602620</v>
       </c>
       <c r="C17">
-        <v>3.003754</v>
+        <v>3.603909</v>
       </c>
       <c r="D17" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="F17" t="s">
         <v>37</v>
@@ -872,16 +872,16 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>31602619</v>
+        <v>51501124</v>
       </c>
       <c r="C18">
-        <v>2.067398</v>
+        <v>2.790032</v>
       </c>
       <c r="D18" t="s">
         <v>10</v>
       </c>
       <c r="E18" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F18" t="s">
         <v>37</v>
@@ -892,16 +892,16 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>31602307</v>
+        <v>31502531</v>
       </c>
       <c r="C19">
-        <v>3.200631</v>
+        <v>2.636977</v>
       </c>
       <c r="D19" t="s">
         <v>10</v>
       </c>
       <c r="E19" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F19" t="s">
         <v>37</v>
@@ -912,16 +912,16 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>31602532</v>
+        <v>31602501</v>
       </c>
       <c r="C20">
-        <v>1.861677</v>
+        <v>3.517799</v>
       </c>
       <c r="D20" t="s">
         <v>10</v>
       </c>
       <c r="E20" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F20" t="s">
         <v>37</v>
@@ -932,16 +932,16 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>31602405</v>
+        <v>131601249</v>
       </c>
       <c r="C21">
-        <v>2.866559</v>
+        <v>3.25768</v>
       </c>
       <c r="D21" t="s">
         <v>10</v>
       </c>
       <c r="E21" t="s">
-        <v>8</v>
+        <v>17</v>
       </c>
       <c r="F21" t="s">
         <v>37</v>
@@ -972,16 +972,16 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>31602421</v>
+        <v>31602619</v>
       </c>
       <c r="C23">
-        <v>3.062712</v>
+        <v>2.067398</v>
       </c>
       <c r="D23" t="s">
         <v>11</v>
       </c>
       <c r="E23" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F23" t="s">
         <v>38</v>
@@ -992,16 +992,16 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>81600107</v>
+        <v>31602307</v>
       </c>
       <c r="C24">
-        <v>3.823843</v>
+        <v>3.200631</v>
       </c>
       <c r="D24" t="s">
         <v>11</v>
       </c>
       <c r="E24" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F24" t="s">
         <v>38</v>
@@ -1012,16 +1012,16 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>31602128</v>
+        <v>31602532</v>
       </c>
       <c r="C25">
-        <v>3.233677</v>
+        <v>1.861677</v>
       </c>
       <c r="D25" t="s">
         <v>11</v>
       </c>
       <c r="E25" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F25" t="s">
         <v>38</v>
@@ -1032,16 +1032,16 @@
         <v>24</v>
       </c>
       <c r="B26">
-        <v>31602333</v>
+        <v>31602405</v>
       </c>
       <c r="C26">
-        <v>2.112805</v>
+        <v>2.866559</v>
       </c>
       <c r="D26" t="s">
         <v>11</v>
       </c>
       <c r="E26" t="s">
-        <v>14</v>
+        <v>8</v>
       </c>
       <c r="F26" t="s">
         <v>38</v>
@@ -1052,16 +1052,16 @@
         <v>25</v>
       </c>
       <c r="B27">
-        <v>31602506</v>
+        <v>31602147</v>
       </c>
       <c r="C27">
-        <v>3.457333</v>
+        <v>3.61732</v>
       </c>
       <c r="D27" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" t="s">
-        <v>14</v>
+        <v>30</v>
       </c>
       <c r="F27" t="s">
         <v>38</v>
@@ -1072,16 +1072,16 @@
         <v>26</v>
       </c>
       <c r="B28">
-        <v>31602427</v>
+        <v>31602148</v>
       </c>
       <c r="C28">
-        <v>2.418868</v>
+        <v>3.602326</v>
       </c>
       <c r="D28" t="s">
         <v>12</v>
       </c>
       <c r="E28" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F28" t="s">
         <v>38</v>
@@ -1092,16 +1092,16 @@
         <v>27</v>
       </c>
       <c r="B29">
-        <v>31602403</v>
+        <v>81600144</v>
       </c>
       <c r="C29">
-        <v>2.404389</v>
+        <v>3.190164</v>
       </c>
       <c r="D29" t="s">
         <v>12</v>
       </c>
       <c r="E29" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="F29" t="s">
         <v>38</v>
@@ -1112,16 +1112,16 @@
         <v>28</v>
       </c>
       <c r="B30">
-        <v>41602204</v>
+        <v>31602114</v>
       </c>
       <c r="C30">
-        <v>3.164865</v>
+        <v>3.257516</v>
       </c>
       <c r="D30" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E30" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F30" t="s">
         <v>38</v>
@@ -1132,16 +1132,16 @@
         <v>29</v>
       </c>
       <c r="B31">
-        <v>41602630</v>
+        <v>51601414</v>
       </c>
       <c r="C31">
-        <v>3.369014</v>
+        <v>2.719745</v>
       </c>
       <c r="D31" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E31" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F31" t="s">
         <v>38</v>
@@ -1152,16 +1152,16 @@
         <v>30</v>
       </c>
       <c r="B32">
-        <v>31602146</v>
+        <v>31602624</v>
       </c>
       <c r="C32">
-        <v>3.780795</v>
+        <v>2.097476</v>
       </c>
       <c r="D32" t="s">
         <v>13</v>
       </c>
       <c r="E32" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F32" t="s">
         <v>38</v>
@@ -1172,16 +1172,16 @@
         <v>31</v>
       </c>
       <c r="B33">
-        <v>31601232</v>
+        <v>31602442</v>
       </c>
       <c r="C33">
-        <v>3.789667</v>
+        <v>2.022961</v>
       </c>
       <c r="D33" t="s">
         <v>13</v>
       </c>
       <c r="E33" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="F33" t="s">
         <v>38</v>
@@ -1192,16 +1192,16 @@
         <v>32</v>
       </c>
       <c r="B34">
-        <v>31602511</v>
+        <v>31602530</v>
       </c>
       <c r="C34">
-        <v>3.124063</v>
+        <v>2.536991</v>
       </c>
       <c r="D34" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E34" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F34" t="s">
         <v>38</v>
@@ -1212,16 +1212,16 @@
         <v>33</v>
       </c>
       <c r="B35">
-        <v>31602144</v>
+        <v>31602245</v>
       </c>
       <c r="C35">
-        <v>2.550789</v>
+        <v>2.663855</v>
       </c>
       <c r="D35" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E35" t="s">
-        <v>35</v>
+        <v>7</v>
       </c>
       <c r="F35" t="s">
         <v>38</v>
@@ -1232,16 +1232,16 @@
         <v>34</v>
       </c>
       <c r="B36">
-        <v>31602248</v>
+        <v>41602204</v>
       </c>
       <c r="C36">
-        <v>2.463057</v>
+        <v>3.164865</v>
       </c>
       <c r="D36" t="s">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="E36" t="s">
-        <v>35</v>
+        <v>28</v>
       </c>
       <c r="F36" t="s">
         <v>38</v>
@@ -1252,16 +1252,16 @@
         <v>35</v>
       </c>
       <c r="B37">
-        <v>31602425</v>
+        <v>41602630</v>
       </c>
       <c r="C37">
-        <v>2.561875</v>
+        <v>3.369014</v>
       </c>
       <c r="D37" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E37" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F37" t="s">
         <v>38</v>
@@ -1272,16 +1272,16 @@
         <v>36</v>
       </c>
       <c r="B38">
-        <v>31602415</v>
+        <v>31602146</v>
       </c>
       <c r="C38">
-        <v>3.616294</v>
+        <v>3.780795</v>
       </c>
       <c r="D38" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E38" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F38" t="s">
         <v>38</v>
@@ -1292,16 +1292,16 @@
         <v>37</v>
       </c>
       <c r="B39">
-        <v>31602332</v>
+        <v>31601232</v>
       </c>
       <c r="C39">
-        <v>2.49373</v>
+        <v>3.789667</v>
       </c>
       <c r="D39" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E39" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F39" t="s">
         <v>38</v>
@@ -1312,16 +1312,16 @@
         <v>38</v>
       </c>
       <c r="B40">
-        <v>31602247</v>
+        <v>31602511</v>
       </c>
       <c r="C40">
-        <v>3.279655</v>
+        <v>3.124063</v>
       </c>
       <c r="D40" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E40" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F40" t="s">
         <v>38</v>
@@ -1332,16 +1332,16 @@
         <v>39</v>
       </c>
       <c r="B41">
-        <v>41602209</v>
+        <v>31602144</v>
       </c>
       <c r="C41">
-        <v>2.851827</v>
+        <v>2.550789</v>
       </c>
       <c r="D41" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E41" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F41" t="s">
         <v>38</v>
@@ -1352,16 +1352,16 @@
         <v>40</v>
       </c>
       <c r="B42">
-        <v>31602136</v>
+        <v>31602248</v>
       </c>
       <c r="C42">
-        <v>2.599676</v>
+        <v>2.463057</v>
       </c>
       <c r="D42" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E42" t="s">
-        <v>11</v>
+        <v>28</v>
       </c>
       <c r="F42" t="s">
         <v>38</v>
@@ -1392,16 +1392,16 @@
         <v>42</v>
       </c>
       <c r="B44">
-        <v>31602606</v>
+        <v>31602538</v>
       </c>
       <c r="C44">
-        <v>2.883912</v>
+        <v>2.018567</v>
       </c>
       <c r="D44" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="E44" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="F44" t="s">
         <v>39</v>
@@ -1412,16 +1412,16 @@
         <v>43</v>
       </c>
       <c r="B45">
-        <v>31602608</v>
+        <v>31502301</v>
       </c>
       <c r="C45">
-        <v>2.200322</v>
+        <v>2.48065</v>
       </c>
       <c r="D45" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E45" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F45" t="s">
         <v>39</v>
@@ -1432,16 +1432,16 @@
         <v>44</v>
       </c>
       <c r="B46">
-        <v>31602605</v>
+        <v>31602327</v>
       </c>
       <c r="C46">
-        <v>3.349667</v>
+        <v>1.856677</v>
       </c>
       <c r="D46" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E46" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F46" t="s">
         <v>39</v>
@@ -1452,16 +1452,16 @@
         <v>45</v>
       </c>
       <c r="B47">
-        <v>31602636</v>
+        <v>31602326</v>
       </c>
       <c r="C47">
-        <v>3.351104</v>
+        <v>2.217325</v>
       </c>
       <c r="D47" t="s">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="E47" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="F47" t="s">
         <v>39</v>
@@ -1472,16 +1472,16 @@
         <v>46</v>
       </c>
       <c r="B48">
-        <v>31602309</v>
+        <v>31602544</v>
       </c>
       <c r="C48">
-        <v>3.175478</v>
+        <v>3.105643</v>
       </c>
       <c r="D48" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E48" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F48" t="s">
         <v>39</v>
@@ -1492,16 +1492,16 @@
         <v>47</v>
       </c>
       <c r="B49">
-        <v>31602205</v>
+        <v>111500206</v>
       </c>
       <c r="C49">
-        <v>3.394953</v>
+        <v>2.942384</v>
       </c>
       <c r="D49" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E49" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F49" t="s">
         <v>39</v>
@@ -1512,16 +1512,16 @@
         <v>48</v>
       </c>
       <c r="B50">
-        <v>31602527</v>
+        <v>31602543</v>
       </c>
       <c r="C50">
-        <v>3.507237</v>
+        <v>3.016835</v>
       </c>
       <c r="D50" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E50" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F50" t="s">
         <v>39</v>
@@ -1532,16 +1532,16 @@
         <v>49</v>
       </c>
       <c r="B51">
-        <v>31602143</v>
+        <v>31602523</v>
       </c>
       <c r="C51">
-        <v>3.367846</v>
+        <v>3.892233</v>
       </c>
       <c r="D51" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E51" t="s">
-        <v>9</v>
+        <v>18</v>
       </c>
       <c r="F51" t="s">
         <v>39</v>
@@ -1552,16 +1552,16 @@
         <v>50</v>
       </c>
       <c r="B52">
-        <v>31602642</v>
+        <v>31602507</v>
       </c>
       <c r="C52">
-        <v>2.539498</v>
+        <v>3.730645</v>
       </c>
       <c r="D52" t="s">
         <v>17</v>
       </c>
       <c r="E52" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="F52" t="s">
         <v>39</v>
@@ -1572,16 +1572,16 @@
         <v>51</v>
       </c>
       <c r="B53">
-        <v>31602310</v>
+        <v>31602406</v>
       </c>
       <c r="C53">
-        <v>2.176687</v>
+        <v>3.157333</v>
       </c>
       <c r="D53" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E53" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F53" t="s">
         <v>39</v>
@@ -1592,16 +1592,16 @@
         <v>52</v>
       </c>
       <c r="B54">
-        <v>31602512</v>
+        <v>31602438</v>
       </c>
       <c r="C54">
-        <v>2.435347</v>
+        <v>2.525974</v>
       </c>
       <c r="D54" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E54" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F54" t="s">
         <v>39</v>
@@ -1612,16 +1612,16 @@
         <v>53</v>
       </c>
       <c r="B55">
-        <v>31602607</v>
+        <v>31602634</v>
       </c>
       <c r="C55">
-        <v>2.646885</v>
+        <v>2.873377</v>
       </c>
       <c r="D55" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="E55" t="s">
-        <v>15</v>
+        <v>10</v>
       </c>
       <c r="F55" t="s">
         <v>39</v>
@@ -1632,16 +1632,16 @@
         <v>54</v>
       </c>
       <c r="B56">
-        <v>31502301</v>
+        <v>31602209</v>
       </c>
       <c r="C56">
-        <v>2.48065</v>
+        <v>2.429217</v>
       </c>
       <c r="D56" t="s">
         <v>18</v>
       </c>
       <c r="E56" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F56" t="s">
         <v>39</v>
@@ -1652,16 +1652,16 @@
         <v>55</v>
       </c>
       <c r="B57">
-        <v>31602327</v>
+        <v>31602611</v>
       </c>
       <c r="C57">
-        <v>1.856677</v>
+        <v>2.831642</v>
       </c>
       <c r="D57" t="s">
         <v>18</v>
       </c>
       <c r="E57" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F57" t="s">
         <v>39</v>
@@ -1672,16 +1672,16 @@
         <v>56</v>
       </c>
       <c r="B58">
-        <v>31602326</v>
+        <v>31602610</v>
       </c>
       <c r="C58">
-        <v>2.217325</v>
+        <v>3.023659</v>
       </c>
       <c r="D58" t="s">
         <v>18</v>
       </c>
       <c r="E58" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F58" t="s">
         <v>39</v>
@@ -1692,16 +1692,16 @@
         <v>57</v>
       </c>
       <c r="B59">
-        <v>31602544</v>
+        <v>31602113</v>
       </c>
       <c r="C59">
-        <v>3.105643</v>
+        <v>2.24183</v>
       </c>
       <c r="D59" t="s">
         <v>18</v>
       </c>
       <c r="E59" t="s">
-        <v>20</v>
+        <v>10</v>
       </c>
       <c r="F59" t="s">
         <v>39</v>
@@ -1712,16 +1712,16 @@
         <v>58</v>
       </c>
       <c r="B60">
-        <v>111500206</v>
+        <v>31602309</v>
       </c>
       <c r="C60">
-        <v>2.942384</v>
+        <v>3.175478</v>
       </c>
       <c r="D60" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E60" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F60" t="s">
         <v>39</v>
@@ -1732,16 +1732,16 @@
         <v>59</v>
       </c>
       <c r="B61">
-        <v>31602543</v>
+        <v>31602205</v>
       </c>
       <c r="C61">
-        <v>3.016835</v>
+        <v>3.394953</v>
       </c>
       <c r="D61" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E61" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F61" t="s">
         <v>39</v>
@@ -1752,16 +1752,16 @@
         <v>60</v>
       </c>
       <c r="B62">
-        <v>31602523</v>
+        <v>31602527</v>
       </c>
       <c r="C62">
-        <v>3.892233</v>
+        <v>3.507237</v>
       </c>
       <c r="D62" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E62" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F62" t="s">
         <v>39</v>
@@ -1772,16 +1772,16 @@
         <v>61</v>
       </c>
       <c r="B63">
-        <v>31602507</v>
+        <v>31602143</v>
       </c>
       <c r="C63">
-        <v>3.730645</v>
+        <v>3.367846</v>
       </c>
       <c r="D63" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E63" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="F63" t="s">
         <v>39</v>
@@ -1812,16 +1812,16 @@
         <v>63</v>
       </c>
       <c r="B65">
-        <v>31602630</v>
+        <v>31602404</v>
       </c>
       <c r="C65">
-        <v>3.517685</v>
+        <v>3.111726</v>
       </c>
       <c r="D65" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E65" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F65" t="s">
         <v>40</v>
@@ -1832,16 +1832,16 @@
         <v>64</v>
       </c>
       <c r="B66">
-        <v>31602502</v>
+        <v>31602218</v>
       </c>
       <c r="C66">
-        <v>3.674751</v>
+        <v>3.0081</v>
       </c>
       <c r="D66" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E66" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F66" t="s">
         <v>40</v>
@@ -1852,16 +1852,16 @@
         <v>65</v>
       </c>
       <c r="B67">
-        <v>31602541</v>
+        <v>31602217</v>
       </c>
       <c r="C67">
-        <v>3.17476</v>
+        <v>3.170779</v>
       </c>
       <c r="D67" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E67" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F67" t="s">
         <v>40</v>
@@ -1872,16 +1872,16 @@
         <v>66</v>
       </c>
       <c r="B68">
-        <v>31602620</v>
+        <v>31602631</v>
       </c>
       <c r="C68">
-        <v>3.603909</v>
+        <v>3.607492</v>
       </c>
       <c r="D68" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E68" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F68" t="s">
         <v>40</v>
@@ -1892,16 +1892,16 @@
         <v>67</v>
       </c>
       <c r="B69">
-        <v>51501124</v>
+        <v>31602331</v>
       </c>
       <c r="C69">
-        <v>2.790032</v>
+        <v>2.419536</v>
       </c>
       <c r="D69" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E69" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F69" t="s">
         <v>40</v>
@@ -1912,16 +1912,16 @@
         <v>68</v>
       </c>
       <c r="B70">
-        <v>31502531</v>
+        <v>31602417</v>
       </c>
       <c r="C70">
-        <v>2.636977</v>
+        <v>3.349843</v>
       </c>
       <c r="D70" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="E70" t="s">
-        <v>18</v>
+        <v>35</v>
       </c>
       <c r="F70" t="s">
         <v>40</v>
@@ -1932,16 +1932,16 @@
         <v>69</v>
       </c>
       <c r="B71">
-        <v>31602501</v>
+        <v>31602115</v>
       </c>
       <c r="C71">
-        <v>3.517799</v>
+        <v>1.957941</v>
       </c>
       <c r="D71" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E71" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F71" t="s">
         <v>40</v>
@@ -1952,16 +1952,16 @@
         <v>70</v>
       </c>
       <c r="B72">
-        <v>131601249</v>
+        <v>31602302</v>
       </c>
       <c r="C72">
-        <v>3.25768</v>
+        <v>2.223476</v>
       </c>
       <c r="D72" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="E72" t="s">
-        <v>18</v>
+        <v>32</v>
       </c>
       <c r="F72" t="s">
         <v>40</v>
@@ -1972,16 +1972,16 @@
         <v>71</v>
       </c>
       <c r="B73">
-        <v>31602406</v>
+        <v>31602303</v>
       </c>
       <c r="C73">
-        <v>3.157333</v>
+        <v>2.004438</v>
       </c>
       <c r="D73" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>19</v>
+        <v>32</v>
       </c>
       <c r="F73" t="s">
         <v>40</v>
@@ -1992,16 +1992,16 @@
         <v>72</v>
       </c>
       <c r="B74">
-        <v>31602438</v>
+        <v>31601123</v>
       </c>
       <c r="C74">
-        <v>2.525974</v>
+        <v>2.726875</v>
       </c>
       <c r="D74" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E74" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F74" t="s">
         <v>40</v>
@@ -2012,16 +2012,16 @@
         <v>73</v>
       </c>
       <c r="B75">
-        <v>31602634</v>
+        <v>31602642</v>
       </c>
       <c r="C75">
-        <v>2.873377</v>
+        <v>2.539498</v>
       </c>
       <c r="D75" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E75" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F75" t="s">
         <v>40</v>
@@ -2032,16 +2032,16 @@
         <v>74</v>
       </c>
       <c r="B76">
-        <v>31602209</v>
+        <v>31602310</v>
       </c>
       <c r="C76">
-        <v>2.429217</v>
+        <v>2.176687</v>
       </c>
       <c r="D76" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E76" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F76" t="s">
         <v>40</v>
@@ -2052,16 +2052,16 @@
         <v>75</v>
       </c>
       <c r="B77">
-        <v>31602611</v>
+        <v>31602512</v>
       </c>
       <c r="C77">
-        <v>2.831642</v>
+        <v>2.435347</v>
       </c>
       <c r="D77" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E77" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F77" t="s">
         <v>40</v>
@@ -2072,16 +2072,16 @@
         <v>76</v>
       </c>
       <c r="B78">
-        <v>31602610</v>
+        <v>31602607</v>
       </c>
       <c r="C78">
-        <v>3.023659</v>
+        <v>2.646885</v>
       </c>
       <c r="D78" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
       <c r="E78" t="s">
-        <v>19</v>
+        <v>26</v>
       </c>
       <c r="F78" t="s">
         <v>40</v>
@@ -2092,16 +2092,16 @@
         <v>77</v>
       </c>
       <c r="B79">
-        <v>31602113</v>
+        <v>31602227</v>
       </c>
       <c r="C79">
-        <v>2.24183</v>
+        <v>2.619934</v>
       </c>
       <c r="D79" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E79" t="s">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="F79" t="s">
         <v>40</v>
@@ -2112,16 +2112,16 @@
         <v>78</v>
       </c>
       <c r="B80">
-        <v>31602115</v>
+        <v>31502607</v>
       </c>
       <c r="C80">
-        <v>1.957941</v>
+        <v>3.796564</v>
       </c>
       <c r="D80" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E80" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F80" t="s">
         <v>40</v>
@@ -2132,16 +2132,16 @@
         <v>79</v>
       </c>
       <c r="B81">
-        <v>31602302</v>
+        <v>31601124</v>
       </c>
       <c r="C81">
-        <v>2.223476</v>
+        <v>2.956563</v>
       </c>
       <c r="D81" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E81" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F81" t="s">
         <v>40</v>
@@ -2152,16 +2152,16 @@
         <v>80</v>
       </c>
       <c r="B82">
-        <v>31602303</v>
+        <v>31602201</v>
       </c>
       <c r="C82">
-        <v>2.004438</v>
+        <v>4.000683</v>
       </c>
       <c r="D82" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E82" t="s">
-        <v>34</v>
+        <v>19</v>
       </c>
       <c r="F82" t="s">
         <v>40</v>
@@ -2172,16 +2172,16 @@
         <v>81</v>
       </c>
       <c r="B83">
-        <v>31602505</v>
+        <v>31602204</v>
       </c>
       <c r="C83">
-        <v>3.393189</v>
+        <v>3.411613</v>
       </c>
       <c r="D83" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E83" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F83" t="s">
         <v>40</v>
@@ -2192,16 +2192,16 @@
         <v>82</v>
       </c>
       <c r="B84">
-        <v>111600112</v>
+        <v>31602312</v>
       </c>
       <c r="C84">
-        <v>3.056436</v>
+        <v>3.003754</v>
       </c>
       <c r="D84" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E84" t="s">
-        <v>6</v>
+        <v>19</v>
       </c>
       <c r="F84" t="s">
         <v>40</v>
@@ -2232,16 +2232,16 @@
         <v>84</v>
       </c>
       <c r="B86">
-        <v>31602147</v>
+        <v>31602606</v>
       </c>
       <c r="C86">
-        <v>3.61732</v>
+        <v>2.883912</v>
       </c>
       <c r="D86" t="s">
+        <v>26</v>
+      </c>
+      <c r="E86" t="s">
         <v>23</v>
-      </c>
-      <c r="E86" t="s">
-        <v>25</v>
       </c>
       <c r="F86" t="s">
         <v>41</v>
@@ -2252,16 +2252,16 @@
         <v>85</v>
       </c>
       <c r="B87">
-        <v>31602148</v>
+        <v>31602608</v>
       </c>
       <c r="C87">
-        <v>3.602326</v>
+        <v>2.200322</v>
       </c>
       <c r="D87" t="s">
+        <v>26</v>
+      </c>
+      <c r="E87" t="s">
         <v>23</v>
-      </c>
-      <c r="E87" t="s">
-        <v>25</v>
       </c>
       <c r="F87" t="s">
         <v>41</v>
@@ -2272,16 +2272,16 @@
         <v>86</v>
       </c>
       <c r="B88">
-        <v>81600144</v>
+        <v>31602605</v>
       </c>
       <c r="C88">
-        <v>3.190164</v>
+        <v>3.349667</v>
       </c>
       <c r="D88" t="s">
+        <v>26</v>
+      </c>
+      <c r="E88" t="s">
         <v>23</v>
-      </c>
-      <c r="E88" t="s">
-        <v>25</v>
       </c>
       <c r="F88" t="s">
         <v>41</v>
@@ -2292,16 +2292,16 @@
         <v>87</v>
       </c>
       <c r="B89">
-        <v>31602114</v>
+        <v>31602636</v>
       </c>
       <c r="C89">
-        <v>3.257516</v>
+        <v>3.351104</v>
       </c>
       <c r="D89" t="s">
+        <v>26</v>
+      </c>
+      <c r="E89" t="s">
         <v>23</v>
-      </c>
-      <c r="E89" t="s">
-        <v>25</v>
       </c>
       <c r="F89" t="s">
         <v>41</v>
@@ -2312,16 +2312,16 @@
         <v>88</v>
       </c>
       <c r="B90">
-        <v>51601414</v>
+        <v>181600235</v>
       </c>
       <c r="C90">
-        <v>2.719745</v>
+        <v>2.771154</v>
       </c>
       <c r="D90" t="s">
-        <v>23</v>
+        <v>27</v>
       </c>
       <c r="E90" t="s">
-        <v>25</v>
+        <v>33</v>
       </c>
       <c r="F90" t="s">
         <v>41</v>
@@ -2332,16 +2332,16 @@
         <v>89</v>
       </c>
       <c r="B91">
-        <v>31602404</v>
+        <v>31502103</v>
       </c>
       <c r="C91">
-        <v>3.111726</v>
+        <v>1.83858</v>
       </c>
       <c r="D91" t="s">
-        <v>24</v>
+        <v>27</v>
       </c>
       <c r="E91" t="s">
-        <v>7</v>
+        <v>33</v>
       </c>
       <c r="F91" t="s">
         <v>41</v>
@@ -2352,16 +2352,16 @@
         <v>90</v>
       </c>
       <c r="B92">
-        <v>31602218</v>
+        <v>31602423</v>
       </c>
       <c r="C92">
-        <v>3.0081</v>
+        <v>2.736333</v>
       </c>
       <c r="D92" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E92" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F92" t="s">
         <v>41</v>
@@ -2372,16 +2372,16 @@
         <v>91</v>
       </c>
       <c r="B93">
-        <v>31602217</v>
+        <v>31602328</v>
       </c>
       <c r="C93">
-        <v>3.170779</v>
+        <v>2.366993</v>
       </c>
       <c r="D93" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E93" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F93" t="s">
         <v>41</v>
@@ -2392,16 +2392,16 @@
         <v>92</v>
       </c>
       <c r="B94">
-        <v>31602631</v>
+        <v>31602206</v>
       </c>
       <c r="C94">
-        <v>3.607492</v>
+        <v>3.307419</v>
       </c>
       <c r="D94" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E94" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F94" t="s">
         <v>41</v>
@@ -2412,16 +2412,16 @@
         <v>93</v>
       </c>
       <c r="B95">
-        <v>31602331</v>
+        <v>31602315</v>
       </c>
       <c r="C95">
-        <v>2.419536</v>
+        <v>3.306954</v>
       </c>
       <c r="D95" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E95" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F95" t="s">
         <v>41</v>
@@ -2432,16 +2432,16 @@
         <v>94</v>
       </c>
       <c r="B96">
-        <v>31602417</v>
+        <v>31602444</v>
       </c>
       <c r="C96">
-        <v>3.349843</v>
+        <v>3.673422</v>
       </c>
       <c r="D96" t="s">
-        <v>24</v>
+        <v>28</v>
       </c>
       <c r="E96" t="s">
-        <v>7</v>
+        <v>15</v>
       </c>
       <c r="F96" t="s">
         <v>41</v>
@@ -2452,16 +2452,16 @@
         <v>95</v>
       </c>
       <c r="B97">
-        <v>31602246</v>
+        <v>31602345</v>
       </c>
       <c r="C97">
-        <v>2.596942</v>
+        <v>3.846284</v>
       </c>
       <c r="D97" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E97" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F97" t="s">
         <v>41</v>
@@ -2472,16 +2472,16 @@
         <v>96</v>
       </c>
       <c r="B98">
-        <v>31602320</v>
+        <v>31602341</v>
       </c>
       <c r="C98">
-        <v>2.368807</v>
+        <v>3.918065</v>
       </c>
       <c r="D98" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="E98" t="s">
-        <v>23</v>
+        <v>15</v>
       </c>
       <c r="F98" t="s">
         <v>41</v>
@@ -2492,16 +2492,16 @@
         <v>97</v>
       </c>
       <c r="B99">
-        <v>31602323</v>
+        <v>31602505</v>
       </c>
       <c r="C99">
-        <v>2.228664</v>
+        <v>3.393189</v>
       </c>
       <c r="D99" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E99" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F99" t="s">
         <v>41</v>
@@ -2512,16 +2512,16 @@
         <v>98</v>
       </c>
       <c r="B100">
-        <v>131601225</v>
+        <v>111600112</v>
       </c>
       <c r="C100">
-        <v>2.417284</v>
+        <v>3.056436</v>
       </c>
       <c r="D100" t="s">
-        <v>25</v>
+        <v>29</v>
       </c>
       <c r="E100" t="s">
-        <v>23</v>
+        <v>13</v>
       </c>
       <c r="F100" t="s">
         <v>41</v>
@@ -2532,16 +2532,16 @@
         <v>99</v>
       </c>
       <c r="B101">
-        <v>181600112</v>
+        <v>31602246</v>
       </c>
       <c r="C101">
-        <v>3.12283</v>
+        <v>2.596942</v>
       </c>
       <c r="D101" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="E101" t="s">
-        <v>23</v>
+        <v>12</v>
       </c>
       <c r="F101" t="s">
         <v>41</v>
@@ -2552,13 +2552,13 @@
         <v>100</v>
       </c>
       <c r="B102">
-        <v>181600235</v>
+        <v>31602320</v>
       </c>
       <c r="C102">
-        <v>2.771154</v>
+        <v>2.368807</v>
       </c>
       <c r="D102" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E102" t="s">
         <v>12</v>
@@ -2572,13 +2572,13 @@
         <v>101</v>
       </c>
       <c r="B103">
-        <v>31502103</v>
+        <v>31602323</v>
       </c>
       <c r="C103">
-        <v>1.83858</v>
+        <v>2.228664</v>
       </c>
       <c r="D103" t="s">
-        <v>26</v>
+        <v>30</v>
       </c>
       <c r="E103" t="s">
         <v>12</v>
@@ -2592,16 +2592,16 @@
         <v>102</v>
       </c>
       <c r="B104">
-        <v>31602530</v>
+        <v>131601225</v>
       </c>
       <c r="C104">
-        <v>2.536991</v>
+        <v>2.417284</v>
       </c>
       <c r="D104" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E104" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F104" t="s">
         <v>41</v>
@@ -2612,16 +2612,16 @@
         <v>103</v>
       </c>
       <c r="B105">
-        <v>31602245</v>
+        <v>181600112</v>
       </c>
       <c r="C105">
-        <v>2.663855</v>
+        <v>3.12283</v>
       </c>
       <c r="D105" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="E105" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F105" t="s">
         <v>41</v>
@@ -2652,16 +2652,16 @@
         <v>105</v>
       </c>
       <c r="B107">
-        <v>31602105</v>
+        <v>31602242</v>
       </c>
       <c r="C107">
-        <v>3.174096</v>
+        <v>2.110938</v>
       </c>
       <c r="D107" t="s">
-        <v>28</v>
+        <v>31</v>
       </c>
       <c r="E107" t="s">
-        <v>27</v>
+        <v>36</v>
       </c>
       <c r="F107" t="s">
         <v>42</v>
@@ -2672,16 +2672,16 @@
         <v>106</v>
       </c>
       <c r="B108">
-        <v>31602228</v>
+        <v>31602235</v>
       </c>
       <c r="C108">
-        <v>2.419878</v>
+        <v>3.516719</v>
       </c>
       <c r="D108" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E108" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F108" t="s">
         <v>42</v>
@@ -2692,16 +2692,16 @@
         <v>107</v>
       </c>
       <c r="B109">
-        <v>31602412</v>
+        <v>31602643</v>
       </c>
       <c r="C109">
-        <v>2.831348</v>
+        <v>3.140683</v>
       </c>
       <c r="D109" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="E109" t="s">
-        <v>27</v>
+        <v>21</v>
       </c>
       <c r="F109" t="s">
         <v>42</v>
@@ -2712,16 +2712,16 @@
         <v>108</v>
       </c>
       <c r="B110">
-        <v>81600410</v>
+        <v>51601135</v>
       </c>
       <c r="C110">
-        <v>3.025857</v>
+        <v>2.002564</v>
       </c>
       <c r="D110" t="s">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="E110" t="s">
-        <v>36</v>
+        <v>21</v>
       </c>
       <c r="F110" t="s">
         <v>42</v>
@@ -2732,16 +2732,16 @@
         <v>109</v>
       </c>
       <c r="B111">
-        <v>31602210</v>
+        <v>31602427</v>
       </c>
       <c r="C111">
-        <v>1.601246</v>
+        <v>2.418868</v>
       </c>
       <c r="D111" t="s">
-        <v>29</v>
+        <v>33</v>
       </c>
       <c r="E111" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="F111" t="s">
         <v>42</v>
@@ -2752,16 +2752,16 @@
         <v>110</v>
       </c>
       <c r="B112">
-        <v>31601123</v>
+        <v>31602403</v>
       </c>
       <c r="C112">
-        <v>2.726875</v>
+        <v>2.404389</v>
       </c>
       <c r="D112" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="E112" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="F112" t="s">
         <v>42</v>
@@ -2772,16 +2772,16 @@
         <v>111</v>
       </c>
       <c r="B113">
-        <v>31602538</v>
+        <v>31602425</v>
       </c>
       <c r="C113">
-        <v>2.018567</v>
+        <v>2.561875</v>
       </c>
       <c r="D113" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="E113" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="F113" t="s">
         <v>42</v>
@@ -2792,16 +2792,16 @@
         <v>112</v>
       </c>
       <c r="B114">
-        <v>31602227</v>
+        <v>31602415</v>
       </c>
       <c r="C114">
-        <v>2.619934</v>
+        <v>3.616294</v>
       </c>
       <c r="D114" t="s">
-        <v>32</v>
+        <v>34</v>
       </c>
       <c r="E114" t="s">
-        <v>33</v>
+        <v>9</v>
       </c>
       <c r="F114" t="s">
         <v>42</v>
@@ -2812,16 +2812,16 @@
         <v>113</v>
       </c>
       <c r="B115">
-        <v>31602203</v>
+        <v>31602332</v>
       </c>
       <c r="C115">
-        <v>3.19873</v>
+        <v>2.49373</v>
       </c>
       <c r="D115" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="E115" t="s">
-        <v>32</v>
+        <v>9</v>
       </c>
       <c r="F115" t="s">
         <v>42</v>
@@ -2832,16 +2832,16 @@
         <v>114</v>
       </c>
       <c r="B116">
-        <v>31602235</v>
+        <v>31602247</v>
       </c>
       <c r="C116">
-        <v>3.516719</v>
+        <v>3.279655</v>
       </c>
       <c r="D116" t="s">
         <v>34</v>
       </c>
       <c r="E116" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F116" t="s">
         <v>42</v>
@@ -2852,16 +2852,16 @@
         <v>115</v>
       </c>
       <c r="B117">
-        <v>31602643</v>
+        <v>41602209</v>
       </c>
       <c r="C117">
-        <v>3.140683</v>
+        <v>2.851827</v>
       </c>
       <c r="D117" t="s">
         <v>34</v>
       </c>
       <c r="E117" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F117" t="s">
         <v>42</v>
@@ -2872,16 +2872,16 @@
         <v>116</v>
       </c>
       <c r="B118">
-        <v>51601135</v>
+        <v>31602136</v>
       </c>
       <c r="C118">
-        <v>2.002564</v>
+        <v>2.599676</v>
       </c>
       <c r="D118" t="s">
         <v>34</v>
       </c>
       <c r="E118" t="s">
-        <v>21</v>
+        <v>9</v>
       </c>
       <c r="F118" t="s">
         <v>42</v>
@@ -2892,16 +2892,16 @@
         <v>117</v>
       </c>
       <c r="B119">
-        <v>31602423</v>
+        <v>31602137</v>
       </c>
       <c r="C119">
-        <v>2.736333</v>
+        <v>3.312752</v>
       </c>
       <c r="D119" t="s">
         <v>35</v>
       </c>
       <c r="E119" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F119" t="s">
         <v>42</v>
@@ -2912,16 +2912,16 @@
         <v>118</v>
       </c>
       <c r="B120">
-        <v>31602328</v>
+        <v>81600143</v>
       </c>
       <c r="C120">
-        <v>2.366993</v>
+        <v>3.859539</v>
       </c>
       <c r="D120" t="s">
         <v>35</v>
       </c>
       <c r="E120" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F120" t="s">
         <v>42</v>
@@ -2932,16 +2932,16 @@
         <v>119</v>
       </c>
       <c r="B121">
-        <v>31602206</v>
+        <v>31602402</v>
       </c>
       <c r="C121">
-        <v>3.307419</v>
+        <v>2.952145</v>
       </c>
       <c r="D121" t="s">
         <v>35</v>
       </c>
       <c r="E121" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F121" t="s">
         <v>42</v>
@@ -2952,16 +2952,16 @@
         <v>120</v>
       </c>
       <c r="B122">
-        <v>31602315</v>
+        <v>31602131</v>
       </c>
       <c r="C122">
-        <v>3.306954</v>
+        <v>3.456209</v>
       </c>
       <c r="D122" t="s">
         <v>35</v>
       </c>
       <c r="E122" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F122" t="s">
         <v>42</v>
@@ -2972,16 +2972,16 @@
         <v>121</v>
       </c>
       <c r="B123">
-        <v>31602444</v>
+        <v>31602431</v>
       </c>
       <c r="C123">
-        <v>3.673422</v>
+        <v>3.644408</v>
       </c>
       <c r="D123" t="s">
         <v>35</v>
       </c>
       <c r="E123" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F123" t="s">
         <v>42</v>
@@ -2992,16 +2992,16 @@
         <v>122</v>
       </c>
       <c r="B124">
-        <v>31602345</v>
+        <v>31602140</v>
       </c>
       <c r="C124">
-        <v>3.846284</v>
+        <v>3.172871</v>
       </c>
       <c r="D124" t="s">
         <v>35</v>
       </c>
       <c r="E124" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F124" t="s">
         <v>42</v>
@@ -3012,16 +3012,16 @@
         <v>123</v>
       </c>
       <c r="B125">
-        <v>31602341</v>
+        <v>81600410</v>
       </c>
       <c r="C125">
-        <v>3.918065</v>
+        <v>3.025857</v>
       </c>
       <c r="D125" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="E125" t="s">
-        <v>13</v>
+        <v>31</v>
       </c>
       <c r="F125" t="s">
         <v>42</v>
@@ -3032,16 +3032,16 @@
         <v>124</v>
       </c>
       <c r="B126">
-        <v>31602242</v>
+        <v>31602210</v>
       </c>
       <c r="C126">
-        <v>2.110938</v>
+        <v>1.601246</v>
       </c>
       <c r="D126" t="s">
         <v>36</v>
       </c>
       <c r="E126" t="s">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="F126" t="s">
         <v>42</v>
